--- a/output/common_words/xls/common_words_among_websites_dict.xlsx
+++ b/output/common_words/xls/common_words_among_websites_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,60 +453,570 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>Cookies</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://www.yyy.at/ (54), https://www.xxx.at/ (6), https://www.zzz.at/ (11)</t>
+          <t>https://www.100-dakar.com (14), https://www.benjaminwahl.at (18), https://www.dasholzhaus.at (11), https://www.diequote.at (24), https://www.drehorgelkabarett.at (14), https://www.frautomani.at (4), https://www.ingridschiller.at (14), https://www.ottosaxinger.at (3), https://www.peligro.at (14), https://www.reinhardreisenzahn.com (4), https://www.schuledesungehorsams.at (2), https://www.skodone.at (18)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>Linz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://www.yyy.at/ (52), https://www.xxx.at/ (6), https://www.zzz.at/ (10)</t>
+          <t>https://www.die-schule.at (91), https://www.finopoly.at (5), https://www.freie-medien.at (10), https://www.freizeitundkommunikation.at (3), https://www.linzfmr.at (18), https://www.pflueckt.at (3), https://www.qujochoe.org (174), https://www.steingeschichten.at (21), https://www.velodrom-linz.at (5)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>Film</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.yyy.at/ (50), https://www.xxx.at/ (5)</t>
+          <t>https://www.apileofghosts.com (16), https://www.boxafilm.com (8), https://www.corpushomini.info (3), https://www.doublehappiness.at (12), https://www.hauntedspaces.net (5), https://www.retrogoldmine.com (8)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>Art</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>45</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.eipcp.net (13), https://www.faces-l.net (16), https://www.kairus.org (6), https://www.negentropy-sport.net (2), https://www.radical-openness.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>36</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.apephonie.org (2), https://www.dasholzhaus.at (10), https://www.drehorgelkabarett.at (8), https://www.ingridschiller.at (8), https://www.peligro.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.hungaromedia.at (8), https://www.kuenstlerinnen.at (8), https://www.luckeneder-art.at (8), https://www.platform-socialism.org (3), https://www.regional-express.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>95</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.derschueler.at (4), https://www.diebresche.org (23), https://www.lotta-gaffa.at (3), https://www.programmkinowels.at (65)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>März</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>49</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.das-kollektiv.at (8), https://www.feminismus-krawall.at (16), https://www.fiftitu.at (19), https://www.unkraut-comics.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rocky</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.hungaromedia.at (8), https://www.kuenstlerinnen.at (8), https://www.luckeneder-art.at (8), https://www.regional-express.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Schule</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>294</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.alteschule-gutau.at (4), https://www.derschueler.at (5), https://www.die-schule.at (285)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Uhr</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>202</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.fro.at (20), https://www.qujochoe.org (170), https://www.rudolfhabringer.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>177</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.radio-fri.at (6), https://www.schulradiotag.at (169), https://www.wegstrecken.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>65</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.remorauscher.at (41), https://www.theater-tamtam.org (5), https://www.theaternacht.at (19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kultur</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>34</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.frauenkultur.at (17), https://www.igkultur.at (14), https://www.konsortium.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Kunst</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>26</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.frauenkultur.at (16), https://www.kupf.at (6), https://www.triviale.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Festival</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.apileofghosts.com (11), https://www.filmriss.at (5), https://www.radical-openness.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Arbeiten</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.apephonie.org (2), https://www.fiftitu.at (10), https://www.leodressel.net (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>13</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.xxx.at/ (5), https://www.zzz.at/ (8)</t>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.benjaminwahl.at (5), https://www.downinthehole.org (3), https://www.skodone.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>45</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.archivia.at (33), https://www.rotespuren.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.lauthals.org (16), https://www.totalsilence.de (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Menschen</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.donau-danube.eu (3), https://www.vonunten.at (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Bürgerinnenrat</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.buergerinnenrat.at (8), https://www.vonunten.at (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.eliot.at (7), https://www.grgr.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Read</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>17</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.ellaraidel.com (7), https://www.freie-medien.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Magdalena</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.magdalenareiter.at (2), https://www.themagdalenaproject.org (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.anna-fiala.at (10), https://www.graztermine.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Labor</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.hoerstadt.at (2), https://www.migrazine.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Verein</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.hr-ctrl.or.at (3), https://www.verein-ent.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.arttraffic-strand.net (2), https://www.bb15.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>View</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.boxafilm.com (6), https://www.retrogoldmine.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Speicherung</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>12</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.radio-fri.at (6), https://www.theater-tamtam.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Februar</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.tabeacray.com (6), https://www.unkraut-comics.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.andreaskurz.net (2), https://www.andreaszingerle.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jahre</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.dasfundus.net (5), https://www.workstation.or.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de (5), https://www.lllk.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Projekt</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.hoerspuren.at (3), https://www.kulturviertelwochen.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.okabre.com (2), https://www.totalsilence.de (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Otto</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.otre.at (2), https://www.ottosaxinger.at (2)</t>
         </is>
       </c>
     </row>

--- a/output/common_words/xls/common_words_among_websites_dict.xlsx
+++ b/output/common_words/xls/common_words_among_websites_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,570 +453,4350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cookies</t>
+          <t>Linz</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>349</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.100-dakar.com (14), https://www.benjaminwahl.at (18), https://www.dasholzhaus.at (11), https://www.diequote.at (24), https://www.drehorgelkabarett.at (14), https://www.frautomani.at (4), https://www.ingridschiller.at (14), https://www.ottosaxinger.at (3), https://www.peligro.at (14), https://www.reinhardreisenzahn.com (4), https://www.schuledesungehorsams.at (2), https://www.skodone.at (18)</t>
+          <t>http://argemarie.at (8), http://augumohr.servus.at (2), http://bibnet.servus.at (7), http://core.servus.at (9), http://dasparkhotel.net (2), http://die-schule.at (91), http://diesenreiter.at (18), http://donautics.stwst.at (3), http://dorninger.servus.at (6), http://finopoly.at (5), http://frauenkultur.at (15), http://freie-medien.at (10), http://freizeitundkommunikation.at (3), http://fro.at (13), http://fruehling2012.servus.at (4), http://gg.servus.at (17), http://kmptt.servus.at (5), http://kri.servus.at (15), http://linzfmr.at (18), http://linzlinks.servus.at (5), http://newsbase.at (7), http://pena-flamenca.at (4), http://pflueckt.at (3), http://remorauscher.at (26), http://sabrina.servus.at (5), http://sdmk.at (3), http://spaetzuenderin.servus.at (4), http://steingeschichten.at (21), http://steinreich.servus.at (2), http://theaternyx.at (3), http://umbrella-march-linz.at (5), http://unkraut-comics.at (3), http://velodrom-linz.at (5), http://wohnzimmergalerie.net (2)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Linz</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330</v>
+        <v>117</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.die-schule.at (91), https://www.finopoly.at (5), https://www.freie-medien.at (10), https://www.freizeitundkommunikation.at (3), https://www.linzfmr.at (18), https://www.pflueckt.at (3), https://www.qujochoe.org (174), https://www.steingeschichten.at (21), https://www.velodrom-linz.at (5)</t>
+          <t>http://100-dakar.com (8), http://apephonie.org (2), http://benjaminwahl.at (5), http://beschallungsfrei.at (3), http://buergerinnenrat.at (5), http://dasholzhaus.at (10), http://diequote.at (10), http://drehorgelkabarett.at (8), http://hoerstadt.at (3), http://hungaromedia.at (5), http://ingridschiller.at (8), http://kuenstlerinnen.at (5), http://luckeneder-art.at (5), http://mrtg.servus.at (5), http://off.servus.at (5), http://ottosaxinger.at (2), http://peligro.at (8), http://reinhardreisenzahn.com (2), http://schager.servus.at (8), http://skodone.at (5), http://unibrennt.at (5)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>Art</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.apileofghosts.com (16), https://www.boxafilm.com (8), https://www.corpushomini.info (3), https://www.doublehappiness.at (12), https://www.hauntedspaces.net (5), https://www.retrogoldmine.com (8)</t>
+          <t>http://100-dakar.com (8), http://bb15.at (4), http://bettywimmer.net (2), http://club.stwst.at (3), http://core.servus.at (4), http://doublehappiness.at (3), http://eipcp.net (13), http://faces-l.net (16), http://kairus.org (6), http://kri.servus.at (6), http://linzfmr.at (11), http://mulonga.linz.funkfeuer.at (5), http://negentropy-sport.net (2), http://radical-openness.org (5), http://thenextlayer.org (10), http://unruly-thoughts.com (5), http://wirtshauswissenschaften.at (2)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Art</t>
+          <t>Cookies</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.eipcp.net (13), https://www.faces-l.net (16), https://www.kairus.org (6), https://www.negentropy-sport.net (2), https://www.radical-openness.org (8)</t>
+          <t>http://100-dakar.com (14), http://benjaminwahl.at (18), http://beschallungsfrei.at (22), http://dasholzhaus.at (11), http://diequote.at (24), http://drehorgelkabarett.at (14), http://frautomani.at (3), http://hoerstadt.at (22), http://ingridschiller.at (14), http://ottosaxinger.at (3), http://peligro.at (14), http://reinhardreisenzahn.com (4), http://schager.servus.at (15), http://schuledesungehorsams.at (2), http://skodone.at (18), http://werkenmitwiderstand.org (2)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Kunst</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.apephonie.org (2), https://www.dasholzhaus.at (10), https://www.drehorgelkabarett.at (8), https://www.ingridschiller.at (8), https://www.peligro.at (8)</t>
+          <t>http://archiv.fiftitu.at (3), http://backlab.at (10), http://bibnet.servus.at (3), http://dasfundus.net (3), http://diesenreiter.at (21), http://fdr.at (2), http://fiftitu.at (7), http://frauenkultur.at (16), http://igkultur.at (9), http://innenraumlavinia.at (5), http://konsortium.at (2), http://kunstraum.at (3), http://kupf.at (4), http://newsbase.at (9), http://triviale.at (4), http://verein-ent.at (5)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Page</t>
+          <t>Kultur</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.hungaromedia.at (8), https://www.kuenstlerinnen.at (8), https://www.luckeneder-art.at (8), https://www.platform-socialism.org (3), https://www.regional-express.org (8)</t>
+          <t>http://archiv.fiftitu.at (2), http://backlab.at (2), http://bibnet.servus.at (2), http://dasfundus.net (2), http://fiftitu.at (7), http://frauenkultur.at (17), http://fro.at (5), http://igkultur.at (15), http://konsortium.at (3), http://kulturviertelwochen.at (2), http://newsbase.at (4), http://sdmk.at (2), http://verein-ent.at (2), http://versorgerin.stwst.at (3), http://workstation.or.at (2)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Festival</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.derschueler.at (4), https://www.diebresche.org (23), https://www.lotta-gaffa.at (3), https://www.programmkinowels.at (65)</t>
+          <t>http://apileofghosts.com (11), http://doublehappiness.at (9), http://fdr.at (9), http://filmriss.at (5), http://gg.servus.at (7), http://kairus.org (4), http://kri.servus.at (9), http://linzfmr.at (5), http://lists.servus.at (3), http://mulonga.linz.funkfeuer.at (6), http://radical-openness.org (6), http://remorauscher.at (21), http://sdmk.at (3), http://unruly-thoughts.com (6)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>März</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.das-kollektiv.at (8), https://www.feminismus-krawall.at (16), https://www.fiftitu.at (19), https://www.unkraut-comics.at (6)</t>
+          <t>http://alteschule-gutau.at (2), http://boxafilm.com (4), http://derschueler.at (4), http://diebresche.org (23), http://diyrepaircafe.ig-demokratie.at (2), http://heartofnoise.at (2), http://lotta-gaffa.at (3), http://peterandrosch.at (4), http://programmkinowels.at (35), http://radio-fri.at (4), http://retrogoldmine.com (4), http://triviale.at (2), http://vonunten.at (10)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.hungaromedia.at (8), https://www.kuenstlerinnen.at (8), https://www.luckeneder-art.at (8), https://www.regional-express.org (8)</t>
+          <t>http://andreaszingerle.com (3), http://club.stwst.at (3), http://doublehappiness.at (3), http://eipcp.net (8), http://interstellarrecords.at (47), http://okabre.com (2), http://shanefinan.org (9), http://stwst.at (3), http://thenextlayer.org (21), http://totalsilence.de (3), http://waytoshambala.org (3), http://webstats.servus.at (2)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Schule</t>
+          <t>Uhr</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>294</v>
+        <v>137</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.alteschule-gutau.at (4), https://www.derschueler.at (5), https://www.die-schule.at (285)</t>
+          <t>http://backwood.at (6), http://das-kollektiv.at (3), http://fro.at (24), http://kolibri-schule.at (2), http://nurdietoten.at (5), http://rudolfhabringer.at (12), http://schulradiotag.at (73), http://villanorth.at (8), http://wegstrecken.at (2), http://zeugfaerberei.at (2)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Uhr</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.fro.at (20), https://www.qujochoe.org (170), https://www.rudolfhabringer.at (12)</t>
+          <t>http://babelingo.net (2), http://cba.fro.at (10), http://dorninger.servus.at (5), http://frf.at (2), http://fro.at (11), http://lists.servus.at (4), http://radio-fri.at (5), http://schulradiotag.at (169), http://wegstrecken.at (2)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>Juni</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.radio-fri.at (6), https://www.schulradiotag.at (169), https://www.wegstrecken.at (2)</t>
+          <t>http://archivia.at (16), http://backwood.at (11), http://dreiundachtzig.servus.at (5), http://fdr.at (2), http://gg.servus.at (6), http://landgaenge.eu (5), http://moodle.maiz.at (2), http://nurdietoten.at (10), http://unkraut-comics.at (3)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Theater</t>
+          <t>November</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.remorauscher.at (41), https://www.theater-tamtam.org (5), https://www.theaternacht.at (19)</t>
+          <t>http://filmriss.at (5), http://freie-medien.at (6), http://kolibri-schule.at (2), http://kri.servus.at (7), http://lauthals.org (8), http://spaetzuenderin.servus.at (8), http://theaternacht.at (10), http://tinaleisch.at (2), http://vonunten.at (11)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kultur</t>
+          <t>Projekt</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.frauenkultur.at (17), https://www.igkultur.at (14), https://www.konsortium.at (3)</t>
+          <t>http://aussitzen.kapu.or.at (4), http://donau-danube.eu (2), http://dreiundachtzig.servus.at (5), http://gfa.or.at (3), http://hoerspuren.at (3), http://kulturviertelwochen.at (3), http://n2n.servus.at (3), http://steingeschichten.at (7), http://velodrom-linz.at (3)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kunst</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.frauenkultur.at (16), https://www.kupf.at (6), https://www.triviale.at (4)</t>
+          <t>http://1n0ut.com (17), http://backwood.at (13), http://cinemanext.at (6), http://dreiundachtzig.servus.at (7), http://fro.at (6), http://gegenpolizeigewalt.servus.at (23), http://rotespuren.at (13), http://todableiter.servus.at (5)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Festival</t>
+          <t>Film</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.apileofghosts.com (11), https://www.filmriss.at (5), https://www.radical-openness.org (5)</t>
+          <t>http://apileofghosts.com (16), http://boxafilm.com (8), http://corpushomini.info (3), http://doublehappiness.at (12), http://ellaraidel.com (4), http://hauntedspaces.net (5), http://programmkinowels.at (9), http://retrogoldmine.com (8)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Arbeiten</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.apephonie.org (2), https://www.fiftitu.at (10), https://www.leodressel.net (2)</t>
+          <t>http://benjaminwahl.at (3), http://igkultur.at (12), http://kri.servus.at (8), http://kunstraum.at (3), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4), http://skodone.at (3), http://willworkforfood.servus.at (10)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.benjaminwahl.at (5), https://www.downinthehole.org (3), https://www.skodone.at (5)</t>
+          <t>http://anna-kraher.de (2), http://eliot.at (7), http://faxen-collective.net (2), http://grgr.at (11), http://prequalsteps.maiz.at (2), http://shanefinan.org (8), http://timesup.org (4), http://willworkforfood.servus.at (4)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>Page</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.archivia.at (33), https://www.rotespuren.at (12)</t>
+          <t>http://hungaromedia.at (8), http://igkultur.at (8), http://kuenstlerinnen.at (8), http://luckeneder-art.at (8), http://mrtg.servus.at (8), http://off.servus.at (8), http://okabre.com (2), http://platform-socialism.org (3)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Verein</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.lauthals.org (16), https://www.totalsilence.de (4)</t>
+          <t>http://bibnet.servus.at (2), http://frauenkultur.at (7), http://guglmugl.net (2), http://hr-ctrl.or.at (3), http://maiz.at (2), http://piramidops.at (3), http://velodrom-linz.at (3), http://verein-ent.at (7)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Menschen</t>
+          <t>Content</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.donau-danube.eu (3), https://www.vonunten.at (15)</t>
+          <t>http://hungaromedia.at (3), http://internationalerfrauentag.servus.at (2), http://kuenstlerinnen.at (3), http://luckeneder-art.at (3), http://mrtg.servus.at (3), http://off.servus.at (3), http://platform-socialism.org (2), http://themagdalenaproject.org (2)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bürgerinnenrat</t>
+          <t>Wurde</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.buergerinnenrat.at (8), https://www.vonunten.at (15)</t>
+          <t>http://argemarie.at (6), http://die-schule.at (84), http://gegenpolizeigewalt.servus.at (28), http://innenraumlavinia.at (6), http://lottaschreibt.at (17), http://rotespuren.at (8), http://theaternacht.at (5)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Immer</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.eliot.at (7), https://www.grgr.at (11)</t>
+          <t>http://anja.west.servus.at (2), http://aussitzen.kapu.or.at (3), http://die-schule.at (68), http://fdr.at (2), http://fuckhead.at (6), http://tschoerda.at (3), http://zeugfaerberei.at (2)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Read</t>
+          <t>März</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.ellaraidel.com (7), https://www.freie-medien.at (10)</t>
+          <t>http://backwood.at (5), http://das-kollektiv.at (8), http://feminismus-krawall.at (16), http://fiftitu.at (9), http://tabeacray.com (6), http://unkraut-comics.at (6), http://zapalotta.org (9)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Magdalena</t>
+          <t>Menschen</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.magdalenareiter.at (2), https://www.themagdalenaproject.org (10)</t>
+          <t>http://donau-danube.eu (3), http://ig-demokratie.at (3), http://kunstraum.at (3), http://rudolfhabringer.at (2), http://theater-tamtam.org (2), http://vonunten.at (15), http://werkenmitwiderstand.org (2)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Read</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.anna-fiala.at (10), https://www.graztermine.at (10)</t>
+          <t>http://andreaszingerle.com (5), http://ellaraidel.com (7), http://freie-medien.at (10), http://kairus.org (6), http://kunzwana.net (6), http://spaetzuenderin.servus.at (7), http://thenextlayer.org (11)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.hoerstadt.at (2), https://www.migrazine.at (8)</t>
+          <t>http://die-schule.at (66), http://drdidi.at (2), http://kubriel.servus.at (6), http://landgaenge.eu (6), http://livingwithplanb.derieg.com (43), http://peterandrosch.at (6)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Verein</t>
+          <t>One</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.hr-ctrl.or.at (3), https://www.verein-ent.at (7)</t>
+          <t>http://arttraffic-strand.net (2), http://bb15.at (7), http://interstellarrecords.at (22), http://joreg.ath.cx (3), http://kunzwana.net (3), http://livingwithplanb.derieg.com (46)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>One</t>
+          <t>April</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.arttraffic-strand.net (2), https://www.bb15.at (7)</t>
+          <t>http://archivia.at (33), http://backwood.at (7), http://cinemanext.at (7), http://eliot.at (3), http://unkraut-comics.at (4), http://zapalotta.org (5)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>View</t>
+          <t>Wien</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.boxafilm.com (6), https://www.retrogoldmine.com (6)</t>
+          <t>http://frauenkultur.at (11), http://hoerspuren.at (2), http://sabrina.servus.at (2), http://theaternyx.at (5), http://tschneid.servus.at (8), http://unibrennt.at (3)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Speicherung</t>
+          <t>International</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.radio-fri.at (6), https://www.theater-tamtam.org (6)</t>
+          <t>http://apileofghosts.com (4), http://ciras2008.servus.at (5), http://doublehappiness.at (9), http://igkultur.at (3), http://ment.org (10), http://themagdalenaproject.org (3)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Februar</t>
+          <t>Jahre</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.tabeacray.com (6), https://www.unkraut-comics.at (6)</t>
+          <t>http://dasfundus.net (5), http://pmk.or.at (3), http://steinreich.servus.at (3), http://theaternyx.at (4), http://unibrennt.at (9), http://workstation.or.at (4)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Andreas</t>
+          <t>Fã¼r</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.andreaskurz.net (2), https://www.andreaszingerle.com (6)</t>
+          <t>http://aussitzen.kapu.or.at (3), http://dreiundachtzig.servus.at (7), http://freie-medien.at (9), http://memphismemph.is (3), http://n2n.servus.at (3), http://valina.at (6)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jahre</t>
+          <t>Artist</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.dasfundus.net (5), https://www.workstation.or.at (4)</t>
+          <t>http://andreaszingerle.com (3), http://ellaraidel.com (3), http://faces-l.net (9), http://faxen-collective.net (3), http://kmptt.servus.at (3), http://shanefinan.org (8)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.anna-kraher.de (5), https://www.lllk.at (3)</t>
+          <t>http://hungaromedia.at (7), http://kuenstlerinnen.at (7), http://luckeneder-art.at (7), http://lugl.at (2), http://mrtg.servus.at (7), http://off.servus.at (7)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Projekt</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.hoerspuren.at (3), https://www.kulturviertelwochen.at (3)</t>
+          <t>http://hungaromedia.at (3), http://kuenstlerinnen.at (3), http://luckeneder-art.at (3), http://mrtg.servus.at (3), http://off.servus.at (3), http://remember-bruckner.com (6)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.okabre.com (2), https://www.totalsilence.de (3)</t>
+          <t>http://benjaminwahl.at (5), http://frautomani.at (2), http://photosalonhelga.com (2), http://sebastiansix.net (2), http://selfdefenceit.maiz.at (2), http://skodone.at (5)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>http://anja.west.servus.at (2), http://benjaminwahl.at (5), http://downinthehole.org (3), http://platform-socialism.org (2), http://skodone.at (5), http://themagdalenaproject.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Inhalt</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>12</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>http://heartofnoise.at (2), http://hr-ctrl.or.at (2), http://mute.audio (2), http://schager.servus.at (2), http://shiatsu-stef.at (2), http://tschoerda.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Schule</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>356</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>http://alteschule-gutau.at (4), http://derschueler.at (5), http://die-schule.at (285), http://schulradiotag.at (60), http://zeitgenossenschaft.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Freien</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>55</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>http://babelingo.net (3), http://cba.fro.at (4), http://fro.at (5), http://landderfreienmedien.at (3), http://schulradiotag.at (40)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>http://ellaraidel.com (3), http://joreg.ath.cx (7), http://kubriel.servus.at (10), http://sunobwegeser.net (3), http://tschneid.servus.at (19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>http://archivia.at (19), http://tabeacray.com (5), http://themagdalenaproject.org (8), http://unkraut-comics.at (4), http://zapalotta.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>34</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>http://ciras2008.servus.at (3), http://dorninger.servus.at (4), http://kmptt.servus.at (8), http://lauthals.org (16), http://qujochoe.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>25</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>http://drehorgelkabarett.at (3), http://ingridschiller.at (3), http://peligro.at (3), http://regional-express.org (13), http://schager.servus.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Politik</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>28</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>http://igkultur.at (6), http://lustwerkstatt.at (3), http://vonunten.at (12), http://wassermair.net (4), http://wirtshauswissenschaften.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Frauen</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>29</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>http://archiv.fiftitu.at (4), http://bibnet.servus.at (3), http://diequote.at (6), http://frauenkultur.at (12), http://sabrina.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>News</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>26</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>http://andreaszingerle.com (4), http://archiv.fiftitu.at (3), http://deathpositiv.at (5), http://lists.servus.at (3), http://villanorth.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Weiterlesen</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>25</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>http://core.servus.at (4), http://lustwerkstatt.at (5), http://texta.at (3), http://workstation.or.at (3), http://zapalotta.org (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>22</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>http://boxafilm.com (3), http://faces-l.net (10), http://retrogoldmine.com (3), http://selfdefenceit.maiz.at (2), http://stwst.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rocky</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>40</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>http://hungaromedia.at (8), http://kuenstlerinnen.at (8), http://luckeneder-art.at (8), http://mrtg.servus.at (8), http://off.servus.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>24</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>http://frauenkultur.at (7), http://newsbase.at (4), http://peligro.at (2), http://theaternacht.at (6), http://wassermair.net (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Medien</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>20</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>http://babelingo.net (4), http://konsortium.at (2), http://landderfreienmedien.at (3), http://steingeschichten.at (7), http://wassermair.net (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>27</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>http://benjaminwahl.at (5), http://beschallungsfrei.at (5), http://dasholzhaus.at (7), http://hoerstadt.at (5), http://skodone.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Februar</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>22</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>http://schager.servus.at (5), http://tabeacray.com (3), http://tschoerda.at (2), http://unkraut-comics.at (6), http://villanorth.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>20</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>http://hungaromedia.at (4), http://kuenstlerinnen.at (4), http://luckeneder-art.at (4), http://mrtg.servus.at (4), http://off.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Space</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>17</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>http://anna-kraher.de (3), http://bb15.at (4), http://collective-ika.org (2), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>15</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>http://hungaromedia.at (3), http://kuenstlerinnen.at (3), http://luckeneder-art.at (3), http://mrtg.servus.at (3), http://off.servus.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Server</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>15</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>http://hungaromedia.at (3), http://kuenstlerinnen.at (3), http://luckeneder-art.at (3), http://mrtg.servus.at (3), http://off.servus.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>13</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>http://beschallungsfrei.at (3), http://diyrepaircafe.ig-demokratie.at (3), http://hoerstadt.at (3), http://reinhardreisenzahn.com (2), http://tauschkreis-freiwald.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Http</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>http://hungaromedia.at (2), http://kuenstlerinnen.at (2), http://luckeneder-art.at (2), http://mrtg.servus.at (2), http://off.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>People</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>85</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>http://livingwithplanb.derieg.com (72), http://platform-socialism.org (2), http://streettraining.org (3), http://valina.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>68</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>http://remorauscher.at (41), http://theater-tamtam.org (5), http://theaternacht.at (19), http://theaternyx.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Album</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>39</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>http://base.at (2), http://interstellarrecords.at (29), http://lauthals.org (6), http://okabre.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Beim</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>38</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>http://gegenpolizeigewalt.servus.at (26), http://gg.servus.at (6), http://sdmk.at (4), http://velodrom-linz.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Installation</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>30</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>http://anja.west.servus.at (3), http://bettywimmer.net (2), http://grgr.at (8), http://sunobwegeser.net (17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Research</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>24</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>http://davidebevilacqua.com (3), http://hauntedspaces.net (3), http://research.radical-openness.org (16), http://selfdefenceit.maiz.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Demokratie</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>33</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>http://buergerinnenrat.at (6), http://diyrepaircafe.ig-demokratie.at (3), http://ig-demokratie.at (14), http://vonunten.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>22</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>http://forum.pmk.or.at (3), http://migrazine.at (5), http://photosalonhelga.com (2), http://willworkforfood.servus.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>33</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>http://anna-kraher.de (3), http://faces-l.net (11), http://ingorandolf.info (11), http://rotespuren.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>23</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>http://anna-fiala.at (4), http://anna-kraher.de (5), http://lllk.at (3), http://mzbaltazarslaboratory.org (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Artists</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>21</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>http://100-dakar.com (3), http://kri.servus.at (10), http://totalsilence.de (3), http://unruly-thoughts.com (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>http://prequalsteps.maiz.at (2), http://selfdefenceit.maiz.at (3), http://themagdalenaproject.org (3), http://unruly-thoughts.com (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>18</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>http://diequote.at (7), http://kairus.org (6), http://lugl.at (2), http://rudolfhabringer.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>20</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>http://boxafilm.com (4), http://research.radical-openness.org (5), http://retrogoldmine.com (4), http://tschneid.servus.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Linzer</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>14</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>http://kulturviertelwochen.at (2), http://lists.servus.at (3), http://steingeschichten.at (7), http://steinreich.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Kollektiv</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>http://das-kollektiv.at (5), http://fiftitu.at (7), http://maiz.at (2), http://tamaratrackt.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Leben</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>15</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>http://deathpositiv.at (5), http://gfa.or.at (2), http://kolibri-schule.at (2), http://rudolfhabringer.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Andrea</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>13</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>http://dan-tien.at (2), http://fraumayr.at (2), http://memphismemph.is (3), http://villanorth.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Künstlerinnen</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>12</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>http://fiftitu.at (5), http://newsbase.at (3), http://sabrina.servus.at (2), http://waldegg116.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Musik</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>11</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>http://akku-steyr.com (2), http://sdmk.at (3), http://stephanroiss.at (2), http://tamaratrackt.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Passwort</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>9</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>http://guglmugl.net (2), http://mute.audio (2), http://tauschkreis-freiwald.org (3), http://zeitgemeinschaft.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>11</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>http://core.servus.at (3), http://mulonga.linz.funkfeuer.at (3), http://radical-openness.org (3), http://werkenmitwiderstand.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Records</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>60</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>http://dilemmarecords.com (2), http://interstellarrecords.at (52), http://valina.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>47</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>http://dasfundus.net (2), http://remorauscher.at (42), http://rudolfhabringer.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>36</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>http://andreaszingerle.com (5), http://grgr.at (10), http://sunobwegeser.net (21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>34</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>http://graztermine.at (10), http://sunobwegeser.net (21), http://wirtshauswissenschaften.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>37</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>http://deathpositiv.at (9), http://programmkinowels.at (17), http://tschneid.servus.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>35</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>http://palmfiction.net (16), http://tabeacray.com (2), http://villanorth.at (17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>24</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>http://kubriel.servus.at (4), http://lauthals.org (16), http://totalsilence.de (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Live</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>28</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>http://dorninger.servus.at (5), http://finopoly.at (16), http://valina.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>20</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>http://selfdefenceit.maiz.at (2), http://shanefinan.org (12), http://themagdalenaproject.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>27</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>http://bb15.at (7), http://kri.servus.at (8), http://mzbaltazarslaboratory.org (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Monat</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>15</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>http://habitat.servus.at (11), http://moodle.maiz.at (2), http://zeugfaerberei.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Â</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>20</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>http://aussitzen.kapu.or.at (4), http://freie-medien.at (6), http://memphismemph.is (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Kommentare</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>20</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>http://dreiundachtzig.servus.at (10), http://kellerabteil.org (3), http://spaetzuenderin.servus.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>15</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>http://100-dakar.com (3), http://eipcp.net (9), http://stwst.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>18</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>http://dasparkhotel.net (2), http://eipcp.net (9), http://thenextlayer.org (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Stwst</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>14</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>http://club.stwst.at (8), http://finopoly.at (3), http://stwst.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>12</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>http://ogg.at (2), http://themagdalenaproject.org (2), http://thenextlayer.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Geschichte</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>13</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>http://hoerspuren.at (2), http://rotespuren.at (8), http://workstation.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Fro</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>14</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>http://cba.fro.at (3), http://fro.at (8), http://lists.servus.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Fiftitu</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>21</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>http://archiv.fiftitu.at (5), http://diequote.at (8), http://frauenkultur.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>20</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>http://argemarie.at (7), http://collective-ika.org (5), http://tschneid.servus.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>16</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>http://eipcp.net (8), http://interregnum.live (5), http://stwst.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Arbeiten</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>12</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>http://apephonie.org (2), http://fiftitu.at (8), http://leodressel.net (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Arbeit</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>12</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>http://lustwerkstatt.at (2), http://reinhardreisenzahn.com (2), http://tschneid.servus.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Unserer</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>20</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>http://beschallungsfrei.at (7), http://dasholzhaus.at (6), http://hoerstadt.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>14</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>http://innenraumlavinia.at (5), http://memphismemph.is (7), http://tinaleisch.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Teil</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>14</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>http://cba.fro.at (4), http://radio-fri.at (7), http://sdmk.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Collective</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>14</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>http://collective-ika.org (3), http://kmptt.servus.at (4), http://shanefinan.org (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Speicherung</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>18</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>http://peterandrosch.at (6), http://radio-fri.at (6), http://theater-tamtam.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Servusat</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>12</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>http://core.servus.at (4), http://davidebevilacqua.com (2), http://research.radical-openness.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Raidel</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>12</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>http://antonraidel.com (2), http://apileofghosts.com (4), http://ellaraidel.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oktober</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>14</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>http://sabrina.servus.at (4), http://unibrennt.at (6), http://unkraut-comics.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Findet</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>10</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>http://fdr.at (2), http://landderfreienmedien.at (2), http://theaternacht.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Events</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>11</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>http://physicalnarration.org (2), http://timesup.org (3), http://willworkforfood.servus.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Dezember</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>15</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>http://freie-medien.at (5), http://schager.servus.at (4), http://tschoerda.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Bruckner</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>14</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>http://kuva.at (4), http://peterandrosch.at (4), http://remember-bruckner.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>11</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>http://andreaskurz.net (2), http://andreaszingerle.com (6), http://kairus.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Widerstand</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>11</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>http://nurdietoten.at (5), http://sabrina.servus.at (4), http://werkenmitwiderstand.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Webseite</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>12</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>http://beschallungsfrei.at (5), http://hoerstadt.at (5), http://werkenmitwiderstand.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Technische</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>15</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>http://peterandrosch.at (5), http://radio-fri.at (5), http://theater-tamtam.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Dienste</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>13</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>http://beschallungsfrei.at (5), http://dasholzhaus.at (3), http://hoerstadt.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Anton</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>11</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>http://antonraidel.com (3), http://kuva.at (5), http://peterandrosch.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Radical</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>12</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>http://core.servus.at (4), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Projekte</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>9</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>http://das-kollektiv.at (3), http://deathpositiv.at (4), http://wegstrecken.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Program</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>10</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>http://davidebevilacqua.com (2), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Oberösterreich</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>8</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>http://fdr.at (2), http://kupf.at (4), http://sabrina.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Meets</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>10</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>http://core.servus.at (4), http://mulonga.linz.funkfeuer.at (3), http://radical-openness.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Januar</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>11</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>http://schager.servus.at (4), http://unkraut-comics.at (4), http://wirtshauswissenschaften.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Six</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>7</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>http://faxen-collective.net (2), http://sebastiansix.net (3), http://wohnzimmergalerie.net (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Portfolio</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>8</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>http://anna-kraher.de (2), http://boxafilm.com (3), http://retrogoldmine.com (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>7</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>http://forum.pmk.or.at (2), http://prequalsteps.maiz.at (2), http://webstats.servus.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Kapu</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>7</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>http://augumohr.servus.at (2), http://aussitzen.kapu.or.at (3), http://kapu.or.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Boxa</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>8</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>http://boxafilm.com (3), http://corpushomini.info (2), http://retrogoldmine.com (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Alten</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>7</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>http://alteschule-gutau.at (2), http://backlab.at (3), http://zeitgenossenschaft.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Sendung</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>61</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>http://cba.fro.at (7), http://schulradiotag.at (54)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Interstellar</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>63</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>http://graztermine.at (9), http://interstellarrecords.at (54)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>50</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>http://livingwithplanb.derieg.com (44), http://timesup.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>52</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>http://interstellarrecords.at (44), http://steingeschichten.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>59</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>http://livingwithplanb.derieg.com (43), http://timesup.org (16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Still</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>43</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>http://livingwithplanb.derieg.com (40), http://texta.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Many</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>44</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>http://livingwithplanb.derieg.com (39), http://valina.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Seidl</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>40</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>http://ment.org (37), http://nichtstun.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Infos</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>37</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>http://programmkinowels.at (34), http://wirtshauswissenschaften.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Erde</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>42</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>http://argemarie.at (9), http://lottaschreibt.at (33)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Radios</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>26</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>http://archivia.at (23), http://babelingo.net (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Markus</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>25</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>http://ment.org (22), http://nichtstun.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Veröffentlicht</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>30</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>http://diebresche.org (20), http://dreiundachtzig.servus.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>21</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>http://base.at (2), http://ingorandolf.info (19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Workshop</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>20</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>http://alteschule-gutau.at (2), http://mzbaltazarslaboratory.org (18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Love</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>20</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>http://mzbaltazarslaboratory.org (18), http://steinreich.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>21</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>http://diesenreiter.at (16), http://thomasbaum.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>18</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>http://davidebevilacqua.com (2), http://sunobwegeser.net (16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>18</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>http://cinemanext.at (15), http://filmriss.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Fragen</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>18</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>http://gfa.or.at (3), http://vonunten.at (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>21</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>http://linzfmr.at (6), http://mzbaltazarslaboratory.org (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Bürgerinnenrat</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>23</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>http://buergerinnenrat.at (8), http://vonunten.at (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Lotta</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>16</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>http://lotta-gaffa.at (3), http://lottaschreibt.at (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Feminist</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>25</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>http://mzbaltazarslaboratory.org (13), http://unruly-thoughts.com (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Digitalen</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>15</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>http://archivia.at (13), http://konsortium.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Lesung</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>22</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>http://stephanroiss.at (10), http://thomasbaum.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>22</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>http://mzbaltazarslaboratory.org (11), http://research.radical-openness.org (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Kupf</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>15</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>http://freie-medien.at (4), http://kupf.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Filmfestival</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>14</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>http://doublehappiness.at (11), http://sdmk.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Conference</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>15</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>http://ciras2008.servus.at (4), http://ment.org (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>13</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>http://ment.org (10), http://stefaner-schmid.net (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Award</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>15</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>http://derkaktus.at (10), http://ellaraidel.com (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Audio</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>16</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>http://ogg.at (6), http://sunobwegeser.net (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>20</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>http://anna-fiala.at (10), http://graztermine.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Rahmen</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>15</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>http://fiftitu.at (9), http://gg.servus.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Magdalena</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>11</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>http://magdalenareiter.at (2), http://themagdalenaproject.org (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Konzert</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>14</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>http://gg.servus.at (9), http://kapu.or.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Vorteile</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>13</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>http://newsbase.at (5), http://zumutbar.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Tod</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>11</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>http://deathpositiv.at (8), http://todableiter.servus.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>10</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>http://ingorandolf.info (8), http://themagdalenaproject.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Richie</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>11</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>http://dilemmarecords.com (3), http://graztermine.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>10</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>http://collective-ika.org (2), http://linzfmr.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Pile</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>13</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>http://apileofghosts.com (8), http://ellaraidel.com (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Kunstuniversität</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>13</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>http://sabrina.servus.at (5), http://steingeschichten.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Kompott</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>13</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>http://kmptt.servus.at (5), http://kri.servus.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>10</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>http://eipcp.net (8), http://geraldkogler.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Androsch</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>10</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>http://drdidi.at (2), http://peterandrosch.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Veranstaltungen</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>14</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>http://dreiundachtzig.servus.at (7), http://villanorth.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Turn</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>11</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>http://club.stwst.at (4), http://ncd.servus.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Sozialen</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>9</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>http://donau-danube.eu (2), http://zumutbar.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Smiling</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>13</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>http://base.at (7), http://dorninger.servus.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Sexarbeit</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>9</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>http://lustwerkstatt.at (7), http://maiz.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Neuen</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>9</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>http://konsortium.at (2), http://steingeschichten.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>11</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>http://ncd.servus.at (7), http://research.radical-openness.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Öffentlichen</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>8</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>http://frauenkultur.at (6), http://konsortium.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Welcome</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>8</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>http://prequalsteps.maiz.at (2), http://regional-express.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>8</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>http://freizeitundkommunikation.at (2), http://geraldkogler.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>View</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>12</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>http://boxafilm.com (6), http://retrogoldmine.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>10</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>http://radio-fri.at (6), http://umbrella-march-linz.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Que</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>8</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>http://dunkelkammer.net (2), http://umbrella-march-linz.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>8</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>http://kellerabteil.org (6), http://platform-socialism.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Kunstraum</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>10</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>http://kunstraum.at (4), http://lists.servus.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Klicken</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>12</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>http://beschallungsfrei.at (6), http://hoerstadt.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Heute</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>8</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>http://dreiundachtzig.servus.at (6), http://gfa.or.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Ghosts</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>10</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>http://apileofghosts.com (6), http://ellaraidel.com (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Geister</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>9</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>http://memphismemph.is (3), http://migrazine.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Future</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>9</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>http://kairus.org (3), http://regional-express.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Freistadt</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>8</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>http://frf.at (2), http://landgaenge.eu (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Documentary</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>11</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>http://apileofghosts.com (5), http://doublehappiness.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>8</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>http://patrick.derieg.com (2), http://waytoshambala.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Buddhas</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>10</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>http://base.at (6), http://dorninger.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Zeitgenossenschaft</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>9</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>http://tauschkreis-freiwald.org (5), http://zeitgenossenschaft.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Versorgerin</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>10</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>http://freie-medien.at (5), http://versorgerin.stwst.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Themen</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>8</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>http://fro.at (5), http://igkultur.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Seit</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>7</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>http://fdr.at (2), http://velodrom-linz.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Prozent</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>7</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>http://palmfiction.net (5), http://stopshop.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Migrantinnen</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>9</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>http://maiz.at (5), http://playground224.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Literatur</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>7</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>http://akku-steyr.com (2), http://bibnet.servus.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Ingo</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>9</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>http://ingorandolf.info (5), http://todableiter.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Haunted</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>10</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>http://ellaraidel.com (5), http://hauntedspaces.net (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Feminismus</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>7</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>http://feminismus-krawall.at (5), http://lustwerkstatt.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Enabledisable</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>10</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>http://benjaminwahl.at (5), http://skodone.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Different</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>7</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>http://totalsilence.de (2), http://unruly-thoughts.com (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Categories</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>8</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>http://andreaszingerle.com (5), http://streettraining.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Zweck</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>8</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>http://peterandrosch.at (4), http://theater-tamtam.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Zugriff</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>8</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>http://peterandrosch.at (4), http://theater-tamtam.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>8</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>http://bb15.at (4), http://kairus.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Wolfgang</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>7</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>http://dorninger.servus.at (3), http://wolfgang-muellegger.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Within</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>8</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>http://club.stwst.at (4), http://prequalsteps.maiz.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Strom</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>8</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>http://finopoly.at (4), http://stwst.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Stadtwerkstatt</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>8</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>http://club.stwst.at (4), http://stwst.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Spaces</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>6</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>http://base.at (2), http://hauntedspaces.net (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Rudolf</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>8</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>http://kubriel.servus.at (4), http://rudolfhabringer.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>7</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>http://physicalnarration.org (4), http://wiki.physicalnarration.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Openness</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>8</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>8</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>http://benjaminwahl.at (4), http://skodone.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Mnc</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>8</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>http://benjaminwahl.at (4), http://skodone.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Like</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>7</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>http://apileofghosts.com (4), http://platform-socialism.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Kinder</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>7</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>http://derschueler.at (3), http://kolibri-schule.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Javascript</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>6</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>http://cloud.servus.at (2), http://kuva.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>7</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>http://anna-kraher.de (3), http://ciras2008.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>7</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>http://apileofghosts.com (4), http://dasparkhotel.net (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>8</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>http://boxafilm.com (4), http://retrogoldmine.com (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Hauptplatz</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>8</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>http://feminismus-krawall.at (4), http://sabrina.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Grenzen</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>6</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>http://fuckhead.at (4), http://werkenmitwiderstand.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Gibt</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>7</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>http://buergerinnenrat.at (4), http://zeitgenossenschaft.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Einstellungenhier</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>8</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>http://beschallungsfrei.at (4), http://hoerstadt.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Doku</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>8</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>http://boxafilm.com (4), http://retrogoldmine.com (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Digitalisierung</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>6</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>http://hr-ctrl.or.at (2), http://piramidops.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Capitalism</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>7</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>http://hauntedspaces.net (4), http://interregnum.live (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>6</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>http://ingridschiller.at (2), http://kuva.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Blockieren</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>7</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>http://dasholzhaus.at (4), http://hoerstadt.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Verschiedenen</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>5</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>http://anja.west.servus.at (3), http://kulturviertelwochen.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>5</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>http://forum.pmk.or.at (3), http://totalsilence.de (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Tel</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>5</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>http://drehorgelkabarett.at (2), http://freizeitundkommunikation.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Stef</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>5</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>http://dan-tien.at (2), http://shiatsu-stef.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Spoken</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>5</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>http://selbstlaut.net (3), http://tamaratrackt.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>6</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>http://100-dakar.com (3), http://sandrabirklbauer.com (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Privacy</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>6</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>http://benjaminwahl.at (3), http://skodone.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Party</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>5</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>http://aussitzen.kapu.or.at (3), http://pmk.or.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Ort</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>6</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>http://backlab.at (3), http://das-kollektiv.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Mitglieder</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>6</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>http://igkultur.at (3), http://tauschkreis-freiwald.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Migrant</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>5</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>http://prequalsteps.maiz.at (3), http://selfdefenceit.maiz.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>6</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>http://andreaszingerle.com (3), http://kairus.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Lernen</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>5</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>http://derschueler.at (2), http://kolibri-schule.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Jahr</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>5</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>http://unibrennt.at (3), http://workstation.or.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Initiative</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>6</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>http://filmriss.at (3), http://stwst.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Hacktivism</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>6</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>http://mulonga.linz.funkfeuer.at (3), http://radical-openness.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>6</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>http://apileofghosts.com (3), http://hauntedspaces.net (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Frauentag</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>5</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>http://feminismus-krawall.at (3), http://internationalerfrauentag.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Filmische</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>6</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>http://boxafilm.com (3), http://retrogoldmine.com (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>6</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>http://dilemmarecords.com (3), http://filmriss.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Double</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>5</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>http://doublehappiness.at (2), http://sebastiansix.net (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Dorf</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>5</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>http://landderfreienmedien.at (3), http://nichtstun.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Donau</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>5</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>http://dasparkhotel.net (3), http://donau-danube.eu (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>4</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>http://maiz.at (2), http://playground224.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Willkommen</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>4</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>http://dasfundus.net (2), http://ingridschiller.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Voller</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>4</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>http://alteschule-gutau.at (2), http://kulturviertelwochen.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Vernetzungsstelle</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>4</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>http://archiv.fiftitu.at (2), http://bibnet.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Uses</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>4</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>http://ingridschiller.at (2), http://peligro.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Unterschiedlichen</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>4</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>http://maiz.at (2), http://playground224.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Tamara</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>4</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>http://ig-demokratie.at (2), http://tamaratrackt.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>4</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>http://ogg.at (2), http://stefaner-schmid.net (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Something</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>4</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>http://kuk-linz.at (2), http://platform-socialism.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>4</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>http://derschueler.at (2), http://versorgerin.stwst.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
           <t>Otto</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B284" t="n">
         <v>4</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>https://www.otre.at (2), https://www.ottosaxinger.at (2)</t>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>http://otre.at (2), http://ottosaxinger.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>4</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>http://frautomani.at (2), http://verein-ent.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Herzlich</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>4</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>http://drehorgelkabarett.at (2), http://tauschkreis-freiwald.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>4</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>http://faxen-collective.net (2), http://lugl.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Grafik</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>4</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>http://sombrero.at (2), http://wolfgang-muellegger.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Förderung</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>4</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>http://hr-ctrl.or.at (2), http://verein-ent.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Coming</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>4</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>http://birgit-wagner.net (2), http://selbstlaut.net (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Bitte</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>4</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>http://reinhardreisenzahn.com (2), http://zeugfaerberei.at (2)</t>
         </is>
       </c>
     </row>

--- a/output/common_words/xls/common_words_among_websites_dict.xlsx
+++ b/output/common_words/xls/common_words_among_websites_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C291"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,11 +457,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://argemarie.at (8), http://augumohr.servus.at (2), http://bibnet.servus.at (7), http://core.servus.at (9), http://dasparkhotel.net (2), http://die-schule.at (91), http://diesenreiter.at (18), http://donautics.stwst.at (3), http://dorninger.servus.at (6), http://finopoly.at (5), http://frauenkultur.at (15), http://freie-medien.at (10), http://freizeitundkommunikation.at (3), http://fro.at (13), http://fruehling2012.servus.at (4), http://gg.servus.at (17), http://kmptt.servus.at (5), http://kri.servus.at (15), http://linzfmr.at (18), http://linzlinks.servus.at (5), http://newsbase.at (7), http://pena-flamenca.at (4), http://pflueckt.at (3), http://remorauscher.at (26), http://sabrina.servus.at (5), http://sdmk.at (3), http://spaetzuenderin.servus.at (4), http://steingeschichten.at (21), http://steinreich.servus.at (2), http://theaternyx.at (3), http://umbrella-march-linz.at (5), http://unkraut-comics.at (3), http://velodrom-linz.at (5), http://wohnzimmergalerie.net (2)</t>
+          <t>http://argemarie.at (8), http://augumohr.servus.at (2), http://bibnet.servus.at (7), http://core.servus.at (10), http://dasparkhotel.net (2), http://die-schule.at (91), http://diesenreiter.at (18), http://donautics.stwst.at (3), http://dorninger.servus.at (6), http://finopoly.at (5), http://frauenkultur.at (15), http://freie-medien.at (10), http://freizeitundkommunikation.at (3), http://fro.at (8), http://fruehling2012.servus.at (4), http://gg.servus.at (17), http://kmptt.servus.at (5), http://kri.servus.at (15), http://linzfmr.at (18), http://linzlinks.servus.at (5), http://newsbase.at (5), http://pena-flamenca.at (4), http://pflueckt.at (3), http://remorauscher.at (26), http://sabrina.servus.at (5), http://sdmk.at (3), http://spaetzuenderin.servus.at (4), http://steingeschichten.at (21), http://steinreich.servus.at (2), http://timesup.org (4), http://umbrella-march-linz.at (5), http://unkraut-comics.at (3), http://velodrom-linz.at (5)</t>
         </is>
       </c>
     </row>
@@ -472,101 +472,101 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://100-dakar.com (8), http://apephonie.org (2), http://benjaminwahl.at (5), http://beschallungsfrei.at (3), http://buergerinnenrat.at (5), http://dasholzhaus.at (10), http://diequote.at (10), http://drehorgelkabarett.at (8), http://hoerstadt.at (3), http://hungaromedia.at (5), http://ingridschiller.at (8), http://kuenstlerinnen.at (5), http://luckeneder-art.at (5), http://mrtg.servus.at (5), http://off.servus.at (5), http://ottosaxinger.at (2), http://peligro.at (8), http://reinhardreisenzahn.com (2), http://schager.servus.at (8), http://skodone.at (5), http://unibrennt.at (5)</t>
+          <t>http://100-dakar.com (8), http://apephonie.org (2), http://benjaminwahl.at (5), http://beschallungsfrei.at (3), http://buergerinnenrat.at (5), http://dasholzhaus.at (10), http://diequote.at (10), http://drehorgelkabarett.at (8), http://ingridschiller.at (8), http://kuenstlerinnen.at (5), http://mrtg.servus.at (5), http://off.servus.at (5), http://ottosaxinger.at (2), http://peligro.at (8), http://reinhardreisenzahn.com (2), http://unibrennt.at (5)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Art</t>
+          <t>Kunst</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://100-dakar.com (8), http://bb15.at (4), http://bettywimmer.net (2), http://club.stwst.at (3), http://core.servus.at (4), http://doublehappiness.at (3), http://eipcp.net (13), http://faces-l.net (16), http://kairus.org (6), http://kri.servus.at (6), http://linzfmr.at (11), http://mulonga.linz.funkfeuer.at (5), http://negentropy-sport.net (2), http://radical-openness.org (5), http://thenextlayer.org (10), http://unruly-thoughts.com (5), http://wirtshauswissenschaften.at (2)</t>
+          <t>http://archiv.fiftitu.at (3), http://backlab.at (10), http://bibnet.servus.at (3), http://dasfundus.net (3), http://diesenreiter.at (21), http://fdr.at (2), http://fiftitu.at (7), http://frauenkultur.at (16), http://igkultur.at (8), http://innenraumlavinia.at (5), http://konsortium.at (2), http://kunstraum.at (3), http://kupf.at (4), http://newsbase.at (9), http://triviale.at (4)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cookies</t>
+          <t>Festival</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://100-dakar.com (14), http://benjaminwahl.at (18), http://beschallungsfrei.at (22), http://dasholzhaus.at (11), http://diequote.at (24), http://drehorgelkabarett.at (14), http://frautomani.at (3), http://hoerstadt.at (22), http://ingridschiller.at (14), http://ottosaxinger.at (3), http://peligro.at (14), http://reinhardreisenzahn.com (4), http://schager.servus.at (15), http://schuledesungehorsams.at (2), http://skodone.at (18), http://werkenmitwiderstand.org (2)</t>
+          <t>http://apileofghosts.com (11), http://doublehappiness.at (9), http://fdr.at (9), http://filmriss.at (5), http://gg.servus.at (7), http://kairus.org (4), http://kri.servus.at (9), http://linzfmr.at (5), http://lists.servus.at (3), http://mulonga.linz.funkfeuer.at (6), http://radical-openness.org (6), http://remorauscher.at (21), http://sdmk.at (3), http://unruly-thoughts.com (6)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kunst</t>
+          <t>Art</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://archiv.fiftitu.at (3), http://backlab.at (10), http://bibnet.servus.at (3), http://dasfundus.net (3), http://diesenreiter.at (21), http://fdr.at (2), http://fiftitu.at (7), http://frauenkultur.at (16), http://igkultur.at (9), http://innenraumlavinia.at (5), http://konsortium.at (2), http://kunstraum.at (3), http://kupf.at (4), http://newsbase.at (9), http://triviale.at (4), http://verein-ent.at (5)</t>
+          <t>http://100-dakar.com (8), http://bb15.at (4), http://bettywimmer.net (2), http://core.servus.at (3), http://doublehappiness.at (3), http://eipcp.net (13), http://faces-l.net (16), http://kairus.org (6), http://kri.servus.at (6), http://linzfmr.at (11), http://mulonga.linz.funkfeuer.at (5), http://radical-openness.org (5), http://thenextlayer.org (10), http://unruly-thoughts.com (5)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kultur</t>
+          <t>Cookies</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://archiv.fiftitu.at (2), http://backlab.at (2), http://bibnet.servus.at (2), http://dasfundus.net (2), http://fiftitu.at (7), http://frauenkultur.at (17), http://fro.at (5), http://igkultur.at (15), http://konsortium.at (3), http://kulturviertelwochen.at (2), http://newsbase.at (4), http://sdmk.at (2), http://verein-ent.at (2), http://versorgerin.stwst.at (3), http://workstation.or.at (2)</t>
+          <t>http://100-dakar.com (14), http://benjaminwahl.at (18), http://beschallungsfrei.at (22), http://dasholzhaus.at (11), http://diequote.at (24), http://drehorgelkabarett.at (14), http://frautomani.at (3), http://ingridschiller.at (14), http://ottosaxinger.at (3), http://peligro.at (14), http://reinhardreisenzahn.com (4), http://schuledesungehorsams.at (2), http://werkenmitwiderstand.org (2)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Festival</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://apileofghosts.com (11), http://doublehappiness.at (9), http://fdr.at (9), http://filmriss.at (5), http://gg.servus.at (7), http://kairus.org (4), http://kri.servus.at (9), http://linzfmr.at (5), http://lists.servus.at (3), http://mulonga.linz.funkfeuer.at (6), http://radical-openness.org (6), http://remorauscher.at (21), http://sdmk.at (3), http://unruly-thoughts.com (6)</t>
+          <t>http://alteschule-gutau.at (2), http://boxafilm.com (4), http://cba.fro.at (4), http://derschueler.at (4), http://diebresche.org (23), http://diyrepaircafe.ig-demokratie.at (2), http://heartofnoise.at (2), http://lotta-gaffa.at (3), http://programmkinowels.at (41), http://retrogoldmine.com (4), http://triviale.at (2), http://vonunten.at (10)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Kultur</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://alteschule-gutau.at (2), http://boxafilm.com (4), http://derschueler.at (4), http://diebresche.org (23), http://diyrepaircafe.ig-demokratie.at (2), http://heartofnoise.at (2), http://lotta-gaffa.at (3), http://peterandrosch.at (4), http://programmkinowels.at (35), http://radio-fri.at (4), http://retrogoldmine.com (4), http://triviale.at (2), http://vonunten.at (10)</t>
+          <t>http://archiv.fiftitu.at (2), http://backlab.at (2), http://bibnet.servus.at (2), http://dasfundus.net (2), http://fiftitu.at (6), http://frauenkultur.at (17), http://igkultur.at (13), http://konsortium.at (3), http://kulturviertelwochen.at (2), http://newsbase.at (4), http://sdmk.at (2), http://workstation.or.at (2)</t>
         </is>
       </c>
     </row>
@@ -577,26 +577,26 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://andreaszingerle.com (3), http://club.stwst.at (3), http://doublehappiness.at (3), http://eipcp.net (8), http://interstellarrecords.at (47), http://okabre.com (2), http://shanefinan.org (9), http://stwst.at (3), http://thenextlayer.org (21), http://totalsilence.de (3), http://waytoshambala.org (3), http://webstats.servus.at (2)</t>
+          <t>http://andreaszingerle.com (3), http://doublehappiness.at (3), http://eipcp.net (8), http://interstellarrecords.at (47), http://okabre.com (2), http://shanefinan.org (10), http://stwst.at (3), http://thenextlayer.org (21), http://totalsilence.de (3), http://waytoshambala.org (3), http://webstats.servus.at (2)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Uhr</t>
+          <t>Juni</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://backwood.at (6), http://das-kollektiv.at (3), http://fro.at (24), http://kolibri-schule.at (2), http://nurdietoten.at (5), http://rudolfhabringer.at (12), http://schulradiotag.at (73), http://villanorth.at (8), http://wegstrecken.at (2), http://zeugfaerberei.at (2)</t>
+          <t>http://archivia.at (16), http://backwood.at (11), http://dreiundachtzig.servus.at (5), http://fdr.at (2), http://gg.servus.at (6), http://moodle.maiz.at (2), http://nurdietoten.at (10), http://rotespuren.at (10), http://tschoerda.at (7), http://unkraut-comics.at (3)</t>
         </is>
       </c>
     </row>
@@ -607,191 +607,191 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://babelingo.net (2), http://cba.fro.at (10), http://dorninger.servus.at (5), http://frf.at (2), http://fro.at (11), http://lists.servus.at (4), http://radio-fri.at (5), http://schulradiotag.at (169), http://wegstrecken.at (2)</t>
+          <t>http://babelingo.net (2), http://cba.fro.at (8), http://dorninger.servus.at (5), http://frf.at (2), http://fro.at (12), http://lists.servus.at (4), http://schulradiotag.at (169), http://wegstrecken.at (2)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Juni</t>
+          <t>Uhr</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://archivia.at (16), http://backwood.at (11), http://dreiundachtzig.servus.at (5), http://fdr.at (2), http://gg.servus.at (6), http://landgaenge.eu (5), http://moodle.maiz.at (2), http://nurdietoten.at (10), http://unkraut-comics.at (3)</t>
+          <t>http://backwood.at (6), http://das-kollektiv.at (3), http://fro.at (22), http://nurdietoten.at (5), http://rudolfhabringer.at (12), http://schulradiotag.at (73), http://villanorth.at (8), http://wegstrecken.at (2)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>Menschen</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://filmriss.at (5), http://freie-medien.at (6), http://kolibri-schule.at (2), http://kri.servus.at (7), http://lauthals.org (8), http://spaetzuenderin.servus.at (8), http://theaternacht.at (10), http://tinaleisch.at (2), http://vonunten.at (11)</t>
+          <t>http://donau-danube.eu (3), http://ig-demokratie.at (3), http://kunstraum.at (3), http://rotespuren.at (9), http://rudolfhabringer.at (2), http://theater-tamtam.org (2), http://vonunten.at (15), http://werkenmitwiderstand.org (2)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Projekt</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://aussitzen.kapu.or.at (4), http://donau-danube.eu (2), http://dreiundachtzig.servus.at (5), http://gfa.or.at (3), http://hoerspuren.at (3), http://kulturviertelwochen.at (3), http://n2n.servus.at (3), http://steingeschichten.at (7), http://velodrom-linz.at (3)</t>
+          <t>http://anna-kraher.de (2), http://eliot.at (7), http://faxen-collective.net (2), http://grgr.at (11), http://prequalsteps.maiz.at (2), http://shanefinan.org (8), http://timesup.org (4), http://willworkforfood.servus.at (4)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>November</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://1n0ut.com (17), http://backwood.at (13), http://cinemanext.at (6), http://dreiundachtzig.servus.at (7), http://fro.at (6), http://gegenpolizeigewalt.servus.at (23), http://rotespuren.at (13), http://todableiter.servus.at (5)</t>
+          <t>http://filmriss.at (5), http://freie-medien.at (6), http://kri.servus.at (7), http://lauthals.org (8), http://spaetzuenderin.servus.at (8), http://theaternacht.at (10), http://tinaleisch.at (2), http://vonunten.at (11)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>Projekt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://apileofghosts.com (16), http://boxafilm.com (8), http://corpushomini.info (3), http://doublehappiness.at (12), http://ellaraidel.com (4), http://hauntedspaces.net (5), http://programmkinowels.at (9), http://retrogoldmine.com (8)</t>
+          <t>http://aussitzen.kapu.or.at (4), http://donau-danube.eu (2), http://dreiundachtzig.servus.at (5), http://hoerspuren.at (3), http://kulturviertelwochen.at (3), http://n2n.servus.at (3), http://steingeschichten.at (7), http://velodrom-linz.at (3)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Wurde</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://benjaminwahl.at (3), http://igkultur.at (12), http://kri.servus.at (8), http://kunstraum.at (3), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4), http://skodone.at (3), http://willworkforfood.servus.at (10)</t>
+          <t>http://argemarie.at (6), http://die-schule.at (84), http://gegenpolizeigewalt.servus.at (28), http://innenraumlavinia.at (6), http://lottaschreibt.at (17), http://theaternacht.at (5), http://wohnzimmergalerie.net (2)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Film</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://anna-kraher.de (2), http://eliot.at (7), http://faxen-collective.net (2), http://grgr.at (11), http://prequalsteps.maiz.at (2), http://shanefinan.org (8), http://timesup.org (4), http://willworkforfood.servus.at (4)</t>
+          <t>http://apileofghosts.com (16), http://boxafilm.com (8), http://corpushomini.info (3), http://doublehappiness.at (12), http://ellaraidel.com (4), http://hauntedspaces.net (5), http://retrogoldmine.com (8)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Page</t>
+          <t>Read</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://hungaromedia.at (8), http://igkultur.at (8), http://kuenstlerinnen.at (8), http://luckeneder-art.at (8), http://mrtg.servus.at (8), http://off.servus.at (8), http://okabre.com (2), http://platform-socialism.org (3)</t>
+          <t>http://andreaszingerle.com (5), http://ellaraidel.com (7), http://freie-medien.at (10), http://kairus.org (6), http://kunzwana.net (6), http://spaetzuenderin.servus.at (7), http://thenextlayer.org (11)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Verein</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://bibnet.servus.at (2), http://frauenkultur.at (7), http://guglmugl.net (2), http://hr-ctrl.or.at (3), http://maiz.at (2), http://piramidops.at (3), http://velodrom-linz.at (3), http://verein-ent.at (7)</t>
+          <t>http://benjaminwahl.at (3), http://igkultur.at (9), http://kri.servus.at (8), http://kunstraum.at (3), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4), http://willworkforfood.servus.at (10)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Content</t>
+          <t>One</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>http://hungaromedia.at (3), http://internationalerfrauentag.servus.at (2), http://kuenstlerinnen.at (3), http://luckeneder-art.at (3), http://mrtg.servus.at (3), http://off.servus.at (3), http://platform-socialism.org (2), http://themagdalenaproject.org (2)</t>
+          <t>http://arttraffic-strand.net (2), http://bb15.at (6), http://interstellarrecords.at (22), http://joreg.ath.cx (3), http://kunzwana.net (3), http://livingwithplanb.derieg.com (46)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wurde</t>
+          <t>April</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://argemarie.at (6), http://die-schule.at (84), http://gegenpolizeigewalt.servus.at (28), http://innenraumlavinia.at (6), http://lottaschreibt.at (17), http://rotespuren.at (8), http://theaternacht.at (5)</t>
+          <t>http://archivia.at (33), http://backwood.at (7), http://cinemanext.at (7), http://eliot.at (3), http://unkraut-comics.at (4), http://zapalotta.org (5)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Immer</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://anja.west.servus.at (2), http://aussitzen.kapu.or.at (3), http://die-schule.at (68), http://fdr.at (2), http://fuckhead.at (6), http://tschoerda.at (3), http://zeugfaerberei.at (2)</t>
+          <t>http://1n0ut.com (17), http://backwood.at (13), http://cinemanext.at (6), http://dreiundachtzig.servus.at (7), http://gegenpolizeigewalt.servus.at (23), http://todableiter.servus.at (5)</t>
         </is>
       </c>
     </row>
@@ -802,206 +802,206 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://backwood.at (5), http://das-kollektiv.at (8), http://feminismus-krawall.at (16), http://fiftitu.at (9), http://tabeacray.com (6), http://unkraut-comics.at (6), http://zapalotta.org (9)</t>
+          <t>http://backwood.at (5), http://das-kollektiv.at (8), http://feminismus-krawall.at (16), http://fiftitu.at (8), http://unkraut-comics.at (6), http://zapalotta.org (9)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Menschen</t>
+          <t>International</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>http://donau-danube.eu (3), http://ig-demokratie.at (3), http://kunstraum.at (3), http://rudolfhabringer.at (2), http://theater-tamtam.org (2), http://vonunten.at (15), http://werkenmitwiderstand.org (2)</t>
+          <t>http://apileofghosts.com (4), http://ciras2008.servus.at (5), http://doublehappiness.at (9), http://igkultur.at (3), http://ment.org (10), http://themagdalenaproject.org (3)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Read</t>
+          <t>Fã¼r</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>http://andreaszingerle.com (5), http://ellaraidel.com (7), http://freie-medien.at (10), http://kairus.org (6), http://kunzwana.net (6), http://spaetzuenderin.servus.at (7), http://thenextlayer.org (11)</t>
+          <t>http://aussitzen.kapu.or.at (3), http://dreiundachtzig.servus.at (7), http://freie-medien.at (9), http://memphismemph.is (3), http://n2n.servus.at (3), http://valina.at (6)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Artist</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>http://die-schule.at (66), http://drdidi.at (2), http://kubriel.servus.at (6), http://landgaenge.eu (6), http://livingwithplanb.derieg.com (43), http://peterandrosch.at (6)</t>
+          <t>http://andreaszingerle.com (3), http://ellaraidel.com (3), http://faces-l.net (9), http://faxen-collective.net (3), http://kmptt.servus.at (3), http://shanefinan.org (8)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>One</t>
+          <t>Page</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>http://arttraffic-strand.net (2), http://bb15.at (7), http://interstellarrecords.at (22), http://joreg.ath.cx (3), http://kunzwana.net (3), http://livingwithplanb.derieg.com (46)</t>
+          <t>http://igkultur.at (8), http://kuenstlerinnen.at (8), http://mrtg.servus.at (8), http://off.servus.at (8), http://okabre.com (2), http://platform-socialism.org (3)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>Verein</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>http://archivia.at (33), http://backwood.at (7), http://cinemanext.at (7), http://eliot.at (3), http://unkraut-comics.at (4), http://zapalotta.org (5)</t>
+          <t>http://bibnet.servus.at (2), http://frauenkultur.at (7), http://guglmugl.net (2), http://hr-ctrl.or.at (3), http://maiz.at (2), http://velodrom-linz.at (3)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Wien</t>
+          <t>Content</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>http://frauenkultur.at (11), http://hoerspuren.at (2), http://sabrina.servus.at (2), http://theaternyx.at (5), http://tschneid.servus.at (8), http://unibrennt.at (3)</t>
+          <t>http://internationalerfrauentag.servus.at (2), http://kuenstlerinnen.at (3), http://mrtg.servus.at (3), http://off.servus.at (3), http://platform-socialism.org (2), http://themagdalenaproject.org (2)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Schule</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34</v>
+        <v>357</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>http://apileofghosts.com (4), http://ciras2008.servus.at (5), http://doublehappiness.at (9), http://igkultur.at (3), http://ment.org (10), http://themagdalenaproject.org (3)</t>
+          <t>http://alteschule-gutau.at (5), http://derschueler.at (5), http://die-schule.at (285), http://schulradiotag.at (60), http://zeitgenossenschaft.at (2)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jahre</t>
+          <t>Immer</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>http://dasfundus.net (5), http://pmk.or.at (3), http://steinreich.servus.at (3), http://theaternyx.at (4), http://unibrennt.at (9), http://workstation.or.at (4)</t>
+          <t>http://anja.west.servus.at (2), http://aussitzen.kapu.or.at (3), http://die-schule.at (68), http://fdr.at (2), http://tschoerda.at (3)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fã¼r</t>
+          <t>Frauen</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>http://aussitzen.kapu.or.at (3), http://dreiundachtzig.servus.at (7), http://freie-medien.at (9), http://memphismemph.is (3), http://n2n.servus.at (3), http://valina.at (6)</t>
+          <t>http://archiv.fiftitu.at (4), http://bibnet.servus.at (3), http://diequote.at (6), http://frauenkultur.at (12), http://sabrina.servus.at (4)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Artist</t>
+          <t>News</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>http://andreaszingerle.com (3), http://ellaraidel.com (3), http://faces-l.net (9), http://faxen-collective.net (3), http://kmptt.servus.at (3), http://shanefinan.org (8)</t>
+          <t>http://andreaszingerle.com (4), http://archiv.fiftitu.at (3), http://deathpositiv.at (5), http://lists.servus.at (3), http://villanorth.at (11)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Linux</t>
+          <t>Weiterlesen</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>http://hungaromedia.at (7), http://kuenstlerinnen.at (7), http://luckeneder-art.at (7), http://lugl.at (2), http://mrtg.servus.at (7), http://off.servus.at (7)</t>
+          <t>http://core.servus.at (4), http://lustwerkstatt.at (5), http://texta.at (3), http://workstation.or.at (3), http://zapalotta.org (10)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>http://hungaromedia.at (3), http://kuenstlerinnen.at (3), http://luckeneder-art.at (3), http://mrtg.servus.at (3), http://off.servus.at (3), http://remember-bruckner.com (6)</t>
+          <t>http://boxafilm.com (3), http://faces-l.net (10), http://retrogoldmine.com (3), http://selfdefenceit.maiz.at (2), http://stwst.at (4)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Jahre</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>http://benjaminwahl.at (5), http://frautomani.at (2), http://photosalonhelga.com (2), http://sebastiansix.net (2), http://selfdefenceit.maiz.at (2), http://skodone.at (5)</t>
+          <t>http://dasfundus.net (5), http://maiz.at (2), http://steinreich.servus.at (3), http://unibrennt.at (9), http://workstation.or.at (4)</t>
         </is>
       </c>
     </row>
@@ -1012,348 +1012,348 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>http://anja.west.servus.at (2), http://benjaminwahl.at (5), http://downinthehole.org (3), http://platform-socialism.org (2), http://skodone.at (5), http://themagdalenaproject.org (3)</t>
+          <t>http://anja.west.servus.at (2), http://benjaminwahl.at (5), http://downinthehole.org (3), http://platform-socialism.org (2), http://themagdalenaproject.org (3)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Inhalt</t>
+          <t>Space</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>http://heartofnoise.at (2), http://hr-ctrl.or.at (2), http://mute.audio (2), http://schager.servus.at (2), http://shiatsu-stef.at (2), http://tschoerda.at (2)</t>
+          <t>http://anna-kraher.de (3), http://bb15.at (3), http://collective-ika.org (2), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Schule</t>
+          <t>Inhalt</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>356</v>
+        <v>10</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>http://alteschule-gutau.at (4), http://derschueler.at (5), http://die-schule.at (285), http://schulradiotag.at (60), http://zeitgenossenschaft.at (2)</t>
+          <t>http://heartofnoise.at (2), http://hr-ctrl.or.at (2), http://mute.audio (2), http://shiatsu-stef.at (2), http://tschoerda.at (2)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Freien</t>
+          <t>People</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>http://babelingo.net (3), http://cba.fro.at (4), http://fro.at (5), http://landderfreienmedien.at (3), http://schulradiotag.at (40)</t>
+          <t>http://livingwithplanb.derieg.com (72), http://platform-socialism.org (2), http://streettraining.org (3), http://valina.at (8)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Video</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>http://ellaraidel.com (3), http://joreg.ath.cx (7), http://kubriel.servus.at (10), http://sunobwegeser.net (3), http://tschneid.servus.at (19)</t>
+          <t>http://die-schule.at (66), http://drdidi.at (2), http://kubriel.servus.at (6), http://livingwithplanb.derieg.com (43)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>Album</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>http://archivia.at (19), http://tabeacray.com (5), http://themagdalenaproject.org (8), http://unkraut-comics.at (4), http://zapalotta.org (6)</t>
+          <t>http://base.at (2), http://interstellarrecords.at (29), http://lauthals.org (6), http://okabre.com (2)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>Beim</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>http://ciras2008.servus.at (3), http://dorninger.servus.at (4), http://kmptt.servus.at (8), http://lauthals.org (16), http://qujochoe.org (3)</t>
+          <t>http://gegenpolizeigewalt.servus.at (26), http://gg.servus.at (6), http://sdmk.at (4), http://velodrom-linz.at (2)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Experience</t>
+          <t>September</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>http://drehorgelkabarett.at (3), http://ingridschiller.at (3), http://peligro.at (3), http://regional-express.org (13), http://schager.servus.at (3)</t>
+          <t>http://archivia.at (19), http://themagdalenaproject.org (8), http://unkraut-comics.at (4), http://zapalotta.org (6)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Politik</t>
+          <t>Installation</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>http://igkultur.at (6), http://lustwerkstatt.at (3), http://vonunten.at (12), http://wassermair.net (4), http://wirtshauswissenschaften.at (3)</t>
+          <t>http://anja.west.servus.at (3), http://bettywimmer.net (2), http://grgr.at (8), http://sunobwegeser.net (17)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Frauen</t>
+          <t>Research</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>http://archiv.fiftitu.at (4), http://bibnet.servus.at (3), http://diequote.at (6), http://frauenkultur.at (12), http://sabrina.servus.at (4)</t>
+          <t>http://davidebevilacqua.com (3), http://hauntedspaces.net (3), http://research.radical-openness.org (16), http://selfdefenceit.maiz.at (2)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>News</t>
+          <t>June</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>http://andreaszingerle.com (4), http://archiv.fiftitu.at (3), http://deathpositiv.at (5), http://lists.servus.at (3), http://villanorth.at (11)</t>
+          <t>http://ciras2008.servus.at (3), http://dorninger.servus.at (5), http://kmptt.servus.at (8), http://lauthals.org (16)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Weiterlesen</t>
+          <t>Demokratie</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>http://core.servus.at (4), http://lustwerkstatt.at (5), http://texta.at (3), http://workstation.or.at (3), http://zapalotta.org (10)</t>
+          <t>http://buergerinnenrat.at (6), http://diyrepaircafe.ig-demokratie.at (3), http://ig-demokratie.at (14), http://vonunten.at (10)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Wien</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>http://boxafilm.com (3), http://faces-l.net (10), http://retrogoldmine.com (3), http://selfdefenceit.maiz.at (2), http://stwst.at (4)</t>
+          <t>http://frauenkultur.at (11), http://hoerspuren.at (2), http://sabrina.servus.at (2), http://unibrennt.at (3)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Video</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>http://hungaromedia.at (8), http://kuenstlerinnen.at (8), http://luckeneder-art.at (8), http://mrtg.servus.at (8), http://off.servus.at (8)</t>
+          <t>http://ellaraidel.com (3), http://joreg.ath.cx (7), http://kubriel.servus.at (10), http://sunobwegeser.net (3)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Österreich</t>
+          <t>Artists</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>http://frauenkultur.at (7), http://newsbase.at (4), http://peligro.at (2), http://theaternacht.at (6), http://wassermair.net (5)</t>
+          <t>http://100-dakar.com (3), http://kri.servus.at (10), http://totalsilence.de (3), http://unruly-thoughts.com (5)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Medien</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>http://babelingo.net (4), http://konsortium.at (2), http://landderfreienmedien.at (3), http://steingeschichten.at (7), http://wassermair.net (4)</t>
+          <t>http://prequalsteps.maiz.at (2), http://selfdefenceit.maiz.at (3), http://themagdalenaproject.org (3), http://unruly-thoughts.com (7)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>http://benjaminwahl.at (5), http://beschallungsfrei.at (5), http://dasholzhaus.at (7), http://hoerstadt.at (5), http://skodone.at (5)</t>
+          <t>http://diequote.at (7), http://kairus.org (6), http://lugl.at (2), http://rudolfhabringer.at (3)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Februar</t>
+          <t>Medien</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>http://schager.servus.at (5), http://tabeacray.com (3), http://tschoerda.at (2), http://unkraut-comics.at (6), http://villanorth.at (6)</t>
+          <t>http://babelingo.net (4), http://konsortium.at (2), http://landderfreienmedien.at (3), http://steingeschichten.at (7)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Linzer</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>http://hungaromedia.at (4), http://kuenstlerinnen.at (4), http://luckeneder-art.at (4), http://mrtg.servus.at (4), http://off.servus.at (4)</t>
+          <t>http://kulturviertelwochen.at (2), http://lists.servus.at (3), http://steingeschichten.at (7), http://steinreich.servus.at (2)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Space</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>http://anna-kraher.de (3), http://bb15.at (4), http://collective-ika.org (2), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
+          <t>http://kuenstlerinnen.at (7), http://lugl.at (2), http://mrtg.servus.at (7), http://off.servus.at (7)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>http://hungaromedia.at (3), http://kuenstlerinnen.at (3), http://luckeneder-art.at (3), http://mrtg.servus.at (3), http://off.servus.at (3)</t>
+          <t>http://dan-tien.at (2), http://fraumayr.at (2), http://memphismemph.is (3), http://villanorth.at (6)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Server</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>http://hungaromedia.at (3), http://kuenstlerinnen.at (3), http://luckeneder-art.at (3), http://mrtg.servus.at (3), http://off.servus.at (3)</t>
+          <t>http://benjaminwahl.at (5), http://frautomani.at (2), http://sebastiansix.net (2), http://selfdefenceit.maiz.at (2)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Seite</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>http://beschallungsfrei.at (3), http://diyrepaircafe.ig-demokratie.at (3), http://hoerstadt.at (3), http://reinhardreisenzahn.com (2), http://tauschkreis-freiwald.org (2)</t>
+          <t>http://core.servus.at (4), http://mulonga.linz.funkfeuer.at (3), http://radical-openness.org (3), http://werkenmitwiderstand.org (2)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Http</t>
+          <t>Seite</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1361,104 +1361,104 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>http://hungaromedia.at (2), http://kuenstlerinnen.at (2), http://luckeneder-art.at (2), http://mrtg.servus.at (2), http://off.servus.at (2)</t>
+          <t>http://beschallungsfrei.at (3), http://diyrepaircafe.ig-demokratie.at (3), http://reinhardreisenzahn.com (2), http://tauschkreis-freiwald.org (2)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>Passwort</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>http://livingwithplanb.derieg.com (72), http://platform-socialism.org (2), http://streettraining.org (3), http://valina.at (8)</t>
+          <t>http://guglmugl.net (2), http://mute.audio (2), http://tauschkreis-freiwald.org (3), http://zeitgemeinschaft.at (2)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Theater</t>
+          <t>Records</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>http://remorauscher.at (41), http://theater-tamtam.org (5), http://theaternacht.at (19), http://theaternyx.at (3)</t>
+          <t>http://dilemmarecords.com (2), http://interstellarrecords.at (52), http://valina.at (6)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Album</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>http://base.at (2), http://interstellarrecords.at (29), http://lauthals.org (6), http://okabre.com (2)</t>
+          <t>http://dasfundus.net (2), http://remorauscher.at (42), http://rudolfhabringer.at (3)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Beim</t>
+          <t>Theater</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>http://gegenpolizeigewalt.servus.at (26), http://gg.servus.at (6), http://sdmk.at (4), http://velodrom-linz.at (2)</t>
+          <t>http://remorauscher.at (41), http://theater-tamtam.org (5), http://theaternacht.at (19)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Installation</t>
+          <t>Freien</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>http://anja.west.servus.at (3), http://bettywimmer.net (2), http://grgr.at (8), http://sunobwegeser.net (17)</t>
+          <t>http://babelingo.net (3), http://landderfreienmedien.at (3), http://schulradiotag.at (40)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Research</t>
+          <t>Posted</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>http://davidebevilacqua.com (3), http://hauntedspaces.net (3), http://research.radical-openness.org (16), http://selfdefenceit.maiz.at (2)</t>
+          <t>http://andreaszingerle.com (5), http://grgr.at (10), http://sunobwegeser.net (21)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Demokratie</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1466,59 +1466,59 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>http://buergerinnenrat.at (6), http://diyrepaircafe.ig-demokratie.at (3), http://ig-demokratie.at (14), http://vonunten.at (10)</t>
+          <t>http://cba.fro.at (4), http://deathpositiv.at (9), http://programmkinowels.at (20)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>August</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>http://forum.pmk.or.at (3), http://migrazine.at (5), http://photosalonhelga.com (2), http://willworkforfood.servus.at (12)</t>
+          <t>http://palmfiction.net (16), http://versorgerin.stwst.at (2), http://villanorth.at (17)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>http://anna-kraher.de (3), http://faces-l.net (11), http://ingorandolf.info (11), http://rotespuren.at (8)</t>
+          <t>http://kubriel.servus.at (4), http://lauthals.org (16), http://totalsilence.de (4)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Live</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>http://anna-fiala.at (4), http://anna-kraher.de (5), http://lllk.at (3), http://mzbaltazarslaboratory.org (11)</t>
+          <t>http://dorninger.servus.at (6), http://finopoly.at (16), http://valina.at (7)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Artists</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1526,89 +1526,89 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>http://100-dakar.com (3), http://kri.servus.at (10), http://totalsilence.de (3), http://unruly-thoughts.com (5)</t>
+          <t>http://selfdefenceit.maiz.at (2), http://shanefinan.org (14), http://themagdalenaproject.org (5)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>Politik</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>http://prequalsteps.maiz.at (2), http://selfdefenceit.maiz.at (3), http://themagdalenaproject.org (3), http://unruly-thoughts.com (7)</t>
+          <t>http://igkultur.at (8), http://lustwerkstatt.at (3), http://vonunten.at (12)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Collective</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>http://diequote.at (7), http://kairus.org (6), http://lugl.at (2), http://rudolfhabringer.at (3)</t>
+          <t>http://collective-ika.org (3), http://kmptt.servus.at (4), http://shanefinan.org (12)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>http://boxafilm.com (4), http://research.radical-openness.org (5), http://retrogoldmine.com (4), http://tschneid.servus.at (7)</t>
+          <t>http://anna-kraher.de (3), http://faces-l.net (11), http://ingorandolf.info (11)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Linzer</t>
+          <t>Â</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>http://kulturviertelwochen.at (2), http://lists.servus.at (3), http://steingeschichten.at (7), http://steinreich.servus.at (2)</t>
+          <t>http://aussitzen.kapu.or.at (4), http://freie-medien.at (6), http://memphismemph.is (10)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kollektiv</t>
+          <t>Kommentare</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>http://das-kollektiv.at (5), http://fiftitu.at (7), http://maiz.at (2), http://tamaratrackt.at (2)</t>
+          <t>http://dreiundachtzig.servus.at (10), http://kellerabteil.org (3), http://spaetzuenderin.servus.at (7)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Geschichte</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1616,307 +1616,307 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>http://deathpositiv.at (5), http://gfa.or.at (2), http://kolibri-schule.at (2), http://rudolfhabringer.at (6)</t>
+          <t>http://hoerspuren.at (2), http://rotespuren.at (10), http://workstation.or.at (3)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Cultural</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>http://dan-tien.at (2), http://fraumayr.at (2), http://memphismemph.is (3), http://villanorth.at (6)</t>
+          <t>http://100-dakar.com (3), http://eipcp.net (9), http://stwst.at (3)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Künstlerinnen</t>
+          <t>Book</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>http://fiftitu.at (5), http://newsbase.at (3), http://sabrina.servus.at (2), http://waldegg116.at (2)</t>
+          <t>http://dasparkhotel.net (2), http://eipcp.net (9), http://thenextlayer.org (7)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Musik</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>http://akku-steyr.com (2), http://sdmk.at (3), http://stephanroiss.at (2), http://tamaratrackt.at (4)</t>
+          <t>http://kuenstlerinnen.at (8), http://mrtg.servus.at (8), http://off.servus.at (8)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Passwort</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>http://guglmugl.net (2), http://mute.audio (2), http://tauschkreis-freiwald.org (3), http://zeitgemeinschaft.at (2)</t>
+          <t>http://ogg.at (2), http://themagdalenaproject.org (2), http://thenextlayer.org (8)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Fiftitu</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>http://core.servus.at (3), http://mulonga.linz.funkfeuer.at (3), http://radical-openness.org (3), http://werkenmitwiderstand.org (2)</t>
+          <t>http://archiv.fiftitu.at (5), http://diequote.at (8), http://frauenkultur.at (8)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Records</t>
+          <t>Österreich</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>http://dilemmarecords.com (2), http://interstellarrecords.at (52), http://valina.at (6)</t>
+          <t>http://frauenkultur.at (7), http://peligro.at (2), http://theaternacht.at (6)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>http://dasfundus.net (2), http://remorauscher.at (42), http://rudolfhabringer.at (3)</t>
+          <t>http://innenraumlavinia.at (5), http://memphismemph.is (7), http://tinaleisch.at (2)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Posted</t>
+          <t>Kollektiv</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>http://andreaszingerle.com (5), http://grgr.at (10), http://sunobwegeser.net (21)</t>
+          <t>http://das-kollektiv.at (5), http://fiftitu.at (7), http://tamaratrackt.at (2)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>http://graztermine.at (10), http://sunobwegeser.net (21), http://wirtshauswissenschaften.at (3)</t>
+          <t>http://benjaminwahl.at (5), http://beschallungsfrei.at (5), http://dasholzhaus.at (7)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Servusat</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>http://deathpositiv.at (9), http://programmkinowels.at (17), http://tschneid.servus.at (11)</t>
+          <t>http://core.servus.at (5), http://davidebevilacqua.com (2), http://research.radical-openness.org (6)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>Raidel</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>http://palmfiction.net (16), http://tabeacray.com (2), http://villanorth.at (17)</t>
+          <t>http://antonraidel.com (2), http://apileofghosts.com (4), http://ellaraidel.com (6)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Oktober</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>http://kubriel.servus.at (4), http://lauthals.org (16), http://totalsilence.de (4)</t>
+          <t>http://sabrina.servus.at (4), http://unibrennt.at (6), http://unkraut-comics.at (4)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Live</t>
+          <t>Künstlerinnen</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>http://dorninger.servus.at (5), http://finopoly.at (16), http://valina.at (7)</t>
+          <t>http://fiftitu.at (6), http://newsbase.at (3), http://sabrina.servus.at (2)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Findet</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>http://selfdefenceit.maiz.at (2), http://shanefinan.org (12), http://themagdalenaproject.org (6)</t>
+          <t>http://fdr.at (2), http://landderfreienmedien.at (2), http://theaternacht.at (6)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Exhibition</t>
+          <t>Events</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>http://bb15.at (7), http://kri.servus.at (8), http://mzbaltazarslaboratory.org (12)</t>
+          <t>http://physicalnarration.org (2), http://timesup.org (3), http://willworkforfood.servus.at (6)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Monat</t>
+          <t>Andreas</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>http://habitat.servus.at (11), http://moodle.maiz.at (2), http://zeugfaerberei.at (2)</t>
+          <t>http://andreaskurz.net (2), http://andreaszingerle.com (6), http://kairus.org (3)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Â</t>
+          <t>Widerstand</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>http://aussitzen.kapu.or.at (4), http://freie-medien.at (6), http://memphismemph.is (10)</t>
+          <t>http://nurdietoten.at (5), http://sabrina.servus.at (4), http://werkenmitwiderstand.org (2)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kommentare</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>http://dreiundachtzig.servus.at (10), http://kellerabteil.org (3), http://spaetzuenderin.servus.at (7)</t>
+          <t>http://boxafilm.com (4), http://research.radical-openness.org (5), http://retrogoldmine.com (4)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cultural</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>http://100-dakar.com (3), http://eipcp.net (9), http://stwst.at (3)</t>
+          <t>http://anna-fiala.at (4), http://anna-kraher.de (5), http://lllk.at (3)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>http://dasparkhotel.net (2), http://eipcp.net (9), http://thenextlayer.org (7)</t>
+          <t>http://kuenstlerinnen.at (4), http://mrtg.servus.at (4), http://off.servus.at (4)</t>
         </is>
       </c>
     </row>
@@ -1927,1158 +1927,1158 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>http://club.stwst.at (8), http://finopoly.at (3), http://stwst.at (3)</t>
+          <t>http://club.stwst.at (4), http://finopoly.at (3), http://stwst.at (3)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Radical</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>http://ogg.at (2), http://themagdalenaproject.org (2), http://thenextlayer.org (8)</t>
+          <t>http://core.servus.at (3), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Geschichte</t>
+          <t>Projekte</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>http://hoerspuren.at (2), http://rotespuren.at (8), http://workstation.or.at (3)</t>
+          <t>http://das-kollektiv.at (3), http://deathpositiv.at (4), http://wegstrecken.at (2)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Fro</t>
+          <t>Program</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>http://cba.fro.at (3), http://fro.at (8), http://lists.servus.at (3)</t>
+          <t>http://davidebevilacqua.com (2), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Fiftitu</t>
+          <t>Oberösterreich</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>http://archiv.fiftitu.at (5), http://diequote.at (8), http://frauenkultur.at (8)</t>
+          <t>http://fdr.at (2), http://kupf.at (4), http://sabrina.servus.at (2)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>Musik</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>http://argemarie.at (7), http://collective-ika.org (5), http://tschneid.servus.at (8)</t>
+          <t>http://akku-steyr.com (2), http://sdmk.at (3), http://tamaratrackt.at (4)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>Like</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>http://eipcp.net (8), http://interregnum.live (5), http://stwst.at (3)</t>
+          <t>http://apileofghosts.com (4), http://bb15.at (4), http://platform-socialism.org (3)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Arbeiten</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>http://apephonie.org (2), http://fiftitu.at (8), http://leodressel.net (2)</t>
+          <t>http://kuenstlerinnen.at (3), http://mrtg.servus.at (3), http://off.servus.at (3)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Arbeit</t>
+          <t>Six</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>http://lustwerkstatt.at (2), http://reinhardreisenzahn.com (2), http://tschneid.servus.at (8)</t>
+          <t>http://faxen-collective.net (2), http://sebastiansix.net (3), http://wohnzimmergalerie.net (2)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Unserer</t>
+          <t>Server</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>http://beschallungsfrei.at (7), http://dasholzhaus.at (6), http://hoerstadt.at (7)</t>
+          <t>http://kuenstlerinnen.at (3), http://mrtg.servus.at (3), http://off.servus.at (3)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>http://innenraumlavinia.at (5), http://memphismemph.is (7), http://tinaleisch.at (2)</t>
+          <t>http://anna-kraher.de (2), http://boxafilm.com (3), http://retrogoldmine.com (3)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Teil</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>http://cba.fro.at (4), http://radio-fri.at (7), http://sdmk.at (3)</t>
+          <t>http://forum.pmk.or.at (2), http://prequalsteps.maiz.at (2), http://webstats.servus.at (3)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Collective</t>
+          <t>Meets</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>http://collective-ika.org (3), http://kmptt.servus.at (4), http://shanefinan.org (7)</t>
+          <t>http://core.servus.at (3), http://mulonga.linz.funkfeuer.at (3), http://radical-openness.org (3)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Speicherung</t>
+          <t>Kapu</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>http://peterandrosch.at (6), http://radio-fri.at (6), http://theater-tamtam.org (6)</t>
+          <t>http://augumohr.servus.at (2), http://aussitzen.kapu.or.at (3), http://kapu.or.at (2)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Servusat</t>
+          <t>Jahr</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>http://core.servus.at (4), http://davidebevilacqua.com (2), http://research.radical-openness.org (6)</t>
+          <t>http://club.stwst.at (3), http://unibrennt.at (3), http://workstation.or.at (2)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Raidel</t>
+          <t>Experience</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>http://antonraidel.com (2), http://apileofghosts.com (4), http://ellaraidel.com (6)</t>
+          <t>http://drehorgelkabarett.at (3), http://ingridschiller.at (3), http://peligro.at (3)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Oktober</t>
+          <t>Boxa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>http://sabrina.servus.at (4), http://unibrennt.at (6), http://unkraut-comics.at (4)</t>
+          <t>http://boxafilm.com (3), http://corpushomini.info (2), http://retrogoldmine.com (3)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Findet</t>
+          <t>Alten</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>http://fdr.at (2), http://landderfreienmedien.at (2), http://theaternacht.at (6)</t>
+          <t>http://alteschule-gutau.at (3), http://backlab.at (3), http://zeitgenossenschaft.at (2)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Events</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>http://physicalnarration.org (2), http://timesup.org (3), http://willworkforfood.servus.at (6)</t>
+          <t>http://kuenstlerinnen.at (3), http://mrtg.servus.at (3), http://off.servus.at (3)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Dezember</t>
+          <t>Http</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>http://freie-medien.at (5), http://schager.servus.at (4), http://tschoerda.at (6)</t>
+          <t>http://kuenstlerinnen.at (2), http://mrtg.servus.at (2), http://off.servus.at (2)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Bruckner</t>
+          <t>Sendung</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>http://kuva.at (4), http://peterandrosch.at (4), http://remember-bruckner.com (6)</t>
+          <t>http://cba.fro.at (4), http://schulradiotag.at (54)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Andreas</t>
+          <t>Interstellar</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>http://andreaskurz.net (2), http://andreaszingerle.com (6), http://kairus.org (3)</t>
+          <t>http://graztermine.at (9), http://interstellarrecords.at (54)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Widerstand</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>http://nurdietoten.at (5), http://sabrina.servus.at (4), http://werkenmitwiderstand.org (2)</t>
+          <t>http://livingwithplanb.derieg.com (44), http://timesup.org (4)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Webseite</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>http://beschallungsfrei.at (5), http://hoerstadt.at (5), http://werkenmitwiderstand.org (2)</t>
+          <t>http://interstellarrecords.at (44), http://steingeschichten.at (8)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Technische</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>http://peterandrosch.at (5), http://radio-fri.at (5), http://theater-tamtam.org (5)</t>
+          <t>http://livingwithplanb.derieg.com (43), http://timesup.org (12)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Dienste</t>
+          <t>Still</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>http://beschallungsfrei.at (5), http://dasholzhaus.at (3), http://hoerstadt.at (5)</t>
+          <t>http://livingwithplanb.derieg.com (40), http://texta.at (3)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Anton</t>
+          <t>Many</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>http://antonraidel.com (3), http://kuva.at (5), http://peterandrosch.at (3)</t>
+          <t>http://livingwithplanb.derieg.com (39), http://valina.at (5)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Radical</t>
+          <t>Seidl</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>http://core.servus.at (4), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
+          <t>http://ment.org (37), http://nichtstun.org (3)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Projekte</t>
+          <t>Erde</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>http://das-kollektiv.at (3), http://deathpositiv.at (4), http://wegstrecken.at (2)</t>
+          <t>http://argemarie.at (9), http://lottaschreibt.at (33)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Program</t>
+          <t>Radios</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>http://davidebevilacqua.com (2), http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
+          <t>http://archivia.at (23), http://babelingo.net (3)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Oberösterreich</t>
+          <t>Markus</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>http://fdr.at (2), http://kupf.at (4), http://sabrina.servus.at (2)</t>
+          <t>http://ment.org (22), http://nichtstun.org (3)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Meets</t>
+          <t>Wurden</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>http://core.servus.at (4), http://mulonga.linz.funkfeuer.at (3), http://radical-openness.org (3)</t>
+          <t>http://gegenpolizeigewalt.servus.at (21), http://rotespuren.at (9)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Januar</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>http://schager.servus.at (4), http://unkraut-comics.at (4), http://wirtshauswissenschaften.at (3)</t>
+          <t>http://graztermine.at (10), http://sunobwegeser.net (21)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Six</t>
+          <t>Veröffentlicht</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>http://faxen-collective.net (2), http://sebastiansix.net (3), http://wohnzimmergalerie.net (2)</t>
+          <t>http://diebresche.org (20), http://dreiundachtzig.servus.at (10)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Portfolio</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>http://anna-kraher.de (2), http://boxafilm.com (3), http://retrogoldmine.com (3)</t>
+          <t>http://base.at (2), http://ingorandolf.info (19)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>http://forum.pmk.or.at (2), http://prequalsteps.maiz.at (2), http://webstats.servus.at (3)</t>
+          <t>http://diesenreiter.at (16), http://thomasbaum.at (5)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Kapu</t>
+          <t>July</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>http://augumohr.servus.at (2), http://aussitzen.kapu.or.at (3), http://kapu.or.at (2)</t>
+          <t>http://davidebevilacqua.com (2), http://sunobwegeser.net (16)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Boxa</t>
+          <t>Bürgerinnenrat</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>http://boxafilm.com (3), http://corpushomini.info (2), http://retrogoldmine.com (3)</t>
+          <t>http://buergerinnenrat.at (8), http://vonunten.at (15)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Alten</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>http://alteschule-gutau.at (2), http://backlab.at (3), http://zeitgenossenschaft.at (2)</t>
+          <t>http://cinemanext.at (14), http://filmriss.at (3)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sendung</t>
+          <t>Lotta</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>http://cba.fro.at (7), http://schulradiotag.at (54)</t>
+          <t>http://lotta-gaffa.at (3), http://lottaschreibt.at (13)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Interstellar</t>
+          <t>Digitalen</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>http://graztermine.at (9), http://interstellarrecords.at (54)</t>
+          <t>http://archivia.at (13), http://konsortium.at (2)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>http://livingwithplanb.derieg.com (44), http://timesup.org (6)</t>
+          <t>http://forum.pmk.or.at (3), http://willworkforfood.servus.at (12)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Planet</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>http://interstellarrecords.at (44), http://steingeschichten.at (8)</t>
+          <t>http://lottaschreibt.at (11), http://timesup.org (4)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Filmfestival</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>http://livingwithplanb.derieg.com (43), http://timesup.org (16)</t>
+          <t>http://doublehappiness.at (11), http://sdmk.at (3)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Still</t>
+          <t>Conference</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>http://livingwithplanb.derieg.com (40), http://texta.at (3)</t>
+          <t>http://ciras2008.servus.at (4), http://ment.org (11)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Many</t>
+          <t>Kupf</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>http://livingwithplanb.derieg.com (39), http://valina.at (5)</t>
+          <t>http://freie-medien.at (4), http://kupf.at (10)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Seidl</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>http://ment.org (37), http://nichtstun.org (3)</t>
+          <t>http://ment.org (10), http://stefaner-schmid.net (3)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Infos</t>
+          <t>Award</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>http://programmkinowels.at (34), http://wirtshauswissenschaften.at (3)</t>
+          <t>http://derkaktus.at (10), http://ellaraidel.com (5)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Erde</t>
+          <t>Audio</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>http://argemarie.at (9), http://lottaschreibt.at (33)</t>
+          <t>http://ogg.at (6), http://sunobwegeser.net (10)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Radios</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>http://archivia.at (23), http://babelingo.net (3)</t>
+          <t>http://anna-fiala.at (10), http://graztermine.at (10)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Markus</t>
+          <t>Konzert</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>http://ment.org (22), http://nichtstun.org (3)</t>
+          <t>http://gg.servus.at (9), http://kapu.or.at (4)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Veröffentlicht</t>
+          <t>Vorteile</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>http://diebresche.org (20), http://dreiundachtzig.servus.at (10)</t>
+          <t>http://newsbase.at (5), http://zumutbar.at (8)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Tod</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>http://base.at (2), http://ingorandolf.info (19)</t>
+          <t>http://deathpositiv.at (8), http://todableiter.servus.at (3)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Workshop</t>
+          <t>Richie</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>http://alteschule-gutau.at (2), http://mzbaltazarslaboratory.org (18)</t>
+          <t>http://dilemmarecords.com (3), http://graztermine.at (8)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Rahmen</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>http://mzbaltazarslaboratory.org (18), http://steinreich.servus.at (2)</t>
+          <t>http://fiftitu.at (8), http://gg.servus.at (6)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>http://diesenreiter.at (16), http://thomasbaum.at (5)</t>
+          <t>http://collective-ika.org (2), http://linzfmr.at (8)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>Pile</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>http://davidebevilacqua.com (2), http://sunobwegeser.net (16)</t>
+          <t>http://apileofghosts.com (8), http://ellaraidel.com (5)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Next</t>
+          <t>Kunstuniversität</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>http://cinemanext.at (15), http://filmriss.at (3)</t>
+          <t>http://sabrina.servus.at (5), http://steingeschichten.at (8)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Fragen</t>
+          <t>Kompott</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>http://gfa.or.at (3), http://vonunten.at (15)</t>
+          <t>http://kmptt.servus.at (5), http://kri.servus.at (8)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Digital</t>
+          <t>Gerald</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>http://linzfmr.at (6), http://mzbaltazarslaboratory.org (15)</t>
+          <t>http://eipcp.net (8), http://geraldkogler.com (2)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Bürgerinnenrat</t>
+          <t>Fro</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>http://buergerinnenrat.at (8), http://vonunten.at (15)</t>
+          <t>http://fro.at (8), http://lists.servus.at (3)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Lotta</t>
+          <t>Exhibition</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>http://lotta-gaffa.at (3), http://lottaschreibt.at (13)</t>
+          <t>http://bb15.at (4), http://kri.servus.at (8)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Feminist</t>
+          <t>Culture</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>http://mzbaltazarslaboratory.org (13), http://unruly-thoughts.com (12)</t>
+          <t>http://eipcp.net (8), http://stwst.at (3)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Digitalen</t>
+          <t>Arbeiten</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>http://archivia.at (13), http://konsortium.at (2)</t>
+          <t>http://apephonie.org (2), http://fiftitu.at (8)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Lesung</t>
+          <t>Veranstaltungen</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>http://stephanroiss.at (10), http://thomasbaum.at (12)</t>
+          <t>http://dreiundachtzig.servus.at (7), http://villanorth.at (7)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Unserer</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>http://mzbaltazarslaboratory.org (11), http://research.radical-openness.org (11)</t>
+          <t>http://beschallungsfrei.at (7), http://dasholzhaus.at (6)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Kupf</t>
+          <t>Sozialen</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>http://freie-medien.at (4), http://kupf.at (11)</t>
+          <t>http://donau-danube.eu (2), http://zumutbar.at (7)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Filmfestival</t>
+          <t>Smiling</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>http://doublehappiness.at (11), http://sdmk.at (3)</t>
+          <t>http://base.at (7), http://dorninger.servus.at (6)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Conference</t>
+          <t>Sexarbeit</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>http://ciras2008.servus.at (4), http://ment.org (11)</t>
+          <t>http://lustwerkstatt.at (7), http://maiz.at (2)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Neuen</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>http://ment.org (10), http://stefaner-schmid.net (3)</t>
+          <t>http://konsortium.at (2), http://steingeschichten.at (7)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Award</t>
+          <t>Design</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>http://derkaktus.at (10), http://ellaraidel.com (5)</t>
+          <t>http://argemarie.at (7), http://collective-ika.org (5)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Audio</t>
+          <t>Computer</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>http://ogg.at (6), http://sunobwegeser.net (10)</t>
+          <t>http://ncd.servus.at (7), http://research.radical-openness.org (4)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Öffentlichen</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>http://anna-fiala.at (10), http://graztermine.at (10)</t>
+          <t>http://frauenkultur.at (6), http://konsortium.at (2)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Rahmen</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>http://fiftitu.at (9), http://gg.servus.at (6)</t>
+          <t>http://freizeitundkommunikation.at (2), http://geraldkogler.com (6)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Magdalena</t>
+          <t>View</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>http://magdalenareiter.at (2), http://themagdalenaproject.org (9)</t>
+          <t>http://boxafilm.com (6), http://retrogoldmine.com (6)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Konzert</t>
+          <t>Que</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>http://gg.servus.at (9), http://kapu.or.at (5)</t>
+          <t>http://dunkelkammer.net (2), http://umbrella-march-linz.at (6)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Vorteile</t>
+          <t>Liquid</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>http://newsbase.at (5), http://zumutbar.at (8)</t>
+          <t>http://kellerabteil.org (6), http://platform-socialism.org (2)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Tod</t>
+          <t>Leben</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -3086,14 +3086,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>http://deathpositiv.at (8), http://todableiter.servus.at (3)</t>
+          <t>http://deathpositiv.at (5), http://rudolfhabringer.at (6)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Kunstraum</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -3101,104 +3101,104 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>http://ingorandolf.info (8), http://themagdalenaproject.org (2)</t>
+          <t>http://kunstraum.at (4), http://lists.servus.at (6)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Richie</t>
+          <t>Javascript</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>http://dilemmarecords.com (3), http://graztermine.at (8)</t>
+          <t>http://cloud.servus.at (2), http://kuva.at (6)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>http://collective-ika.org (2), http://linzfmr.at (8)</t>
+          <t>http://kellerabteil.org (3), http://versorgerin.stwst.at (6)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Pile</t>
+          <t>Ghosts</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>http://apileofghosts.com (8), http://ellaraidel.com (5)</t>
+          <t>http://apileofghosts.com (6), http://ellaraidel.com (4)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Kunstuniversität</t>
+          <t>Februar</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>http://sabrina.servus.at (5), http://steingeschichten.at (8)</t>
+          <t>http://unkraut-comics.at (6), http://villanorth.at (6)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Kompott</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>http://kmptt.servus.at (5), http://kri.servus.at (8)</t>
+          <t>http://apileofghosts.com (5), http://doublehappiness.at (6)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Gerald</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>http://eipcp.net (8), http://geraldkogler.com (2)</t>
+          <t>http://patrick.derieg.com (2), http://waytoshambala.org (6)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Androsch</t>
+          <t>Buddhas</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -3206,89 +3206,89 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>http://drdidi.at (2), http://peterandrosch.at (8)</t>
+          <t>http://base.at (6), http://dorninger.servus.at (4)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Veranstaltungen</t>
+          <t>Zeitgenossenschaft</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>http://dreiundachtzig.servus.at (7), http://villanorth.at (7)</t>
+          <t>http://tauschkreis-freiwald.org (5), http://zeitgenossenschaft.at (4)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Turn</t>
+          <t>Webseite</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>http://club.stwst.at (4), http://ncd.servus.at (7)</t>
+          <t>http://beschallungsfrei.at (5), http://werkenmitwiderstand.org (2)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sozialen</t>
+          <t>Versorgerin</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>http://donau-danube.eu (2), http://zumutbar.at (7)</t>
+          <t>http://freie-medien.at (5), http://versorgerin.stwst.at (5)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Seit</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>http://base.at (7), http://dorninger.servus.at (6)</t>
+          <t>http://fdr.at (2), http://velodrom-linz.at (5)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sexarbeit</t>
+          <t>Prozent</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>http://lustwerkstatt.at (7), http://maiz.at (2)</t>
+          <t>http://palmfiction.net (5), http://stopshop.at (2)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Neuen</t>
+          <t>Migrantinnen</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -3296,104 +3296,104 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>http://konsortium.at (2), http://steingeschichten.at (7)</t>
+          <t>http://maiz.at (5), http://playground224.servus.at (4)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>Macht</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>http://ncd.servus.at (7), http://research.radical-openness.org (4)</t>
+          <t>http://todableiter.servus.at (5), http://wohnzimmergalerie.net (2)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Öffentlichen</t>
+          <t>Literatur</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>http://frauenkultur.at (6), http://konsortium.at (2)</t>
+          <t>http://akku-steyr.com (2), http://bibnet.servus.at (5)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>Ingo</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>http://prequalsteps.maiz.at (2), http://regional-express.org (6)</t>
+          <t>http://ingorandolf.info (5), http://todableiter.servus.at (4)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Haunted</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>http://freizeitundkommunikation.at (2), http://geraldkogler.com (6)</t>
+          <t>http://ellaraidel.com (5), http://hauntedspaces.net (5)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>View</t>
+          <t>Gerda</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>http://boxafilm.com (6), http://retrogoldmine.com (6)</t>
+          <t>http://crowdundruam.at (3), http://fiftitu.at (5)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Union</t>
+          <t>Different</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>http://radio-fri.at (6), http://umbrella-march-linz.at (4)</t>
+          <t>http://totalsilence.de (2), http://unruly-thoughts.com (5)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Que</t>
+          <t>Dienste</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3401,14 +3401,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>http://dunkelkammer.net (2), http://umbrella-march-linz.at (6)</t>
+          <t>http://beschallungsfrei.at (5), http://dasholzhaus.at (3)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Liquid</t>
+          <t>Dezember</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3416,44 +3416,44 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>http://kellerabteil.org (6), http://platform-socialism.org (2)</t>
+          <t>http://freie-medien.at (5), http://tschoerda.at (3)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Kunstraum</t>
+          <t>Categories</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>http://kunstraum.at (4), http://lists.servus.at (6)</t>
+          <t>http://andreaszingerle.com (5), http://streettraining.org (3)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Klicken</t>
+          <t>Anton</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>http://beschallungsfrei.at (6), http://hoerstadt.at (6)</t>
+          <t>http://antonraidel.com (3), http://kuva.at (5)</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Heute</t>
+          <t>World</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3461,149 +3461,149 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>http://dreiundachtzig.servus.at (6), http://gfa.or.at (2)</t>
+          <t>http://bb15.at (4), http://kairus.org (4)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Ghosts</t>
+          <t>Wolfgang</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>http://apileofghosts.com (6), http://ellaraidel.com (4)</t>
+          <t>http://dorninger.servus.at (3), http://wolfgang-muellegger.at (4)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Geister</t>
+          <t>Strom</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>http://memphismemph.is (3), http://migrazine.at (6)</t>
+          <t>http://finopoly.at (4), http://stwst.at (4)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Future</t>
+          <t>Stadtwerkstatt</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>http://kairus.org (3), http://regional-express.org (6)</t>
+          <t>http://club.stwst.at (4), http://stwst.at (4)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Freistadt</t>
+          <t>Spaces</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>http://frf.at (2), http://landgaenge.eu (6)</t>
+          <t>http://base.at (2), http://hauntedspaces.net (4)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Documentary</t>
+          <t>Rudolf</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>http://apileofghosts.com (5), http://doublehappiness.at (6)</t>
+          <t>http://kubriel.servus.at (4), http://rudolfhabringer.at (4)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>http://patrick.derieg.com (2), http://waytoshambala.org (6)</t>
+          <t>http://physicalnarration.org (4), http://wiki.physicalnarration.org (3)</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Buddhas</t>
+          <t>Openness</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>http://base.at (6), http://dorninger.servus.at (4)</t>
+          <t>http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Zeitgenossenschaft</t>
+          <t>Intelligence</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>http://tauschkreis-freiwald.org (5), http://zeitgenossenschaft.at (4)</t>
+          <t>http://anna-kraher.de (3), http://ciras2008.servus.at (4)</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Versorgerin</t>
+          <t>Hotel</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>http://freie-medien.at (5), http://versorgerin.stwst.at (5)</t>
+          <t>http://apileofghosts.com (4), http://dasparkhotel.net (3)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Themen</t>
+          <t>History</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3611,29 +3611,29 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>http://fro.at (5), http://igkultur.at (3)</t>
+          <t>http://boxafilm.com (4), http://retrogoldmine.com (4)</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Seit</t>
+          <t>Hauptplatz</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>http://fdr.at (2), http://velodrom-linz.at (5)</t>
+          <t>http://feminismus-krawall.at (4), http://sabrina.servus.at (4)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Prozent</t>
+          <t>Gibt</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3641,29 +3641,29 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>http://palmfiction.net (5), http://stopshop.at (2)</t>
+          <t>http://buergerinnenrat.at (4), http://zeitgenossenschaft.at (3)</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Migrantinnen</t>
+          <t>Doku</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>http://maiz.at (5), http://playground224.servus.at (4)</t>
+          <t>http://boxafilm.com (4), http://retrogoldmine.com (4)</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Literatur</t>
+          <t>Bruckner</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3671,209 +3671,209 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>http://akku-steyr.com (2), http://bibnet.servus.at (5)</t>
+          <t>http://dorninger.servus.at (3), http://kuva.at (4)</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Ingo</t>
+          <t>Browser</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>http://ingorandolf.info (5), http://todableiter.servus.at (4)</t>
+          <t>http://ingridschiller.at (2), http://kuva.at (4)</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Haunted</t>
+          <t>Verschiedenen</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>http://ellaraidel.com (5), http://hauntedspaces.net (5)</t>
+          <t>http://anja.west.servus.at (3), http://kulturviertelwochen.at (2)</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Feminismus</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>http://feminismus-krawall.at (5), http://lustwerkstatt.at (2)</t>
+          <t>http://forum.pmk.or.at (3), http://totalsilence.de (2)</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Enabledisable</t>
+          <t>Tel</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>http://benjaminwahl.at (5), http://skodone.at (5)</t>
+          <t>http://drehorgelkabarett.at (2), http://freizeitundkommunikation.at (3)</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Different</t>
+          <t>Stef</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>http://totalsilence.de (2), http://unruly-thoughts.com (5)</t>
+          <t>http://dan-tien.at (2), http://shiatsu-stef.at (3)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Categories</t>
+          <t>Spoken</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>http://andreaszingerle.com (5), http://streettraining.org (3)</t>
+          <t>http://selbstlaut.net (3), http://tamaratrackt.at (2)</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Zweck</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>http://peterandrosch.at (4), http://theater-tamtam.org (4)</t>
+          <t>http://100-dakar.com (3), http://sandrabirklbauer.com (3)</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Zugriff</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>http://peterandrosch.at (4), http://theater-tamtam.org (4)</t>
+          <t>http://thomasbaum.at (3), http://versorgerin.stwst.at (2)</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Ort</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>http://bb15.at (4), http://kairus.org (4)</t>
+          <t>http://backlab.at (3), http://das-kollektiv.at (3)</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Wolfgang</t>
+          <t>Mitglieder</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>http://dorninger.servus.at (3), http://wolfgang-muellegger.at (4)</t>
+          <t>http://igkultur.at (3), http://tauschkreis-freiwald.org (3)</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Within</t>
+          <t>Migrant</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>http://club.stwst.at (4), http://prequalsteps.maiz.at (4)</t>
+          <t>http://prequalsteps.maiz.at (3), http://selfdefenceit.maiz.at (2)</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Strom</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>http://finopoly.at (4), http://stwst.at (4)</t>
+          <t>http://andreaszingerle.com (3), http://kairus.org (3)</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Stadtwerkstatt</t>
+          <t>Kinderbetreuung</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>http://club.stwst.at (4), http://stwst.at (4)</t>
+          <t>http://buergerinnenrat.at (3), http://igkultur.at (3)</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Spaces</t>
+          <t>Initiative</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3881,922 +3881,307 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>http://base.at (2), http://hauntedspaces.net (4)</t>
+          <t>http://filmriss.at (3), http://stwst.at (3)</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Rudolf</t>
+          <t>Hacktivism</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>http://kubriel.servus.at (4), http://rudolfhabringer.at (4)</t>
+          <t>http://mulonga.linz.funkfeuer.at (3), http://radical-openness.org (3)</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>http://physicalnarration.org (4), http://wiki.physicalnarration.org (3)</t>
+          <t>http://apileofghosts.com (3), http://hauntedspaces.net (3)</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Openness</t>
+          <t>Frauentag</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
+          <t>http://feminismus-krawall.at (3), http://internationalerfrauentag.servus.at (2)</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Filmische</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>http://benjaminwahl.at (4), http://skodone.at (4)</t>
+          <t>http://boxafilm.com (3), http://retrogoldmine.com (3)</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Mnc</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>http://benjaminwahl.at (4), http://skodone.at (4)</t>
+          <t>http://dilemmarecords.com (3), http://filmriss.at (3)</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Like</t>
+          <t>Double</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>http://apileofghosts.com (4), http://platform-socialism.org (3)</t>
+          <t>http://doublehappiness.at (2), http://sebastiansix.net (3)</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Kinder</t>
+          <t>Dorf</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>http://derschueler.at (3), http://kolibri-schule.at (4)</t>
+          <t>http://landderfreienmedien.at (3), http://nichtstun.org (2)</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Javascript</t>
+          <t>Donau</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>http://cloud.servus.at (2), http://kuva.at (4)</t>
+          <t>http://dasparkhotel.net (3), http://donau-danube.eu (2)</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Intelligence</t>
+          <t>Ziel</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>http://anna-kraher.de (3), http://ciras2008.servus.at (4)</t>
+          <t>http://maiz.at (2), http://playground224.servus.at (2)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Hotel</t>
+          <t>Willkommen</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>http://apileofghosts.com (4), http://dasparkhotel.net (3)</t>
+          <t>http://dasfundus.net (2), http://ingridschiller.at (2)</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>Vernetzungsstelle</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>http://boxafilm.com (4), http://retrogoldmine.com (4)</t>
+          <t>http://archiv.fiftitu.at (2), http://bibnet.servus.at (2)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Hauptplatz</t>
+          <t>Uses</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>http://feminismus-krawall.at (4), http://sabrina.servus.at (4)</t>
+          <t>http://ingridschiller.at (2), http://peligro.at (2)</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Grenzen</t>
+          <t>Unterschiedlichen</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>http://fuckhead.at (4), http://werkenmitwiderstand.org (2)</t>
+          <t>http://maiz.at (2), http://playground224.servus.at (2)</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Gibt</t>
+          <t>Tamara</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>http://buergerinnenrat.at (4), http://zeitgenossenschaft.at (3)</t>
+          <t>http://ig-demokratie.at (2), http://tamaratrackt.at (2)</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Einstellungenhier</t>
+          <t>Sound</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>http://beschallungsfrei.at (4), http://hoerstadt.at (4)</t>
+          <t>http://ogg.at (2), http://stefaner-schmid.net (2)</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Doku</t>
+          <t>Something</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>http://boxafilm.com (4), http://retrogoldmine.com (4)</t>
+          <t>http://kuk-linz.at (2), http://platform-socialism.org (2)</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Digitalisierung</t>
+          <t>Otto</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>http://hr-ctrl.or.at (2), http://piramidops.at (4)</t>
+          <t>http://otre.at (2), http://ottosaxinger.at (2)</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Capitalism</t>
+          <t>Herzlich</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>http://hauntedspaces.net (4), http://interregnum.live (3)</t>
+          <t>http://drehorgelkabarett.at (2), http://tauschkreis-freiwald.org (2)</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Group</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>http://ingridschiller.at (2), http://kuva.at (4)</t>
+          <t>http://faxen-collective.net (2), http://lugl.at (2)</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Blockieren</t>
+          <t>Coming</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>http://dasholzhaus.at (4), http://hoerstadt.at (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Verschiedenen</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>5</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>http://anja.west.servus.at (3), http://kulturviertelwochen.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>5</v>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>http://forum.pmk.or.at (3), http://totalsilence.de (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Tel</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>5</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>http://drehorgelkabarett.at (2), http://freizeitundkommunikation.at (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Stef</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>5</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>http://dan-tien.at (2), http://shiatsu-stef.at (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Spoken</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>5</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>http://selbstlaut.net (3), http://tamaratrackt.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Sandra</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>6</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>http://100-dakar.com (3), http://sandrabirklbauer.com (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Privacy</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>6</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>http://benjaminwahl.at (3), http://skodone.at (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Party</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>5</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>http://aussitzen.kapu.or.at (3), http://pmk.or.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Ort</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>6</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>http://backlab.at (3), http://das-kollektiv.at (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Mitglieder</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>6</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>http://igkultur.at (3), http://tauschkreis-freiwald.org (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Migrant</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>5</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>http://prequalsteps.maiz.at (3), http://selfdefenceit.maiz.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>6</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>http://andreaszingerle.com (3), http://kairus.org (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Lernen</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>5</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>http://derschueler.at (2), http://kolibri-schule.at (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Jahr</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>5</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>http://unibrennt.at (3), http://workstation.or.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Initiative</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>6</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>http://filmriss.at (3), http://stwst.at (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Hacktivism</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>6</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>http://mulonga.linz.funkfeuer.at (3), http://radical-openness.org (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Ghost</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>6</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>http://apileofghosts.com (3), http://hauntedspaces.net (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Frauentag</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>5</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>http://feminismus-krawall.at (3), http://internationalerfrauentag.servus.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Filmische</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>6</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>http://boxafilm.com (3), http://retrogoldmine.com (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>6</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>http://dilemmarecords.com (3), http://filmriss.at (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Double</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>5</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>http://doublehappiness.at (2), http://sebastiansix.net (3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Dorf</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>5</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>http://landderfreienmedien.at (3), http://nichtstun.org (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Donau</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>5</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>http://dasparkhotel.net (3), http://donau-danube.eu (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Ziel</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>4</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>http://maiz.at (2), http://playground224.servus.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Willkommen</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>4</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>http://dasfundus.net (2), http://ingridschiller.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Voller</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>4</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>http://alteschule-gutau.at (2), http://kulturviertelwochen.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Vernetzungsstelle</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>4</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>http://archiv.fiftitu.at (2), http://bibnet.servus.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Uses</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>4</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>http://ingridschiller.at (2), http://peligro.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Unterschiedlichen</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>4</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>http://maiz.at (2), http://playground224.servus.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Tamara</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>4</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>http://ig-demokratie.at (2), http://tamaratrackt.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>4</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>http://ogg.at (2), http://stefaner-schmid.net (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Something</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>4</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>http://kuk-linz.at (2), http://platform-socialism.org (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>4</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>http://derschueler.at (2), http://versorgerin.stwst.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Otto</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>4</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>http://otre.at (2), http://ottosaxinger.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>4</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>http://frautomani.at (2), http://verein-ent.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Herzlich</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>4</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>http://drehorgelkabarett.at (2), http://tauschkreis-freiwald.org (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Group</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>4</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>http://faxen-collective.net (2), http://lugl.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Grafik</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>4</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>http://sombrero.at (2), http://wolfgang-muellegger.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Förderung</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>4</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>http://hr-ctrl.or.at (2), http://verein-ent.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Coming</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>4</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
           <t>http://birgit-wagner.net (2), http://selbstlaut.net (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Bitte</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>4</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>http://reinhardreisenzahn.com (2), http://zeugfaerberei.at (2)</t>
         </is>
       </c>
     </row>

--- a/output/common_words/xls/common_words_among_websites_dict.xlsx
+++ b/output/common_words/xls/common_words_among_websites_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,11 +457,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://argemarie.at (8), http://augumohr.servus.at (2), http://bibnet.servus.at (7), http://core.servus.at (10), http://donautics.stwst.at (3), http://dorninger.servus.at (6), http://frauenkultur.at (15), http://freie-medien.at (10), http://freizeitundkommunikation.at (3), http://gg.servus.at (17), http://kmptt.servus.at (5), http://kri.servus.at (15), http://linzfmr.at (18), http://linzlinks.servus.at (5), http://newsbase.at (5), http://sabrina.servus.at (5), http://spaetzuenderin.servus.at (4), http://steingeschichten.at (21), http://steinreich.servus.at (2), http://umbrella-march-linz.at (5)</t>
+          <t>http://argemarie.at (8), http://augumohr.servus.at (2), http://bibnet.servus.at (7), http://core.servus.at (10), http://donautics.stwst.at (3), http://dorninger.servus.at (6), http://frauenkultur.at (15), http://freie-medien.at (10), http://freizeitundkommunikation.at (3), http://gg.servus.at (17), http://kmptt.servus.at (5), http://kri.servus.at (15), http://linzfmr.at (18), http://linzlinks.servus.at (5), http://newsbase.at (6), http://sabrina.servus.at (5), http://spaetzuenderin.servus.at (4), http://steingeschichten.at (21), http://steinreich.servus.at (2), http://umbrella-march-linz.at (5)</t>
         </is>
       </c>
     </row>
@@ -558,75 +558,75 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jahre</t>
+          <t>Kultur</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://dasfundus.net (5), http://maiz.at (2), http://steinreich.servus.at (3), http://unibrennt.at (9), http://workstation.or.at (4)</t>
+          <t>http://frauenkultur.at (17), http://igkultur.at (13), http://konsortium.at (3), http://kulturviertelwochen.at (2), http://newsbase.at (5)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Festival</t>
+          <t>Jahre</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://doublehappiness.at (9), http://filmriss.at (5), http://kri.servus.at (9), http://mulonga.linz.funkfeuer.at (6), http://radical-openness.org (6)</t>
+          <t>http://dasfundus.net (5), http://maiz.at (2), http://steinreich.servus.at (3), http://unibrennt.at (9), http://workstation.or.at (4)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Projekt</t>
+          <t>Festival</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://aussitzen.kapu.or.at (4), http://hoerspuren.at (3), http://kulturviertelwochen.at (3), http://n2n.servus.at (3), http://steingeschichten.at (7)</t>
+          <t>http://doublehappiness.at (9), http://filmriss.at (5), http://kri.servus.at (9), http://mulonga.linz.funkfeuer.at (6), http://radical-openness.org (6)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Projekt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://1n0ut.com (17), http://backwood.at (13), http://dreiundachtzig.servus.at (7), http://todableiter.servus.at (5)</t>
+          <t>http://aussitzen.kapu.or.at (4), http://hoerspuren.at (3), http://kulturviertelwochen.at (3), http://n2n.servus.at (3), http://steingeschichten.at (7)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kultur</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://frauenkultur.at (17), http://igkultur.at (13), http://konsortium.at (3), http://kulturviertelwochen.at (2)</t>
+          <t>http://1n0ut.com (17), http://backwood.at (13), http://dreiundachtzig.servus.at (7), http://todableiter.servus.at (5)</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1233,37 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Vorteile</t>
+          <t>September</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>http://newsbase.at (5), http://zumutbar.at (8)</t>
+          <t>http://themagdalenaproject.org (8), http://unkraut-comics.at (4)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>Kunstuniversität</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>http://themagdalenaproject.org (8), http://unkraut-comics.at (4)</t>
+          <t>http://sabrina.servus.at (5), http://steingeschichten.at (8)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kunstuniversität</t>
+          <t>June</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1271,74 +1271,74 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>http://sabrina.servus.at (5), http://steingeschichten.at (8)</t>
+          <t>http://dorninger.servus.at (5), http://kmptt.servus.at (8)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>http://dorninger.servus.at (5), http://kmptt.servus.at (8)</t>
+          <t>http://memphismemph.is (7), http://tinaleisch.at (2)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Live</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>http://memphismemph.is (7), http://tinaleisch.at (2)</t>
+          <t>http://dorninger.servus.at (6), http://valina.at (7)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Live</t>
+          <t>Design</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>http://dorninger.servus.at (6), http://valina.at (7)</t>
+          <t>http://argemarie.at (7), http://collective-ika.org (5)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>Liquid</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>http://argemarie.at (7), http://collective-ika.org (5)</t>
+          <t>http://kellerabteil.org (6), http://platform-socialism.org (2)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Liquid</t>
+          <t>Javascript</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1346,44 +1346,44 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>http://kellerabteil.org (6), http://platform-socialism.org (2)</t>
+          <t>http://cloud.servus.at (2), http://kuva.at (6)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Javascript</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>http://cloud.servus.at (2), http://kuva.at (6)</t>
+          <t>http://kellerabteil.org (3), http://versorgerin.stwst.at (6)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>http://kellerabteil.org (3), http://versorgerin.stwst.at (6)</t>
+          <t>http://patrick.derieg.com (2), http://waytoshambala.org (6)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Andreas</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1391,179 +1391,179 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>http://patrick.derieg.com (2), http://waytoshambala.org (6)</t>
+          <t>http://andreaskurz.net (2), http://andreaszingerle.com (6)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Andreas</t>
+          <t>Widerstand</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>http://andreaskurz.net (2), http://andreaszingerle.com (6)</t>
+          <t>http://nurdietoten.at (5), http://sabrina.servus.at (4)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Widerstand</t>
+          <t>Servusat</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>http://nurdietoten.at (5), http://sabrina.servus.at (4)</t>
+          <t>http://core.servus.at (5), http://davidebevilacqua.com (2)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Servusat</t>
+          <t>Migrantinnen</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>http://core.servus.at (5), http://davidebevilacqua.com (2)</t>
+          <t>http://maiz.at (5), http://playground224.servus.at (4)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Migrantinnen</t>
+          <t>Haunted</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>http://maiz.at (5), http://playground224.servus.at (4)</t>
+          <t>http://ellaraidel.com (5), http://hauntedspaces.net (5)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Haunted</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>http://ellaraidel.com (5), http://hauntedspaces.net (5)</t>
+          <t>http://lists.servus.at (4), http://wegstrecken.at (2)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>Radical</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>http://lists.servus.at (4), http://wegstrecken.at (2)</t>
+          <t>http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Radical</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
+          <t>http://physicalnarration.org (4), http://wiki.physicalnarration.org (3)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Openness</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>http://physicalnarration.org (4), http://wiki.physicalnarration.org (3)</t>
+          <t>http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Openness</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>http://mulonga.linz.funkfeuer.at (4), http://radical-openness.org (4)</t>
+          <t>http://derschueler.at (4), http://lotta-gaffa.at (3)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>http://derschueler.at (4), http://lotta-gaffa.at (3)</t>
+          <t>http://selfdefenceit.maiz.at (3), http://themagdalenaproject.org (3)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>Research</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>http://selfdefenceit.maiz.at (3), http://themagdalenaproject.org (3)</t>
+          <t>http://davidebevilacqua.com (3), http://selfdefenceit.maiz.at (2)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Research</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>http://davidebevilacqua.com (3), http://selfdefenceit.maiz.at (2)</t>
+          <t>http://forum.pmk.or.at (2), http://webstats.servus.at (3)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Migrant</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1586,44 +1586,44 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>http://forum.pmk.or.at (2), http://webstats.servus.at (3)</t>
+          <t>http://prequalsteps.maiz.at (3), http://selfdefenceit.maiz.at (2)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Migrant</t>
+          <t>Experience</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>http://prequalsteps.maiz.at (3), http://selfdefenceit.maiz.at (2)</t>
+          <t>http://drehorgelkabarett.at (3), http://peligro.at (3)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Experience</t>
+          <t>Donau</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>http://drehorgelkabarett.at (3), http://peligro.at (3)</t>
+          <t>http://dasparkhotel.net (3), http://donau-danube.eu (2)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Donau</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1631,50 +1631,35 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>http://dasparkhotel.net (3), http://donau-danube.eu (2)</t>
+          <t>http://fraumayr.at (2), http://memphismemph.is (3)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Passwort</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>http://fraumayr.at (2), http://memphismemph.is (3)</t>
+          <t>http://guglmugl.net (2), http://zeitgemeinschaft.at (2)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Passwort</t>
+          <t>Otto</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>4</v>
       </c>
       <c r="C82" t="inlineStr">
-        <is>
-          <t>http://guglmugl.net (2), http://zeitgemeinschaft.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Otto</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>4</v>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>http://otre.at (2), http://ottosaxinger.at (2)</t>
         </is>

--- a/output/common_words/xls/common_words_among_websites_dict.xlsx
+++ b/output/common_words/xls/common_words_among_websites_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1638,28 +1638,13 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Passwort</t>
+          <t>Otto</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>4</v>
       </c>
       <c r="C81" t="inlineStr">
-        <is>
-          <t>http://guglmugl.net (2), http://zeitgemeinschaft.at (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Otto</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>4</v>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>http://otre.at (2), http://ottosaxinger.at (2)</t>
         </is>

--- a/output/common_words/xls/common_words_among_websites_dict.xlsx
+++ b/output/common_words/xls/common_words_among_websites_dict.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,4907 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Common Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Frequency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Websites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Stwst</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>418</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://48.stwst.at (3), https://48.stwst.org (3), https://ambulance.stwst.at (3), https://ambulance.stwst.org (3), https://archive.stwst.at (12), https://cafestrom.at (4), https://codeofconduct.stwst.at (14), https://codeofconduct.stwst.org (14), https://cold.stwst.at (17), https://cold.stwst.org (17), https://events.stwst.at (109), https://finopoly.at (3), https://freielitfasssaeule.stwst.at (7), https://freielitfasssaeule.stwst.org (7), https://fss.stwst.at (4), https://gibling.stwst.at (12), https://gibling.stwst.org (12), https://herzblutwiese.stwst.at (14), https://herzblutwiese.stwst.org (14), https://main-test.stwst.at (3), https://main-test.stwst.org (3), https://newcontext.stwst.at (7), https://newcontext.stwst.org (7), https://nightcreaturesdeamons.stwst.at (15), https://nightcreaturesdeamons.stwst.org (15), https://projects-test.stwst.at (7), https://projects-test.stwst.org (7), https://projects.stwst.at (7), https://quasikunst.stwst.at (7), https://quasikunst.stwst.org (7), https://radiotopia.stwst.at (3), https://redthread.stwst.at (8), https://redthread.stwst.org (8), https://stadtwerkstatt.at (3), https://stadtwerkstatt.com (3), https://stoer.stwst.at (5), https://stoer.stwst.org (5), https://stream.stwst.at (2), https://strom.stwst.at (4), https://stwst.at (3), https://stwst.org (3), https://stwst48-all.stwst.at (2), https://stwst48-all.stwst.org (2), https://stwst48.stwst.at (2), https://stwst48.stwst.org (2), https://uebergangssenat.stwst.at (3), https://uebergangssenat.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>216</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://48.stwst.at (3), https://48.stwst.org (3), https://ambulance.stwst.at (2), https://ambulance.stwst.org (2), https://archive.stwst.at (7), https://donautics.com (2), https://donowtic.com (6), https://events.stwst.at (41), https://freielitfasssaeule.stwst.at (2), https://freielitfasssaeule.stwst.org (2), https://interstellarrecords.at (47), https://main-test.stwst.at (3), https://main-test.stwst.org (3), https://newcontext.stwst.at (4), https://newcontext.stwst.org (4), https://newsletter.stwst.at (7), https://newsletter.stwst.org (7), https://okabre.com (2), https://projects-test.stwst.at (4), https://projects-test.stwst.org (4), https://projects.stwst.at (4), https://radiotopia.stwst.at (3), https://redthread.stwst.at (5), https://redthread.stwst.org (5), https://shanefinan.org (10), https://stadtwerkstatt.at (3), https://stadtwerkstatt.com (3), https://stream.stwst.at (2), https://stwst.at (3), https://stwst.org (3), https://stwst48-all.stwst.at (3), https://stwst48-all.stwst.org (3), https://stwst48.stwst.at (3), https://stwst48.stwst.org (3), https://transform.eipcp.net (6), https://webstats.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kunst</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>297</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://backlab.at (10), https://brotlosekunst.kapu.or.at (2), https://burgenland.igkultur.at (6), https://cityofrespect.kunstraum.at (3), https://cold.stwst.at (14), https://cold.stwst.org (14), https://dasfundus.net (3), https://diesenreiter.at (21), https://frauenkultur.at (16), https://herzblutwiese.stwst.at (14), https://herzblutwiese.stwst.org (14), https://igkultur.at (8), https://konsortium.at (2), https://kultur-jobs.at (12), https://kulturjob.at (12), https://kulturjobs.at (12), https://kulturlandretten.at (30), https://kunstraum.at (3), https://kupf.at (4), https://lehrgang.kupf.at (5), https://linz0nein.servus.at (2), https://lowereastsite.com (2), https://oesterreich.igkultur.at (8), https://quasikunst.stwst.at (7), https://quasikunst.stwst.org (7), https://staging.igkultur-vbg.at (9), https://staging.igkultur.at (9), https://strom7.stwst.at (15), https://strom7.stwst.org (15), https://stwst48x8.stwst.at (2), https://stwst48x8.stwst.org (2), https://test.kupf.at (6), https://triviale.at (4), https://verein-ent.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>307</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://19.linzfmr.at (7), https://21.linzfmr.at (4), https://archiv.kunstraum.at (13), https://argemarie.at (8), https://az-linz.servus.at (13), https://core.servus.at (10), https://die-schule.at (91), https://diesenreiter.at (18), https://donautics.stwst.at (3), https://dorninger.servus.at (6), https://euroby2008.stwst.at (6), https://euroby2008.stwst.org (6), https://finopoly.at (5), https://frauenkultur.at (15), https://freie-medien.at (10), https://freienetze.net (10), https://freizeitundkommunikation.at (3), https://helgaschager.servus.at (5), https://kmptt.servus.at (5), https://newcore.servus.at (10), https://old.maiz.at (5), https://playground225.servus.at (4), https://radiotopia.stwst.at (4), https://sabrina.servus.at (5), https://servus.at (10), https://steingeschichten.at (21), https://theaternyx.at (3), https://wirag.kapu.or.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>184</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://bos.servus.at (8), https://code.kohlberger.net (8), https://doctorsforchoice.at (8), https://hungaromedia.at (8), https://igkikk.at (8), https://igkultur-vbg.at (8), https://igkultur.at (8), https://kaernten.igkultur.at (8), https://kuenstlerinnen.at (8), https://liquidautonomy.org (3), https://luckeneder-art.at (8), https://mrtg.servus.at (8), https://oesterreich.igkultur.at (8), https://okabre.com (2), https://openlab.servus.at (8), https://platform-socialism.org (3), https://plattform-sozialismus.org (3), https://public.corridorsounds.org (8), https://shop.base.at (2), https://staging.igkultur-vbg.at (8), https://staging.igkultur.at (8), https://steiermark.igkultur.at (8), https://support.oberhumer.com (8), https://vorarlberg.igkultur.at (8), https://wap.kapu.or.at (8), https://webcal.stwst.at (8), https://wiki.platform-socialism.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>145</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://100-dakar.com (8), https://apephonie.org (2), https://benjaminwahl.at (5), https://bos.servus.at (5), https://code.kohlberger.net (5), https://dasholzhaus.at (10), https://diequote.at (10), https://doctorsforchoice.at (5), https://drehorgelkabarett.at (8), https://helgaschager.servus.at (8), https://hungaromedia.at (5), https://ingridschiller.at (8), https://kuenstlerinnen.at (5), https://luckeneder-art.at (5), https://mrtg.servus.at (5), https://openlab.servus.at (5), https://peligro.at (8), https://public.corridorsounds.org (5), https://schager.servus.at (8), https://skodone.at (5), https://support.oberhumer.com (5), https://unibrennt.at (5), https://wap.kapu.or.at (5), https://webcal.stwst.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Stadtwerkstatt</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>158</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://48.stwst.at (4), https://48.stwst.org (4), https://archive.stwst.at (6), https://events.stwst.at (27), https://herzblutwiese.stwst.at (11), https://herzblutwiese.stwst.org (11), https://main-test.stwst.at (4), https://main-test.stwst.org (4), https://newcontext.stwst.at (7), https://newcontext.stwst.org (7), https://projects-test.stwst.at (7), https://projects-test.stwst.org (7), https://projects.stwst.at (7), https://stadtwerkstatt.at (4), https://stadtwerkstatt.com (4), https://stoer.stwst.at (5), https://stoer.stwst.org (5), https://strom7.stwst.at (11), https://strom7.stwst.org (11), https://stwst.at (4), https://stwst.org (4), https://stwst48x3.stwst.at (2), https://stwst48x3.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>168</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://100-dakar.com (8), https://19.linzfmr.at (7), https://21.linzfmr.at (4), https://archive.faces-l.net (11), https://archive.stwst.at (8), https://bb15.at (4), https://bettywimmer.net (2), https://codex4art.com (3), https://donowtic.com (11), https://eipcp.net (13), https://faces-l.net (16), https://kairus.org (6), https://liwoli.at (5), https://management.shanefinan.org (17), https://negentropy-sport.net (2), https://neu.faces-l.net (16), https://oldcore.servus.at (5), https://playground225.servus.at (4), https://radical-openness.org (5), https://stwst48x3.stwst.at (2), https://stwst48x3.stwst.org (2), https://stwst48x4.stwst.at (4), https://transform.eipcp.net (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Politik</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>124</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://burgenland.igkultur.at (7), https://igkikk.at (7), https://igkultur-vbg.at (7), https://igkultur.at (8), https://kaernten.igkultur.at (7), https://lustwerkstatt.at (3), https://neuwahlvonunten.at (3), https://niederoesterreich.igkultur.at (5), https://oberoesterreich.igkultur.at (6), https://oesterreich.igkultur.at (8), https://salzburg.igkultur.at (5), https://staging.igkultur-vbg.at (7), https://staging.igkultur.at (7), https://steiermark.igkultur.at (10), https://tirol.igkultur.at (5), https://vonunten.at (12), https://vorarlberg.igkultur.at (7), https://wien.igkultur.at (7), https://wirtshauswissenschaften.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Kultur</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>204</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://burgenland.igkultur.at (11), https://fairpaykultur.at (8), https://frauenkultur.at (17), https://igkultur-vbg.at (26), https://igkultur.at (13), https://konsortium.at (3), https://kulturlandretten.at (24), https://kulturviertelwochen.at (2), https://linz0nein.servus.at (2), https://niederoesterreich.igkultur.at (4), https://oberoesterreich.igkultur.at (4), https://oesterreich.igkultur.at (13), https://salzburg.igkultur.at (5), https://steiermark.igkultur.at (27), https://test.kupf.at (7), https://tirol.igkultur.at (4), https://vorarlberg.igkultur.at (26), https://wien.igkultur.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>214</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://100-dakar.com (14), https://benjaminwahl.at (18), https://beschallungsfrei.at (22), https://dasholzhaus.at (11), https://diequote.at (24), https://drehorgelkabarett.at (14), https://frautomani.at (3), https://helgaschager.servus.at (14), https://hoerstadt.at (22), https://ingridschiller.at (14), https://ottosaxinger.at (3), https://peligro.at (14), https://schager.servus.at (15), https://schuledesungehorsams.at (2), https://schuledesungehorsams.com (2), https://schuledesungehorsams.de (2), https://schuledesungehorsams.org (2), https://skodone.at (18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Weitere</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>34</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://arnetzhoferstrasse.stuwer.info (2), https://arselectronica.unibrennt.at (2), https://ausklang.unibrennt.at (2), https://bewegung.unibrennt.at (2), https://bologna.unibrennt.at (2), https://forderungen.unibrennt.at (2), https://kaiserwiese.stuwer.info (2), https://krise.unibrennt.at (2), https://magazin.stuwer.info (2), https://neuwahl.vonunten.at (2), https://ottosaxinger.at (2), https://phaenomen.unibrennt.at (2), https://programm.unibrennt.at (2), https://proteste.unibrennt.at (2), https://repression.unibrennt.at (2), https://selma-steinmetz.stuwer.info (2), https://unsere.unibrennt.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hallo</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>56</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://arnetzhoferstrasse.stuwer.info (3), https://arselectronica.unibrennt.at (4), https://ausklang.unibrennt.at (4), https://bewegung.unibrennt.at (4), https://bologna.unibrennt.at (4), https://forderungen.unibrennt.at (4), https://kaiserwiese.stuwer.info (3), https://krise.unibrennt.at (4), https://magazin.stuwer.info (3), https://phaenomen.unibrennt.at (4), https://programm.unibrennt.at (4), https://proteste.unibrennt.at (4), https://repression.unibrennt.at (4), https://selma-steinmetz.stuwer.info (3), https://unsere.unibrennt.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Wordpress</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://arnetzhoferstrasse.stuwer.info (2), https://arselectronica.unibrennt.at (2), https://ausklang.unibrennt.at (2), https://bewegung.unibrennt.at (2), https://bologna.unibrennt.at (2), https://forderungen.unibrennt.at (2), https://kaiserwiese.stuwer.info (2), https://krise.unibrennt.at (2), https://magazin.stuwer.info (2), https://phaenomen.unibrennt.at (2), https://programm.unibrennt.at (2), https://proteste.unibrennt.at (2), https://repression.unibrennt.at (2), https://selma-steinmetz.stuwer.info (2), https://unsere.unibrennt.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Wien</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>228</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://erste-tage.unibrennt.at (16), https://frauenkultur.at (11), https://gegenschwarzblau.servus.at (4), https://gegenschwarzblau.stwst.at (4), https://gegenschwarzblau.stwst.org (4), https://hoerspuren.at (2), https://hoerspuren.com (2), https://hoerspuren.org (2), https://kultur-jobs.at (58), https://kulturjob.at (58), https://kulturjobs.at (58), https://theaternyx.at (5), https://xn--hrspuren-n4a.at (2), https://xn--hrspuren-n4a.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>112</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://7067.stwst.at (3), https://7067.stwst.org (3), https://alma.kellerabteil.org (7), https://filialeauwiesen.stwst.at (4), https://filialeauwiesen.stwst.org (4), https://freie-radios.online (22), https://funda.ment.org (5), https://lehrredaktion.fro.at (5), https://old.frf.at (2), https://online.freie-radios.at (22), https://radio-fri.at (5), https://rfs.fro.at (5), https://vfroe.dwerk.at (23), https://wegstrecken.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>52</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://7067.stwst.at (2), https://7067.stwst.org (2), https://bos.servus.at (4), https://code.kohlberger.net (4), https://doctorsforchoice.at (4), https://hungaromedia.at (4), https://kuenstlerinnen.at (4), https://luckeneder-art.at (4), https://mrtg.servus.at (4), https://openlab.servus.at (4), https://public.corridorsounds.org (4), https://support.oberhumer.com (4), https://wap.kapu.or.at (4), https://webcal.stwst.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Menschen</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>101</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://bettellobby.at (21), https://cityofrespect.kunstraum.at (3), https://donau-danube.eu (3), https://donau-donava.eu (3), https://donau-duna.eu (3), https://donau-dunaj.eu (3), https://donau-dunarea.eu (3), https://donau-dunav.eu (3), https://donau-dunaw.eu (3), https://ig-demokratie.at (3), https://kunstraum.at (3), https://playground233.servus.at (35), https://vonunten.at (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Juni</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>93</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://backwood.at (11), https://bewegung.unibrennt.at (2), https://bologna.unibrennt.at (2), https://events.stwst.at (32), https://krise.unibrennt.at (2), https://landgaenge.eu (5), https://moodle.maiz.at (2), https://nurdietoten.at (10), https://programm.unibrennt.at (2), https://proteste.unibrennt.at (2), https://rotespuren.at (10), https://schager.servus.at (7), https://wirag.kapu.or.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>66</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://48.stwst.at (4), https://48.stwst.org (4), https://faces-l.net (10), https://main-test.stwst.at (4), https://main-test.stwst.org (4), https://neu.faces-l.net (10), https://redthread.stwst.at (6), https://redthread.stwst.org (6), https://stadtwerkstatt.at (4), https://stadtwerkstatt.com (4), https://stream.stwst.at (2), https://stwst.at (4), https://stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Strom</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>54</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://48.stwst.at (4), https://48.stwst.org (4), https://cafestrom.at (3), https://finopoly.at (4), https://main-test.stwst.at (4), https://main-test.stwst.org (4), https://stadtwerkstatt.at (4), https://stadtwerkstatt.com (4), https://strom.stwst.at (3), https://strom7.stwst.at (6), https://strom7.stwst.org (6), https://stwst.at (4), https://stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Unibrennt</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>61</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://arselectronica.unibrennt.at (5), https://ausklang.unibrennt.at (3), https://bewegung.unibrennt.at (5), https://bologna.unibrennt.at (3), https://forderungen.unibrennt.at (4), https://krise.unibrennt.at (5), https://phaenomen.unibrennt.at (4), https://programm.unibrennt.at (3), https://proteste.unibrennt.at (5), https://repression.unibrennt.at (5), https://unibrennt.at (16), https://unsere.unibrennt.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rocky</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>96</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://bos.servus.at (8), https://code.kohlberger.net (8), https://doctorsforchoice.at (8), https://hungaromedia.at (8), https://kuenstlerinnen.at (8), https://luckeneder-art.at (8), https://mrtg.servus.at (8), https://openlab.servus.at (8), https://public.corridorsounds.org (8), https://support.oberhumer.com (8), https://wap.kapu.or.at (8), https://webcal.stwst.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>84</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://bos.servus.at (7), https://code.kohlberger.net (7), https://doctorsforchoice.at (7), https://hungaromedia.at (7), https://kuenstlerinnen.at (7), https://luckeneder-art.at (7), https://mrtg.servus.at (7), https://openlab.servus.at (7), https://public.corridorsounds.org (7), https://support.oberhumer.com (7), https://wap.kapu.or.at (7), https://webcal.stwst.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Praxis</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>60</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://burgenland.igkultur.at (9), https://igkikk.at (8), https://kaernten.igkultur.at (8), https://niederoesterreich.igkultur.at (2), https://oberoesterreich.igkultur.at (2), https://salzburg.igkultur.at (3), https://staging.igkultur-vbg.at (7), https://staging.igkultur.at (7), https://steiermark.igkultur.at (7), https://tirol.igkultur.at (2), https://wien.igkultur.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sept</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://stwst48x3.stwst.at (2), https://stwst48x3.stwst.org (2), https://stwst48x4.stwst.at (2), https://stwst48x6.stwst.at (2), https://stwst48x6.stwst.org (2), https://stwst48x7.stwst.at (2), https://stwst48x7.stwst.org (2), https://stwst48x8.stwst.at (2), https://stwst48x8.stwst.org (2), https://stwst48x9.stwst.at (2), https://stwst48x9.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Kupf</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>73</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://buendnis.at (2), https://innovationstopf.at (7), https://kultur-jobs.at (11), https://kulturjob.at (11), https://kulturjobs.at (11), https://kupf.at (10), https://kupfakademie.at (5), https://lehrgang.kupf.at (6), https://test.kupf.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jahre</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>33</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://dasfundus.net (5), https://ista.unibrennt.at (2), https://konsolidierung.unibrennt.at (2), https://maiz.at (2), https://marx200.fro.at (2), https://theaternyx.at (4), https://unibrennt.at (9), https://workstation.or.at (4), https://zehnjahre.pmk.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>34</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://asif.shanefinan.org (3), https://benjaminwahl.at (5), https://downinthehole.org (3), https://gegenschwarzblau.servus.at (4), https://gegenschwarzblau.stwst.at (4), https://gegenschwarzblau.stwst.org (4), https://lowereastsite.com (3), https://skodone.at (5), https://woodwideweb.shanefinan.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Weiterlesen</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>35</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://core.servus.at (4), https://erste-tage.unibrennt.at (7), https://freienetze.net (4), https://lustwerkstatt.at (5), https://newcore.servus.at (4), https://playground225.servus.at (4), https://servus.at (4), https://workstation.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>42</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://stwst48-all.stwst.at (7), https://stwst48-all.stwst.org (7), https://stwst48.stwst.at (7), https://stwst48.stwst.org (7), https://stwst48x2.stwst.at (3), https://stwst48x2.stwst.org (3), https://stwst48x5.stwst.at (4), https://stwst48x5.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>26</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://cafestrom.at (4), https://codeofconduct.stwst.at (3), https://codeofconduct.stwst.org (3), https://infolab.stwst.at (3), https://infolab.stwst.org (3), https://strom.stwst.at (4), https://uebergangssenat.stwst.at (3), https://uebergangssenat.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Wurde</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>162</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://die-schule.at (84), https://innenraumlavinia.at (6), https://innovationstopf.at (3), https://lottaschreibt.at (17), https://playground233.servus.at (36), https://stoer.stwst.at (8), https://stoer.stwst.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>52</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://alt.visionswerkstatt.at (4), https://archivia.at (33), https://arnetzhoferstrasse.stuwer.info (2), https://cinemanext.at (7), https://kaiserwiese.stuwer.info (2), https://magazin.stuwer.info (2), https://selma-steinmetz.stuwer.info (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Projekt</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>25</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://hoerspuren.at (3), https://hoerspuren.com (3), https://hoerspuren.org (3), https://kulturviertelwochen.at (3), https://steingeschichten.at (7), https://xn--hrspuren-n4a.at (3), https://xn--hrspuren-n4a.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Infolab</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>30</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://infolab.stwst.at (5), https://infolab.stwst.org (5), https://newcontext.stwst.at (4), https://newcontext.stwst.org (4), https://projects-test.stwst.at (4), https://projects-test.stwst.org (4), https://projects.stwst.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Brückenschlag</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>21</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://donau-danube.eu (3), https://donau-donava.eu (3), https://donau-duna.eu (3), https://donau-dunaj.eu (3), https://donau-dunarea.eu (3), https://donau-dunav.eu (3), https://donau-dunaw.eu (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Schöpfung</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>14</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://donau-danube.eu (2), https://donau-donava.eu (2), https://donau-duna.eu (2), https://donau-dunaj.eu (2), https://donau-dunarea.eu (2), https://donau-dunav.eu (2), https://donau-dunaw.eu (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Donauschöpfung</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://donau-danube.eu (2), https://donau-donava.eu (2), https://donau-duna.eu (2), https://donau-dunaj.eu (2), https://donau-dunarea.eu (2), https://donau-dunav.eu (2), https://donau-dunaw.eu (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Donau</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://donau-danube.eu (2), https://donau-donava.eu (2), https://donau-duna.eu (2), https://donau-dunaj.eu (2), https://donau-dunarea.eu (2), https://donau-dunav.eu (2), https://donau-dunaw.eu (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Discursive</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://ambulance.stwst.at (2), https://ambulance.stwst.org (2), https://stream.stwst.at (2), https://stwst48-all.stwst.at (2), https://stwst48-all.stwst.org (2), https://stwst48.stwst.at (2), https://stwst48.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>47</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://joreg.ath.cx (7), https://kubriel.servus.at (10), https://something-moved.shanefinan.org (7), https://tschneid.servus.at (19), https://tv.stwst.at (2), https://tv.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>62</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://archivia.at (19), https://staging.igkultur-vbg.at (13), https://staging.igkultur.at (13), https://tabeacray.com (5), https://themagdalenaproject.org (8), https://unkraut-comics.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Live</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>39</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://dorninger.servus.at (6), https://filialeauwiesen.stwst.at (4), https://filialeauwiesen.stwst.org (4), https://finopoly.at (16), https://groove.ment.org (2), https://valina.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>43</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://field.shanefinan.org (3), https://macalla.shanefinan.org (5), https://management.shanefinan.org (10), https://shanefinan.org (14), https://themagdalenaproject.org (5), https://transform.eipcp.net (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Demokratie</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>35</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://buergerinnenrat.at (6), https://demokratierepaircafe.ig-demokratie.at (3), https://diyrepaircafe.ig-demokratie.at (3), https://ig-demokratie.at (14), https://repaircafe.ig-demokratie.at (3), https://xn--brgerinnenrat-wob.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Servusat</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>33</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://core.servus.at (5), https://davidebevilacqua.com (2), https://freienetze.net (5), https://newcore.servus.at (5), https://oldcore.servus.at (11), https://servus.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>40</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://igkultur.at (9), https://liwoli.at (4), https://loosediary.timesup.org (11), https://obssys.com (3), https://oesterreich.igkultur.at (9), https://radical-openness.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Read</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>39</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://andreas.kairus.org (5), https://andreaszingerle.com (5), https://ellaraidel.com (7), https://freie-medien.at (10), https://kairus.org (6), https://kunzwana.net (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://kellerabteil.org (6), https://kellerabteil.servus.at (6), https://liquidautonomy.org (2), https://platform-socialism.org (2), https://plattform-sozialismus.org (2), https://wiki.platform-socialism.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Stadt</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>18</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://brotlosekunst.kapu.or.at (2), https://freielitfasssaeule.stwst.at (5), https://freielitfasssaeule.stwst.org (5), https://irrational.isation.org (2), https://isation.org (2), https://rational.isation.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Server</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>23</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://explorer.stwst.at (2), https://fss.stwst.at (4), https://oberhumer.name (5), https://quiz.kairus.org (4), https://survey.kairus.org (4), https://test.kairus.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jahr</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>27</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://linz0nein.servus.at (2), https://newcontext.stwst.at (5), https://newcontext.stwst.org (5), https://projects-test.stwst.at (5), https://projects-test.stwst.org (5), https://projects.stwst.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>14</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://apt2.servus.at (2), https://download.cinemanext.at (2), https://femaleartistindex.org (4), https://forum.pmk.or.at (2), https://public.timesup.org (2), https://webhistory.stwst.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Frauen</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>107</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://frauenkultur.at (12), https://herzblutwiese.stwst.at (8), https://herzblutwiese.stwst.org (8), https://playground233.servus.at (75), https://sabrina.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>34</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://alteschule-gutau.at (2), https://derschueler.at (4), https://diebresche.org (23), https://heartofnoise.at (2), https://lotta-gaffa.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Pay</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>39</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://fairpaykultur.at (22), https://niederoesterreich.igkultur.at (3), https://oberoesterreich.igkultur.at (4), https://salzburg.igkultur.at (7), https://tirol.igkultur.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>50</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://infolab.stwst.at (4), https://infolab.stwst.org (4), https://mns.stwst.at (20), https://mns.stwst.org (20), https://ogg.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>37</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://fairpaykultur.at (20), https://niederoesterreich.igkultur.at (3), https://oberoesterreich.igkultur.at (4), https://salzburg.igkultur.at (7), https://tirol.igkultur.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Installation</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>32</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://anja.west.servus.at (3), https://bettywimmer.net (2), https://funda.ment.org (2), https://grgr.at (8), https://sunobwegeser.net (17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>44</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://apileofghosts.com (16), https://boxafilm.com (8), https://corpushomini.info (3), https://doublehappiness.at (12), https://hauntedspaces.net (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>25</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://drehorgelkabarett.at (3), https://ingridschiller.at (3), https://peligro.at (3), https://regional-express.org (13), https://something-moved.shanefinan.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Uhr</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>32</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://az-linz.servus.at (8), https://rudolfhabringer.at (12), https://wegstrecken.at (2), https://wirag.kapu.or.at (8), https://zeugfaerberei.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Festival</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>39</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://apileofghosts.com (11), https://doublehappiness.at (9), https://liwoli.at (6), https://management.shanefinan.org (7), https://radical-openness.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Welt</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>37</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://cold.stwst.at (9), https://cold.stwst.org (9), https://neuwahl.vonunten.at (3), https://quasikunst.stwst.at (8), https://quasikunst.stwst.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Arbeiten</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>29</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://apephonie.org (2), https://fiftitu.at (7), https://leodressel.net (2), https://redthread.stwst.at (9), https://redthread.stwst.org (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Verein</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>16</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://donautics.com (2), https://guglmugl.net (2), https://hr-ctrl.or.at (3), https://maiz.at (2), https://verein-ent.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>30</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://filmdays.stwst.at (7), https://helgatraxler.at (6), https://old.frf.at (5), https://photosalonhelga.at (6), https://photosalonhelga.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>14</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://freizeitundkommunikation.at (2), https://geraldkogler.com (6), https://quiz.kairus.org (2), https://survey.kairus.org (2), https://test.kairus.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Servus</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>24</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://core.servus.at (5), https://freienetze.net (5), https://newcore.servus.at (5), https://playground225.servus.at (4), https://servus.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Audioguides</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>25</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://hoerspuren.at (5), https://hoerspuren.com (5), https://hoerspuren.org (5), https://xn--hrspuren-n4a.at (5), https://xn--hrspuren-n4a.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hörspuren</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>10</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://hoerspuren.at (2), https://hoerspuren.com (2), https://hoerspuren.org (2), https://xn--hrspuren-n4a.at (2), https://xn--hrspuren-n4a.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Anschluss</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://hoerspuren.at (2), https://hoerspuren.com (2), https://hoerspuren.org (2), https://xn--hrspuren-n4a.at (2), https://xn--hrspuren-n4a.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>58</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://arttraffic-strand.net (2), https://bb15.at (7), https://joreg.ath.cx (3), https://livingwithplanb.derieg.com (46)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>63</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://eliot.at (7), https://faxen-collective.net (2), https://grgr.at (11), https://linda.kairus.org (43)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Workshop</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>58</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://alteschule-gutau.at (2), https://howtogetwhatyouwant.at (34), https://mzbaltazarslaboratory.org (19), https://wsp.plusea.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Radios</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>40</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://archivia.at (23), https://freie-radios.online (6), https://online.freie-radios.at (6), https://vfroe.dwerk.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>41</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://andreas.kairus.org (5), https://andreaszingerle.com (5), https://grgr.at (10), https://sunobwegeser.net (21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oktober</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>33</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://erste-tage.unibrennt.at (19), https://sabrina.servus.at (4), https://unibrennt.at (6), https://unkraut-comics.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>März</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>36</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://das-kollektiv.at (8), https://feminismus-krawall.at (16), https://tabeacray.com (6), https://unkraut-comics.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Bürgerinnenrat</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>35</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://buergerinnenrat.at (8), https://neuwahlvonunten.at (4), https://vonunten.at (15), https://xn--brgerinnenrat-wob.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Vorarlberg</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>38</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://buergerinnenrat.at (6), https://igkultur-vbg.at (13), https://vorarlberg.igkultur.at (13), https://xn--brgerinnenrat-wob.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>37</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://anna-kraher.de (4), https://faces-l.net (11), https://ingorandolf.info (11), https://neu.faces-l.net (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Javascript</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>20</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://coding.servus.at (10), https://cp.servus.at (2), https://kuva.at (6), https://zehnjahre.pmk.or.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>20</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://quasikunst.stwst.at (7), https://quasikunst.stwst.org (7), https://stwst48x8.stwst.at (3), https://stwst48x8.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>17</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://interregnum.live (4), https://mns.stwst.at (3), https://mns.stwst.org (3), https://translate.eipcp.net (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>18</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://kellerabteil.org (3), https://kellerabteil.servus.at (3), https://versorgerin.stwst.at (6), https://versorgerin.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>16</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://core.servus.at (4), https://freienetze.net (4), https://newcore.servus.at (4), https://servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Fro</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>15</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://filialeauwiesen.stwst.at (4), https://filialeauwiesen.stwst.org (4), https://lehrredaktion.fro.at (4), https://rfs.fro.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Stuwerviertels</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>12</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://arnetzhoferstrasse.stuwer.info (3), https://kaiserwiese.stuwer.info (3), https://magazin.stuwer.info (3), https://selma-steinmetz.stuwer.info (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Stunden</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>12</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://stwst48-all.stwst.at (3), https://stwst48-all.stwst.org (3), https://stwst48.stwst.at (3), https://stwst48.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Setup</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>9</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://air.stwst.at (2), https://doku.kairus.org (2), https://dokuwiki.servus.at (3), https://iooptdoku.kairus.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>9</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://forum.pmk.or.at (2), https://kanboard.downinthehole.org (2), https://kb.servus.at (2), https://webstats.servus.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>9</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://forum.pmk.or.at (3), https://helgatraxler.at (2), https://photosalonhelga.at (2), https://photosalonhelga.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Like</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>12</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://liquidautonomy.org (3), https://platform-socialism.org (3), https://plattform-sozialismus.org (3), https://wiki.platform-socialism.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Less</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>10</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://stwst48x3.stwst.at (3), https://stwst48x3.stwst.org (3), https://stwst48x6.stwst.at (2), https://stwst48x6.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Platform</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>8</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://liquidautonomy.org (2), https://platform-socialism.org (2), https://plattform-sozialismus.org (2), https://wiki.platform-socialism.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Lets</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://liquidautonomy.org (2), https://platform-socialism.org (2), https://plattform-sozialismus.org (2), https://wiki.platform-socialism.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>8</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://oberhumer.name (2), https://quiz.kairus.org (2), https://survey.kairus.org (2), https://test.kairus.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Angemeldet</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>8</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://kurse.das-kollektiv.at (2), https://moodle.digimathe.maiz.at (2), https://moodle.lernplattform.das-kollektiv.at (2), https://moodle.prequalsteps.maiz.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Schule</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>295</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://alteschule-gutau.at (5), https://derschueler.at (5), https://die-schule.at (285)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Bruttolohn</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>222</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://kultur-jobs.at (74), https://kulturjob.at (74), https://kulturjobs.at (74)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>62</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://interstellarrecords.at (44), https://oldcore.servus.at (10), https://steingeschichten.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Gibling</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>74</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://gibling.stwst.at (36), https://gibling.stwst.org (36), https://punkaustria.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Immer</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>34</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://codeofconduct.stwst.at (3), https://codeofconduct.stwst.org (3), https://playground233.servus.at (28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Loading</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>78</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://freie-radios.online (26), https://online.freie-radios.at (26), https://vfroe.dwerk.at (26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oberösterreich</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>31</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://buendnis.at (3), https://kulturlandretten.at (24), https://kupf.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>60</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://kultur-jobs.at (20), https://kulturjob.at (20), https://kulturjobs.at (20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>46</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://palmfiction.net (16), https://ta.stwst.at (15), https://ta.stwst.org (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Fragen</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>19</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://stwst48x6.stwst.at (2), https://stwst48x6.stwst.org (2), https://vonunten.at (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Faces</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>40</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://archive.faces-l.net (10), https://faces-l.net (15), https://neu.faces-l.net (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>31</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://19.linzfmr.at (9), https://21.linzfmr.at (7), https://mzbaltazarslaboratory.org (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>27</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://backwood.at (13), https://sensenmaehen.backwood.at (9), https://todableiter.servus.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Information</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>34</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://donowtic.com (8), https://infolab.stwst.at (13), https://infolab.stwst.org (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>26</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://as-tree.shanefinan.org (7), https://bb15.at (7), https://management.shanefinan.org (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>16</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://kurse.das-kollektiv.at (2), https://moodle.lernplattform.das-kollektiv.at (2), https://umfrage.servus.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Collective</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>19</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://collective-ika.org (3), https://kmptt.servus.at (4), https://shanefinan.org (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Robot</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>21</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://euroby2008.stwst.at (5), https://euroby2008.stwst.org (5), https://plusea.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>24</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://dorninger.servus.at (5), https://kmptt.servus.at (8), https://loosediary.timesup.org (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Vonericklaering</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>30</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://ausstellung.stuwer.info (10), https://schaukasten.stuwer.info (10), https://treffen.stuwer.info (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Kunstraum</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>18</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://archiv.kunstraum.at (10), https://cityofrespect.kunstraum.at (4), https://kunstraum.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Kommentare</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>30</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://ausstellung.stuwer.info (10), https://schaukasten.stuwer.info (10), https://treffen.stuwer.info (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>University</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>25</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://euroby2008.stwst.at (9), https://euroby2008.stwst.org (9), https://field.shanefinan.org (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>17</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://doublehappiness.at (9), https://themagdalenaproject.org (3), https://wien.igkultur.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Goethestrasse</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>15</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://archiv.kunstraum.at (9), https://cityofrespect.kunstraum.at (3), https://kunstraum.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Migrantinnen</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>17</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://maiz.at (5), https://old.maiz.at (8), https://playground224.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Unserer</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>20</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://beschallungsfrei.at (7), https://dasholzhaus.at (6), https://hoerstadt.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Que</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>11</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://deutero.net (7), https://dunkelkammer.net (2), https://sessions.dunkelkammer.net (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>15</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://versorgerin.stwst.at (4), https://versorgerin.stwst.org (4), https://wien.igkultur.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Freies</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>21</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://freie-radios.online (7), https://online.freie-radios.at (7), https://vfroe.dwerk.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>16</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://argemarie.at (7), https://collective-ika.org (5), https://dsignweek.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Speicherung</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>18</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://peterandrosch.at (6), https://radio-fri.at (6), https://theater-tamtam.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>14</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://drdidi.at (2), https://landgaenge.eu (6), https://peterandrosch.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Kategorie</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>18</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://demokratierepaircafe.ig-demokratie.at (6), https://diyrepaircafe.ig-demokratie.at (6), https://repaircafe.ig-demokratie.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Artist</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>11</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://faxen-collective.net (3), https://femaleartistindex.org (2), https://fiftitu.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>14</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://andreas.kairus.org (6), https://andreaskurz.net (2), https://andreaszingerle.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>12</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://benjaminwahl.at (5), https://frautomani.at (2), https://skodone.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Leonding</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>14</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://euroby2008.stwst.at (5), https://euroby2008.stwst.org (5), https://kuva.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Freie</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>13</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://freie-radios.online (4), https://online.freie-radios.at (4), https://vfroe.dwerk.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Texte</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>12</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://gegenschwarzblau.servus.at (4), https://gegenschwarzblau.stwst.at (4), https://gegenschwarzblau.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Pmk</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>10</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://neu.pmk.or.at (3), https://pmk.or.at (3), https://zehnjahre.pmk.or.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Kapu</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>8</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://kapu.at (2), https://kapu.or.at (2), https://old.kapu.or.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Diydemokratierepaircafe</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>12</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://demokratierepaircafe.ig-demokratie.at (4), https://diyrepaircafe.ig-demokratie.at (4), https://repaircafe.ig-demokratie.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Things</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>8</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://abolish.ment.org (2), https://opencall.kairus.org (3), https://streettraining.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>9</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://demokratierepaircafe.ig-demokratie.at (3), https://diyrepaircafe.ig-demokratie.at (3), https://repaircafe.ig-demokratie.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Repaircafes</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>9</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://demokratierepaircafe.ig-demokratie.at (3), https://diyrepaircafe.ig-demokratie.at (3), https://repaircafe.ig-demokratie.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Kazino</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>9</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://helgatraxler.at (3), https://photosalonhelga.at (3), https://photosalonhelga.com (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>9</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://gegenschwarzblau.servus.at (3), https://gegenschwarzblau.stwst.at (3), https://gegenschwarzblau.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Ausserdem</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>9</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://gegenschwarzblau.servus.at (3), https://gegenschwarzblau.stwst.at (3), https://gegenschwarzblau.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Another</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>8</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://linz0nein.servus.at (2), https://waytoshambala.org (3), https://waytoshambhala.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Toolsshow</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>6</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://dokuwiki.davidebevilacqua.com (2), https://internationalerfrauentag.servus.at (2), https://wiki.stwst.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Siz</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>6</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://helgatraxler.at (2), https://photosalonhelga.at (2), https://photosalonhelga.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>6</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://explorer.stwst.at (2), https://quasikunst.at (2), https://quasikunst.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Passwort</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>6</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://guglmugl.net (2), https://intern.programmkinowels.at (2), https://zeitgemeinschaft.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Linzdas</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>6</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://irrational.isation.org (2), https://isation.org (2), https://rational.isation.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Lay</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>6</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://helgatraxler.at (2), https://photosalonhelga.at (2), https://photosalonhelga.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Irrationalisierungsinstitut</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>6</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://irrational.isation.org (2), https://isation.org (2), https://rational.isation.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Irrationalisation</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>6</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://irrational.isation.org (2), https://isation.org (2), https://rational.isation.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Inhalt</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>6</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://heartofnoise.at (2), https://hr-ctrl.or.at (2), https://kulturwald.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Electronica</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>6</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://meatspace.stwst.at (2), https://meatspace.stwst.org (2), https://walterschalter.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>6</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://dokuwiki.davidebevilacqua.com (2), https://internationalerfrauentag.servus.at (2), https://wiki.stwst.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>People</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>80</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://livingwithplanb.derieg.com (72), https://valina.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>55</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://livingwithplanb.derieg.com (43), https://timesup.org (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>46</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://linda.kairus.org (42), https://oberhumer.com (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Erde</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>42</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://argemarie.at (9), https://lottaschreibt.at (33)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Archive</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>35</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://archive.stwst.at (8), https://archivia.at (27)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>…read</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>50</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://diereferentin.servus.at (25), https://zeitung.servus.at (25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Markus</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>25</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://ment.org (22), https://nichtstun.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>31</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://graztermine.at (10), https://sunobwegeser.net (21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Artists</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>23</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://as-tree.shanefinan.org (5), https://management.shanefinan.org (18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Uni</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>19</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://erste-tage.unibrennt.at (17), https://unsere.unibrennt.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Neue</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>34</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://gibling.stwst.at (17), https://gibling.stwst.org (17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>32</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://diereferentin.servus.at (16), https://zeitung.servus.at (16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Land</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>18</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://kulturlandretten.at (15), https://test.kupf.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Fmr</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>20</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://19.linzfmr.at (14), https://21.linzfmr.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Mycelium</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>26</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://mns.stwst.at (13), https://mns.stwst.org (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Dakar</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>21</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://100-dakar.com (13), https://africanfuturisms.stwst.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Communitywährung</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>26</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://gibling.stwst.at (13), https://gibling.stwst.org (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>26</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://cold.stwst.at (13), https://cold.stwst.org (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Agnes</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>26</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://ausstellung.stuwer.info (13), https://schaukasten.stuwer.info (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Wochen</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>24</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://diereferentin.servus.at (12), https://zeitung.servus.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Monaten</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>24</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://diereferentin.servus.at (12), https://zeitung.servus.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Lesung</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>24</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://stephanroiss.at (12), https://thomasbaum.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Juli</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>15</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://backwood.at (12), https://dasdreieck.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Giblings</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>24</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://gibling.stwst.at (12), https://gibling.stwst.org (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Download</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>14</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://ment.org (12), https://space.depart.ment.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Werner</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>22</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://rotespuren.at (11), https://veranstaltungen.rotespuren.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Society</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>22</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://mns.stwst.at (11), https://mns.stwst.org (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Personen</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>22</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://nightcreaturesdeamons.stwst.at (11), https://nightcreaturesdeamons.stwst.org (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>22</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://nightcreaturesdeamons.stwst.at (11), https://nightcreaturesdeamons.stwst.org (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>20</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://deathpositiv.at (9), https://tschneid.servus.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Magnus</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>22</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://diereferentin.servus.at (11), https://zeitung.servus.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>18</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://archive.faces-l.net (7), https://oldcore.servus.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Drizhal</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>21</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://rotespuren.at (11), https://veranstaltungen.rotespuren.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Deamons</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>22</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://nightcreaturesdeamons.stwst.at (11), https://nightcreaturesdeamons.stwst.org (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Creatures</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>22</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://nightcreaturesdeamons.stwst.at (11), https://nightcreaturesdeamons.stwst.org (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Based</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>22</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://faces-l.net (11), https://neu.faces-l.net (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Vorarlberger</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>20</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://igkultur-vbg.at (10), https://vorarlberg.igkultur.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Quasikunst</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>20</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://quasikunst.stwst.at (10), https://quasikunst.stwst.org (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>13</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://collective-ika.org (3), https://moodle.fro.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Kiste</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>20</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://ausstellung.stuwer.info (10), https://schaukasten.stuwer.info (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Geschichte</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>13</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://rotespuren.at (10), https://workstation.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Euroby</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>20</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://euroby2008.stwst.at (10), https://euroby2008.stwst.org (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Carearbeit</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>20</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://buergerinnenrat.at (10), https://xn--brgerinnenrat-wob.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Award</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>15</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://derkaktus.at (10), https://ellaraidel.com (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Antworten</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>19</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://rotespuren.at (10), https://veranstaltungen.rotespuren.at (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>20</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://anna-fiala.at (10), https://graztermine.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Kärntenkoroška</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>18</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://igkikk.at (9), https://kaernten.igkultur.at (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Glas</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>18</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://ausstellung.stuwer.info (9), https://schaukasten.stuwer.info (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Fã¼r</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>15</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://freie-medien.at (9), https://valina.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Magdalena</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>10</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://magdalenareiter.at (2), https://themagdalenaproject.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Kunstuniversität</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>13</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://sabrina.servus.at (5), https://steingeschichten.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Kritik</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>16</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://cold.stwst.at (8), https://cold.stwst.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Kikk</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>16</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://igkikk.at (8), https://kaernten.igkultur.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Auwiesen</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>16</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://filialeauwiesen.stwst.at (8), https://filialeauwiesen.stwst.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Androsch</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>10</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://drdidi.at (2), https://peterandrosch.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>11</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://boxafilm.com (4), https://translate.eipcp.net (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Smiling</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>13</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://base.at (7), https://dorninger.servus.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Sexarbeit</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>12</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://lustwerkstatt.at (7), https://rotlicht.stuwer.info (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Bündnis</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>10</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://az-linz.servus.at (7), https://buendnis.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Zingerle</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>12</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://andreas.kairus.org (6), https://andreaszingerle.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Translation</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>12</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://eliot.at (6), https://translate.eipcp.net (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Thread</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>12</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://redthread.stwst.at (6), https://redthread.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Stay</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>12</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://stwst48x5.stwst.at (6), https://stwst48x5.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Sieben</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>12</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://strom7.stwst.at (6), https://strom7.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Raidel</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>8</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://antonraidel.com (2), https://ellaraidel.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>8</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://dsignweek.servus.at (6), https://tinaleisch.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Leben</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>10</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://alt.visionswerkstatt.at (4), https://rudolfhabringer.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Klicken</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>12</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://beschallungsfrei.at (6), https://hoerstadt.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Herzblutwiese</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>12</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://herzblutwiese.stwst.at (6), https://herzblutwiese.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Hauses</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>12</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://stoer.stwst.at (6), https://stoer.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Gastgeber</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>12</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://strom7.stwst.at (6), https://strom7.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Freistadt</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>10</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://frf.at (4), https://landgaenge.eu (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Documentary</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>11</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://apileofghosts.com (5), https://doublehappiness.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>12</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://waytoshambala.org (6), https://waytoshambhala.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Anzahl</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>12</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://newsletter.stwst.at (6), https://newsletter.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Öffentliche</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>10</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://kellerabteil.org (5), https://kellerabteil.servus.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Would</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>10</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://waytoshambala.org (5), https://waytoshambhala.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Widerstand</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>9</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://nurdietoten.at (5), https://sabrina.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Webseite</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>10</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://beschallungsfrei.at (5), https://hoerstadt.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Versorgerin</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>10</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://versorgerin.stwst.at (5), https://versorgerin.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Vereinbarkeit</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>10</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://buergerinnenrat.at (5), https://xn--brgerinnenrat-wob.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Technische</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>10</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://peterandrosch.at (5), https://theater-tamtam.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Stuwerviertel</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>8</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://stuwer.info (3), https://treffen.stuwer.info (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Something</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>7</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://kuk-linz.at (2), https://something-moved.shanefinan.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Signals</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>10</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://7067.stwst.at (5), https://7067.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Node</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>10</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://mns.stwst.at (5), https://mns.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Mind</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>10</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://stwst48x3.stwst.at (5), https://stwst48x3.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Maiz</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>9</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://maiz.at (5), https://old.maiz.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Mailingliste</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>10</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://newsletter.stwst.at (5), https://newsletter.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Litfaßsäule</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>10</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://freielitfasssaeule.stwst.at (5), https://freielitfasssaeule.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Konzert</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>10</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://kapu.at (5), https://kapu.or.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Haunted</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>10</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://ellaraidel.com (5), https://hauntedspaces.net (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Güter</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>10</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://kellerabteil.org (5), https://kellerabteil.servus.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Enabledisable</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>10</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://benjaminwahl.at (5), https://skodone.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Emails</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>10</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://newsletter.stwst.at (5), https://newsletter.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Dienste</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>10</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://beschallungsfrei.at (5), https://hoerstadt.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Context</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>10</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://newsletter.stwst.at (5), https://newsletter.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Compression</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>8</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://lzop.org (5), https://oberhumer.com (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Categories</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>10</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://andreas.kairus.org (5), https://andreaszingerle.com (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>9</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://ta.stwst.at (4), https://ta.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Anton</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>8</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://antonraidel.com (3), https://kuva.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Anteil</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>10</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>https://infolab.stwst.at (5), https://infolab.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>8</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://anna-kraher.de (5), https://lllk.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Übergangssenat</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>8</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>https://uebergangssenat.stwst.at (4), https://uebergangssenat.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Unfinished</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>8</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://stwst48x5.stwst.at (4), https://stwst48x5.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Tomorrow</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>8</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://waytoshambala.org (4), https://waytoshambhala.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Raum</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>8</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>https://stoer.stwst.at (4), https://stoer.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Radical</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>8</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>https://liwoli.at (4), https://radical-openness.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Publishing</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>8</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://dsignweek.servus.at (4), https://midstream.eipcp.net (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Platz</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>8</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>https://uebergangssenat.stwst.at (4), https://uebergangssenat.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Openness</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>8</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>https://liwoli.at (4), https://radical-openness.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Kulturplattform</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>7</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://innovationstopf.at (3), https://kupf.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Kinder</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>7</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://derschueler.at (3), https://kolibri-schule.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Filiale</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>8</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>https://filialeauwiesen.stwst.at (4), https://filialeauwiesen.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Ele­vate</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>8</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://kellerabteil.org (4), https://kellerabteil.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Derieg</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>8</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>https://versorgerin.stwst.at (4), https://versorgerin.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Commit</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>8</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://cityofrespect.kunstraum.at (4), https://kunstraum.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Cities</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>8</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://hauntedspaces.net (4), https://opencall.kairus.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Ausgabe</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>7</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://old.frf.at (3), https://wassermair.net (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Zukunft</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>5</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>https://kolibri-schule.at (3), https://kulturwald.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Tickets</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>6</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://kapu.at (3), https://kapu.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>5</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>https://neu.tinaleisch.at (3), https://tinaleisch.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Stop</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>6</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://stwst48x2.stwst.at (3), https://stwst48x2.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Sowie</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>5</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://ig-demokratie.at (3), https://marx200.fro.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Plakatflächen</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>6</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://freielitfasssaeule.stwst.at (3), https://freielitfasssaeule.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Organisationteamunsere</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>6</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>https://kupf.at (3), https://kupfakademie.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>5</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://lectures.kairus.org (2), https://obssys.com (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>6</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>https://stwst48x2.stwst.at (3), https://stwst48x2.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Nachtpicknicks</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>6</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>https://uebergangssenat.stwst.at (3), https://uebergangssenat.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Musik</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>5</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>https://old.frf.at (3), https://stephanroiss.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Monks</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>6</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>https://waytoshambala.org (3), https://waytoshambhala.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Moderne</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>6</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>https://kupfservices.com (3), https://service.kupfticket.com (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Manic</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>6</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>https://neu.pmk.or.at (3), https://pmk.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>5</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>https://midstream.eipcp.net (3), https://travolta.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Hinaus</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>6</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>https://codeofconduct.stwst.at (3), https://codeofconduct.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Fast</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>6</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>https://neu.pmk.or.at (3), https://pmk.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Darüber</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>6</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>https://codeofconduct.stwst.at (3), https://codeofconduct.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Alten</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>6</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>https://alteschule-gutau.at (3), https://backlab.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>‎de‎english</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>4</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://kurse.das-kollektiv.at (2), https://moodle.lernplattform.das-kollektiv.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Unfertige</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>4</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>https://stwst48x5.stwst.at (2), https://stwst48x5.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>4</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>https://7067.stwst.at (2), https://7067.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Totally</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>4</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>https://stwst48x5.stwst.at (2), https://stwst48x5.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Stories</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>4</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>https://stories.buergerinnenrat.at (2), https://stories.xn--brgerinnenrat-wob.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>4</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>https://stats.fro.at (2), https://stats.kunstraum.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Startseite</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>4</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>https://kupfservices.com (2), https://service.kupfticket.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Shane</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>4</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>https://field.shanefinan.org (2), https://macalla.shanefinan.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Serviceplattform</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>4</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>https://kupfservices.com (2), https://service.kupfticket.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Pagesourceold</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>4</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>https://dokuwiki.davidebevilacqua.com (2), https://internationalerfrauentag.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Otto</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>4</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>https://otre.at (2), https://ottosaxinger.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Möchtest</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>4</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>https://kupfservices.com (2), https://service.kupfticket.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Last</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>4</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>https://stats.fro.at (2), https://stats.kunstraum.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Krankenwagen</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>4</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>https://ambulance.stwst.at (2), https://ambulance.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Khz</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>4</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>https://7067.stwst.at (2), https://7067.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>4</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>https://frautomani.at (2), https://verein-ent.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Förderung</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>4</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>https://hr-ctrl.or.at (2), https://verein-ent.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Erscheint</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>4</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>https://versorgerin.stwst.at (2), https://versorgerin.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Dunklen</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>4</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>https://stwst48x8.stwst.at (2), https://stwst48x8.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Dumbuto</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>4</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>https://ambulance.stwst.at (2), https://ambulance.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Disconnected</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>4</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>https://stwst48x8.stwst.at (2), https://stwst48x8.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Circle</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>4</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>https://neu.pmk.or.at (2), https://pmk.or.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Changesmedia</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>4</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>https://dokuwiki.davidebevilacqua.com (2), https://wiki.stwst.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Byquintessenz</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>4</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>https://neu.pmk.or.at (2), https://pmk.or.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Bar</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>4</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://kapu.at (2), https://kapu.or.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Authorization</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>4</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>https://cba-monitor.fro.at (2), https://monitoring.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/common_words/xls/common_words_among_websites_dict.xlsx
+++ b/output/common_words/xls/common_words_among_websites_dict.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,2432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Common Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Frequency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Websites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Stwst</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>322</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://ambulance.stwst.at (3), https://ambulance.stwst.org (3), https://archive.stwst.at (12), https://cafestrom.at (4), https://codeofconduct.stwst.at (14), https://codeofconduct.stwst.org (14), https://cold.stwst.at (17), https://cold.stwst.org (17), https://events.stwst.at (109), https://freielitfasssaeule.stwst.at (7), https://freielitfasssaeule.stwst.org (7), https://herzblutwiese.stwst.at (14), https://herzblutwiese.stwst.org (14), https://newcontext.stwst.at (7), https://newcontext.stwst.org (7), https://nightcreaturesdeamons.stwst.at (15), https://nightcreaturesdeamons.stwst.org (15), https://projects-test.stwst.at (7), https://projects-test.stwst.org (7), https://projects.stwst.at (7), https://redthread.stwst.at (8), https://redthread.stwst.org (8), https://stream.stwst.at (2), https://strom.stwst.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>228</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://archiv.kunstraum.at (13), https://az-linz.servus.at (13), https://core.servus.at (10), https://die-schule.at (91), https://donautics.stwst.at (3), https://dorninger.servus.at (6), https://finopoly.at (5), https://freie-medien.at (10), https://freienetze.net (10), https://freizeitundkommunikation.at (3), https://linz.pflueckt.at (3), https://newcore.servus.at (10), https://old.maiz.at (5), https://pflueckt.at (3), https://sabrina.servus.at (5), https://servus.at (10), https://steingeschichten.at (21), https://wirag.kapu.or.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>214</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://100-dakar.com (14), https://benjaminwahl.at (18), https://beschallungsfrei.at (22), https://dasholzhaus.at (11), https://diequote.at (24), https://drehorgelkabarett.at (14), https://frautomani.at (3), https://helgaschager.servus.at (14), https://hoerstadt.at (22), https://ingridschiller.at (14), https://ottosaxinger.at (3), https://peligro.at (14), https://schager.servus.at (15), https://schuledesungehorsams.at (2), https://schuledesungehorsams.com (2), https://schuledesungehorsams.de (2), https://schuledesungehorsams.org (2), https://skodone.at (18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>110</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://bos.servus.at (8), https://code.kohlberger.net (8), https://doctorsforchoice.at (8), https://hungaromedia.at (8), https://kuenstlerinnen.at (8), https://liquidautonomy.org (3), https://luckeneder-art.at (8), https://mrtg.servus.at (8), https://openlab.servus.at (8), https://platform-socialism.org (3), https://plattform-sozialismus.org (3), https://public.corridorsounds.org (8), https://shop.base.at (2), https://support.oberhumer.com (8), https://wap.kapu.or.at (8), https://webcal.stwst.at (8), https://wiki.platform-socialism.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hallo</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://arnetzhoferstrasse.stuwer.info (3), https://arselectronica.unibrennt.at (4), https://ausklang.unibrennt.at (4), https://bewegung.unibrennt.at (4), https://bologna.unibrennt.at (4), https://explosion.unibrennt.at (4), https://forderungen.unibrennt.at (4), https://kaiserwiese.stuwer.info (3), https://krise.unibrennt.at (4), https://magazin.stuwer.info (3), https://phaenomen.unibrennt.at (4), https://programm.unibrennt.at (4), https://proteste.unibrennt.at (4), https://repression.unibrennt.at (4), https://selma-steinmetz.stuwer.info (3), https://unsere.unibrennt.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Stadtwerkstatt</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://48.stwst.at (4), https://48.stwst.org (4), https://main-test.stwst.at (4), https://main-test.stwst.org (4), https://newcontext.stwst.at (7), https://newcontext.stwst.org (7), https://projects-test.stwst.at (7), https://projects-test.stwst.org (7), https://projects.stwst.at (7), https://stadtwerkstatt.at (4), https://stadtwerkstatt.com (4), https://strom7.stwst.at (11), https://strom7.stwst.org (11), https://stwst.at (4), https://stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>130</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://archive.faces-l.net (11), https://archive.stwst.at (8), https://codex4art.com (3), https://donowtic.com (11), https://eipcp.net (13), https://faces-l.net (16), https://kairus.org (6), https://liwoli.at (5), https://management.shanefinan.org (17), https://negentropy-sport.net (2), https://neu.faces-l.net (16), https://radical-openness.org (5), https://stwst48x4.stwst.at (4), https://transform.eipcp.net (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Unibrennt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>65</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://arselectronica.unibrennt.at (5), https://ausklang.unibrennt.at (3), https://bewegung.unibrennt.at (5), https://bologna.unibrennt.at (3), https://explosion.unibrennt.at (4), https://forderungen.unibrennt.at (4), https://krise.unibrennt.at (5), https://phaenomen.unibrennt.at (4), https://programm.unibrennt.at (3), https://proteste.unibrennt.at (5), https://repression.unibrennt.at (5), https://unibrennt.at (16), https://unsere.unibrennt.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Kunst</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>164</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://backlab.at (10), https://cold.stwst.at (14), https://cold.stwst.org (14), https://frauenkultur.at (16), https://herzblutwiese.stwst.at (14), https://herzblutwiese.stwst.org (14), https://kulturlandretten.at (30), https://staging.igkultur-vbg.at (9), https://staging.igkultur.at (9), https://strom7.stwst.at (15), https://strom7.stwst.org (15), https://triviale.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Kultur</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>156</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://burgenland.igkultur.at (11), https://frauenkultur.at (17), https://igkultur-vbg.at (26), https://igkultur.at (13), https://konsortium.at (3), https://niederoesterreich.igkultur.at (4), https://oberoesterreich.igkultur.at (4), https://oesterreich.igkultur.at (13), https://steiermark.igkultur.at (27), https://tirol.igkultur.at (4), https://vorarlberg.igkultur.at (26), https://wien.igkultur.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rocky</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>96</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://bos.servus.at (8), https://code.kohlberger.net (8), https://doctorsforchoice.at (8), https://hungaromedia.at (8), https://kuenstlerinnen.at (8), https://luckeneder-art.at (8), https://mrtg.servus.at (8), https://openlab.servus.at (8), https://public.corridorsounds.org (8), https://support.oberhumer.com (8), https://wap.kapu.or.at (8), https://webcal.stwst.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>71</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://donautics.com (2), https://events.stwst.at (41), https://newsletter.stwst.at (7), https://newsletter.stwst.org (7), https://okabre.com (2), https://stwst48-all.stwst.at (3), https://stwst48-all.stwst.org (3), https://stwst48.stwst.at (3), https://stwst48.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://7067.stwst.at (3), https://7067.stwst.org (3), https://freie-radios.online (22), https://funda.ment.org (5), https://lehrredaktion.fro.at (5), https://online.freie-radios.at (22), https://rfs.fro.at (5), https://vfroe.dwerk.at (23), https://wegstrecken.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Menschen</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>57</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://bettellobby.at (21), https://donau-danube.eu (3), https://donau-donava.eu (3), https://donau-duna.eu (3), https://donau-dunaj.eu (3), https://donau-dunarea.eu (3), https://donau-dunav.eu (3), https://donau-dunaw.eu (3), https://vonunten.at (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://48.stwst.at (4), https://48.stwst.org (4), https://main-test.stwst.at (4), https://main-test.stwst.org (4), https://stadtwerkstatt.at (4), https://stadtwerkstatt.com (4), https://stwst.at (4), https://stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>28</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://asif.shanefinan.org (3), https://benjaminwahl.at (5), https://gegenschwarzblau.servus.at (4), https://gegenschwarzblau.stwst.at (4), https://gegenschwarzblau.stwst.org (4), https://skodone.at (5), https://woodwideweb.shanefinan.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Brückenschlag</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://donau-danube.eu (3), https://donau-donava.eu (3), https://donau-duna.eu (3), https://donau-dunaj.eu (3), https://donau-dunarea.eu (3), https://donau-dunav.eu (3), https://donau-dunaw.eu (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Politik</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>36</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://niederoesterreich.igkultur.at (5), https://oberoesterreich.igkultur.at (6), https://steiermark.igkultur.at (10), https://tirol.igkultur.at (5), https://wien.igkultur.at (7), https://wirtshauswissenschaften.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jahre</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://dasfundus.net (5), https://ista.unibrennt.at (2), https://konsolidierung.unibrennt.at (2), https://unibrennt.at (9), https://workstation.or.at (4), https://zehnjahre.pmk.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>34</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://stwst48-all.stwst.at (7), https://stwst48-all.stwst.org (7), https://stwst48.stwst.at (7), https://stwst48.stwst.org (7), https://stwst48x2.stwst.at (3), https://stwst48x2.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Server</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>23</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://explorer.stwst.at (2), https://fss.stwst.at (4), https://oberhumer.name (5), https://quiz.kairus.org (4), https://survey.kairus.org (4), https://test.kairus.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Projekt</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>18</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://hoerspuren.at (3), https://hoerspuren.com (3), https://hoerspuren.org (3), https://kulturviertelwochen.at (3), https://xn--hrspuren-n4a.at (3), https://xn--hrspuren-n4a.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sept</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://stwst48x6.stwst.at (2), https://stwst48x6.stwst.org (2), https://stwst48x7.stwst.at (2), https://stwst48x7.stwst.org (2), https://stwst48x9.stwst.at (2), https://stwst48x9.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>37</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://joreg.ath.cx (7), https://something-moved.shanefinan.org (7), https://tschneid.servus.at (19), https://tv.stwst.at (2), https://tv.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>44</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://apileofghosts.com (16), https://boxafilm.com (8), https://corpushomini.info (3), https://doublehappiness.at (12), https://hauntedspaces.net (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Festival</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>37</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://apileofghosts.com (11), https://fdr.at (9), https://filmriss.at (5), https://liwoli.at (6), https://radical-openness.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>36</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://apephonie.org (2), https://dasholzhaus.at (10), https://drehorgelkabarett.at (8), https://ingridschiller.at (8), https://peligro.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Arbeiten</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>29</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://apephonie.org (2), https://fiftitu.at (7), https://leodressel.net (2), https://redthread.stwst.at (9), https://redthread.stwst.org (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>30</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://filmdays.stwst.at (7), https://helgatraxler.at (6), https://old.frf.at (5), https://photosalonhelga.at (6), https://photosalonhelga.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Servus</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>24</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://core.servus.at (5), https://freienetze.net (5), https://newcore.servus.at (5), https://playground225.servus.at (4), https://servus.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Audioguides</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://hoerspuren.at (5), https://hoerspuren.com (5), https://hoerspuren.org (5), https://xn--hrspuren-n4a.at (5), https://xn--hrspuren-n4a.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://apt2.servus.at (2), https://download.cinemanext.at (2), https://femaleartistindex.org (4), https://public.timesup.org (2), https://webhistory.stwst.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>25</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://field.shanefinan.org (3), https://macalla.shanefinan.org (5), https://martisanchez.com (3), https://shanefinan.org (14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Uhr</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>36</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://az-linz.servus.at (8), https://maydaylinz.at (8), https://rudolfhabringer.at (12), https://wirag.kapu.or.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kupf</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>28</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://innovationstopf.at (7), https://kupf.at (10), https://kupfakademie.at (5), https://lehrgang.kupf.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Que</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>17</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://balonlebowski.com (6), https://deutero.net (7), https://dunkelkammer.net (2), https://sessions.dunkelkammer.net (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>14</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://cafestrom.at (4), https://codeofconduct.stwst.at (3), https://codeofconduct.stwst.org (3), https://strom.stwst.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Stuwerviertels</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://arnetzhoferstrasse.stuwer.info (3), https://kaiserwiese.stuwer.info (3), https://magazin.stuwer.info (3), https://selma-steinmetz.stuwer.info (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Setup</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://air.stwst.at (2), https://doku.kairus.org (2), https://dokuwiki.servus.at (3), https://iooptdoku.kairus.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Like</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://liquidautonomy.org (3), https://platform-socialism.org (3), https://plattform-sozialismus.org (3), https://wiki.platform-socialism.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Schule</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>295</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://alteschule-gutau.at (5), https://derschueler.at (5), https://die-schule.at (285)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Wien</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>121</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://kultur-jobs.at (58), https://kulturjob.at (58), https://theaternyx.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Gibling</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>74</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://gibling.stwst.at (36), https://gibling.stwst.org (36), https://punkaustria.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Loading</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>78</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://freie-radios.online (26), https://online.freie-radios.at (26), https://vfroe.dwerk.at (26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>30</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://derschueler.at (4), https://diebresche.org (23), https://lotta-gaffa.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>März</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>30</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://das-kollektiv.at (8), https://feminismus-krawall.at (16), https://unkraut-comics.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Live</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>24</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://dorninger.servus.at (6), https://finopoly.at (16), https://groove.ment.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>46</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://palmfiction.net (16), https://ta.stwst.at (15), https://ta.stwst.org (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Faces</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>40</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://archive.faces-l.net (10), https://faces-l.net (15), https://neu.faces-l.net (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Bürgerinnenrat</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>27</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://neuwahlvonunten.at (4), https://vonunten.at (15), https://xn--brgerinnenrat-wob.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>31</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://migrazine.at (14), https://neu.migrazine.at (14), https://space.depart.ment.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>34</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://staging.igkultur-vbg.at (13), https://staging.igkultur.at (13), https://themagdalenaproject.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Information</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>34</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://donowtic.com (8), https://infolab.stwst.at (13), https://infolab.stwst.org (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>16</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://kurse.das-kollektiv.at (2), https://moodle.lernplattform.das-kollektiv.at (2), https://umfrage.servus.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Vonericklaering</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>30</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://ausstellung.stuwer.info (10), https://schaukasten.stuwer.info (10), https://treffen.stuwer.info (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kunstraum</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>18</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://archiv.kunstraum.at (10), https://cityofrespect.kunstraum.at (4), https://kunstraum.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Javascript</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>18</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://coding.servus.at (10), https://cp.servus.at (2), https://kuva.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>University</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>25</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://euroby2008.stwst.at (9), https://euroby2008.stwst.org (9), https://field.shanefinan.org (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Praxis</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>25</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://burgenland.igkultur.at (9), https://igkikk.at (8), https://kaernten.igkultur.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>21</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://igkultur.at (9), https://obssys.com (3), https://oesterreich.igkultur.at (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Migrantinnen</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>17</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://maiz.at (5), https://old.maiz.at (8), https://playground224.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Kategorie</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>18</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://demokratierepaircafe.ig-demokratie.at (6), https://diyrepaircafe.ig-demokratie.at (6), https://repaircafe.ig-demokratie.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>14</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://andreas.kairus.org (6), https://andreaskurz.net (2), https://andreaszingerle.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Texte</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>12</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://gegenschwarzblau.servus.at (4), https://gegenschwarzblau.stwst.at (4), https://gegenschwarzblau.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Pmk</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>10</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://neu.pmk.or.at (3), https://pmk.or.at (3), https://zehnjahre.pmk.or.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Diydemokratierepaircafe</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>12</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://demokratierepaircafe.ig-demokratie.at (4), https://diyrepaircafe.ig-demokratie.at (4), https://repaircafe.ig-demokratie.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://kanboard.downinthehole.org (2), https://kb.servus.at (2), https://webstats.servus.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Kazino</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>9</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://helgatraxler.at (3), https://photosalonhelga.at (3), https://photosalonhelga.com (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://explorer.stwst.at (2), https://quasikunst.at (2), https://quasikunst.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Irrationalisierungsinstitut</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://irrational.isation.org (2), https://isation.org (2), https://rational.isation.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Irrationalisation</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://irrational.isation.org (2), https://isation.org (2), https://rational.isation.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://quiz.kairus.org (2), https://survey.kairus.org (2), https://test.kairus.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Electronica</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://meatspace.stwst.at (2), https://meatspace.stwst.org (2), https://walterschalter.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Bruttolohn</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>148</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://kultur-jobs.at (74), https://kulturjob.at (74)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Workshop</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>53</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://howtogetwhatyouwant.at (34), https://mzbaltazarslaboratory.org (19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Erde</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>42</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://argemarie.at (9), https://lottaschreibt.at (33)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>37</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://alt.visionswerkstatt.at (4), https://archivia.at (33)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>…read</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>50</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://diereferentin.servus.at (25), https://zeitung.servus.at (25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oberösterreich</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>27</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://buendnis.at (3), https://kulturlandretten.at (24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Pay</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>29</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://fairpaykultur.at (22), https://salzburg.igkultur.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>40</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://mns.stwst.at (20), https://mns.stwst.org (20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>27</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://fairpaykultur.at (20), https://salzburg.igkultur.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Neue</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>34</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://gibling.stwst.at (17), https://gibling.stwst.org (17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>32</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://diereferentin.servus.at (16), https://zeitung.servus.at (16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Fmr</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>20</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://19.linzfmr.at (14), https://21.linzfmr.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Vorarlberg</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>26</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://igkultur-vbg.at (13), https://vorarlberg.igkultur.at (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Mycelium</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>26</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://mns.stwst.at (13), https://mns.stwst.org (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>24</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://backwood.at (13), https://maydaylinz.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Agnes</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>26</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://ausstellung.stuwer.info (13), https://schaukasten.stuwer.info (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Lesung</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>24</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://stephanroiss.at (12), https://thomasbaum.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>18</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://eliot.at (7), https://grgr.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Werner</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>22</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://rotespuren.at (11), https://veranstaltungen.rotespuren.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>22</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://nightcreaturesdeamons.stwst.at (11), https://nightcreaturesdeamons.stwst.org (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>20</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://deathpositiv.at (9), https://tschneid.servus.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Read</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>17</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://ellaraidel.com (7), https://freie-medien.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Quasikunst</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>20</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://quasikunst.stwst.at (10), https://quasikunst.stwst.org (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Juni</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>12</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://moodle.maiz.at (2), https://nurdietoten.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Euroby</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>20</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://euroby2008.stwst.at (10), https://euroby2008.stwst.org (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>20</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://anna-fiala.at (10), https://graztermine.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Kärntenkoroška</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>18</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://igkikk.at (9), https://kaernten.igkultur.at (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>16</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://19.linzfmr.at (9), https://21.linzfmr.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Wurde</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>16</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://stoer.stwst.at (8), https://stoer.stwst.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Welt</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>16</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://quasikunst.stwst.at (8), https://quasikunst.stwst.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Magdalena</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>10</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://magdalenareiter.at (2), https://themagdalenaproject.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Labor</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>16</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://migrazine.at (8), https://neu.migrazine.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>11</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://kmptt.servus.at (8), https://qujochoe.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Auwiesen</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>16</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://filialeauwiesen.stwst.at (8), https://filialeauwiesen.stwst.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Verein</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>10</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://hr-ctrl.or.at (3), https://verein-ent.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Unserer</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>14</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://beschallungsfrei.at (7), https://hoerstadt.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Sexarbeit</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>12</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://lustwerkstatt.at (7), https://rotlicht.stuwer.info (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>9</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://arttraffic-strand.net (2), https://bb15.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>14</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://as-tree.shanefinan.org (7), https://bb15.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Zingerle</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>12</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://andreas.kairus.org (6), https://andreaszingerle.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Stay</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>12</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://stwst48x5.stwst.at (6), https://stwst48x5.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>8</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://dsignweek.servus.at (6), https://tinaleisch.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>12</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://kellerabteil.org (6), https://kellerabteil.servus.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>12</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://versorgerin.stwst.at (6), https://versorgerin.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Hauses</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>12</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://stoer.stwst.at (6), https://stoer.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>12</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://waytoshambala.org (6), https://waytoshambhala.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Anzahl</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>12</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://newsletter.stwst.at (6), https://newsletter.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Öffentliche</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>10</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://kellerabteil.org (5), https://kellerabteil.servus.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Would</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>10</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://waytoshambala.org (5), https://waytoshambhala.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Weiterlesen</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>9</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://lustwerkstatt.at (5), https://playground225.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Versorgerin</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>10</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://versorgerin.stwst.at (5), https://versorgerin.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Stadt</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>10</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://freielitfasssaeule.stwst.at (5), https://freielitfasssaeule.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Something</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>7</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://kuk-linz.at (2), https://something-moved.shanefinan.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Signals</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>10</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://7067.stwst.at (5), https://7067.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Mind</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>10</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://stwst48x3.stwst.at (5), https://stwst48x3.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Konzert</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>10</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://kapu.at (5), https://kapu.or.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Infolab</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>10</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://infolab.stwst.at (5), https://infolab.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Anton</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>8</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://antonraidel.com (3), https://kuva.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>8</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://anna-kraher.de (5), https://lllk.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Übergangssenat</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>8</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://uebergangssenat.stwst.at (4), https://uebergangssenat.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Unfinished</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>8</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://stwst48x5.stwst.at (4), https://stwst48x5.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Platz</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>8</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://uebergangssenat.stwst.at (4), https://uebergangssenat.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Integrationberatungdigimi</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>8</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://piramidops.at (4), https://piramidops.com (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Filiale</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>8</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://filialeauwiesen.stwst.at (4), https://filialeauwiesen.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Digitalisierung</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>8</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://piramidops.at (4), https://piramidops.com (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Commit</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>8</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://cityofrespect.kunstraum.at (4), https://kunstraum.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Tickets</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>6</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://kapu.at (3), https://kapu.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>5</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://neu.tinaleisch.at (3), https://tinaleisch.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>6</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://stwst48x2.stwst.at (3), https://stwst48x2.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Moderne</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>6</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://kupfservices.com (3), https://service.kupfticket.com (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Less</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>6</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://stwst48x3.stwst.at (3), https://stwst48x3.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Fast</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>6</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://neu.pmk.or.at (3), https://pmk.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>6</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://stwst48x8.stwst.at (3), https://stwst48x8.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>‎de‎english</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>4</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://kurse.das-kollektiv.at (2), https://moodle.lernplattform.das-kollektiv.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Toolsshow</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://dokuwiki.davidebevilacqua.com (2), https://wiki.stwst.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Stories</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://stories.buergerinnenrat.at (2), https://stories.xn--brgerinnenrat-wob.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://stats.fro.at (2), https://stats.kunstraum.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Startseite</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>4</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://kupfservices.com (2), https://service.kupfticket.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Pflückt</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://linz.pflueckt.at (2), https://pflueckt.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Otto</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://otre.at (2), https://ottosaxinger.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Last</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://stats.fro.at (2), https://stats.kunstraum.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Krankenwagen</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>4</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://ambulance.stwst.at (2), https://ambulance.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Fragen</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://stwst48x6.stwst.at (2), https://stwst48x6.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Disconnected</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>4</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://stwst48x8.stwst.at (2), https://stwst48x8.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://dokuwiki.davidebevilacqua.com (2), https://wiki.stwst.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Authorization</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>4</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://cba-monitor.fro.at (2), https://monitoring.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Angemeldet</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>4</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://moodle.digimathe.maiz.at (2), https://moodle.prequalsteps.maiz.at (2)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>